--- a/R/2017_11_23_Completed_LN1_Deep (0m to 120m)_newcleaned.xlsx
+++ b/R/2017_11_23_Completed_LN1_Deep (0m to 120m)_newcleaned.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\Data\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TMSI-REL\Desktop\Zhi Yi's Working Folder\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4F173F80-1EEE-4A81-A9A5-155AFD37DF97}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DF11A1-D45B-4823-82C8-DE7CD77882D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="454" windowWidth="16660" windowHeight="15220" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="16665" windowHeight="15225" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
     <sheet name="LN1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="1074">
   <si>
     <t>Date/Time</t>
   </si>
@@ -3267,6 +3272,12 @@
   </si>
   <si>
     <t>Pseudosiderastrea tayamai</t>
+  </si>
+  <si>
+    <t>Fungia sp.</t>
+  </si>
+  <si>
+    <t>Tubastraea sp.</t>
   </si>
 </sst>
 </file>
@@ -3870,30 +3881,30 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="32.453125" customWidth="1"/>
+    <col min="1" max="2" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>873</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>874</v>
       </c>
       <c r="B2" s="12"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>875</v>
       </c>
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>876</v>
       </c>
@@ -3901,7 +3912,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>878</v>
       </c>
@@ -3909,97 +3920,97 @@
         <v>879</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>880</v>
       </c>
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>881</v>
       </c>
       <c r="B7" s="13"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>882</v>
       </c>
       <c r="B8" s="12"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>883</v>
       </c>
       <c r="B9" s="13"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>884</v>
       </c>
       <c r="B10" s="12"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>885</v>
       </c>
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>886</v>
       </c>
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>887</v>
       </c>
       <c r="B13" s="14"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>888</v>
       </c>
       <c r="B14" s="15"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>889</v>
       </c>
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>890</v>
       </c>
       <c r="B16" s="13"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>891</v>
       </c>
       <c r="B17" s="13"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>892</v>
       </c>
       <c r="B18" s="13"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>893</v>
       </c>
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>894</v>
       </c>
       <c r="B20" s="12"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>895</v>
       </c>
@@ -4007,13 +4018,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>896</v>
       </c>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>897</v>
       </c>
@@ -4021,43 +4032,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>898</v>
       </c>
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>899</v>
       </c>
       <c r="B25" s="12"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>900</v>
       </c>
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>901</v>
       </c>
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>902</v>
       </c>
       <c r="B28" s="12"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>903</v>
       </c>
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>904</v>
       </c>
@@ -4065,7 +4076,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>906</v>
       </c>
@@ -4084,9 +4095,9 @@
       <selection sqref="A1:B821"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -4094,7 +4105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -4102,7 +4113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -4110,7 +4121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
@@ -4118,7 +4129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>27</v>
       </c>
@@ -4126,7 +4137,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
@@ -4134,7 +4145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
@@ -4142,7 +4153,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>33</v>
       </c>
@@ -4150,7 +4161,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>35</v>
       </c>
@@ -4158,7 +4169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>37</v>
       </c>
@@ -4166,7 +4177,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
@@ -4174,7 +4185,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>41</v>
       </c>
@@ -4182,7 +4193,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
@@ -4190,7 +4201,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>45</v>
       </c>
@@ -4198,7 +4209,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
@@ -4206,7 +4217,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>49</v>
       </c>
@@ -4214,7 +4225,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>51</v>
       </c>
@@ -4222,7 +4233,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>53</v>
       </c>
@@ -4230,7 +4241,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>55</v>
       </c>
@@ -4238,7 +4249,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>57</v>
       </c>
@@ -4246,7 +4257,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>59</v>
       </c>
@@ -4254,7 +4265,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>61</v>
       </c>
@@ -4262,7 +4273,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>63</v>
       </c>
@@ -4270,7 +4281,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>65</v>
       </c>
@@ -4278,7 +4289,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>67</v>
       </c>
@@ -4286,7 +4297,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>69</v>
       </c>
@@ -4294,7 +4305,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>71</v>
       </c>
@@ -4302,7 +4313,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>73</v>
       </c>
@@ -4310,7 +4321,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>75</v>
       </c>
@@ -4318,7 +4329,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>77</v>
       </c>
@@ -4326,7 +4337,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>79</v>
       </c>
@@ -4334,7 +4345,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>81</v>
       </c>
@@ -4342,7 +4353,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>83</v>
       </c>
@@ -4350,4729 +4361,4729 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="9"/>
       <c r="B174" s="9" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
       <c r="B175" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="9"/>
       <c r="B176" s="9" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
       <c r="B177" s="9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="9"/>
       <c r="B178" s="9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="9"/>
       <c r="B179" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="9"/>
       <c r="B180" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="9"/>
       <c r="B181" s="9" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="9"/>
       <c r="B182" s="9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="9"/>
       <c r="B183" s="9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
       <c r="B184" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="9"/>
       <c r="B185" s="9" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="9"/>
       <c r="B186" s="9" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
       <c r="B187" s="9" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
       <c r="B188" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="9"/>
       <c r="B189" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="9"/>
       <c r="B190" s="9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="9"/>
       <c r="B191" s="9" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="9"/>
       <c r="B192" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="9"/>
       <c r="B193" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="9"/>
       <c r="B194" s="9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="9"/>
       <c r="B195" s="9" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="9"/>
       <c r="B196" s="9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="9"/>
       <c r="B197" s="9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
       <c r="B198" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="9"/>
       <c r="B199" s="9" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="9"/>
       <c r="B200" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="9"/>
       <c r="B201" s="9" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
       <c r="B202" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
       <c r="B203" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
       <c r="B204" s="9" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="9"/>
       <c r="B205" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="9"/>
       <c r="B206" s="9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="9"/>
       <c r="B207" s="9" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="9"/>
       <c r="B208" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="9"/>
       <c r="B209" s="9" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="9"/>
       <c r="B210" s="9" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="9"/>
       <c r="B211" s="9" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="9"/>
       <c r="B212" s="9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="9"/>
       <c r="B213" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="9"/>
       <c r="B214" s="9" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="9"/>
       <c r="B215" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="9"/>
       <c r="B216" s="9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="9"/>
       <c r="B217" s="9" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="9"/>
       <c r="B218" s="9" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="9"/>
       <c r="B219" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="9"/>
       <c r="B220" s="9" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="9"/>
       <c r="B221" s="9" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="9"/>
       <c r="B222" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="9"/>
       <c r="B223" s="9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="9"/>
       <c r="B224" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="9"/>
       <c r="B225" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="9"/>
       <c r="B226" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="9"/>
       <c r="B227" s="9" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="9"/>
       <c r="B228" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="9"/>
       <c r="B229" s="9" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="9"/>
       <c r="B230" s="9" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="9"/>
       <c r="B231" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="9"/>
       <c r="B232" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="9"/>
       <c r="B233" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="9"/>
       <c r="B234" s="9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="9"/>
       <c r="B235" s="9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="9"/>
       <c r="B236" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="9"/>
       <c r="B237" s="9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="9"/>
       <c r="B238" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="9"/>
       <c r="B239" s="9" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="9"/>
       <c r="B240" s="9" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="9"/>
       <c r="B241" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="9"/>
       <c r="B242" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="9"/>
       <c r="B243" s="9" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="9"/>
       <c r="B244" s="9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="9"/>
       <c r="B245" s="9" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="9"/>
       <c r="B246" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="9"/>
       <c r="B247" s="9" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="9"/>
       <c r="B248" s="9" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="9"/>
       <c r="B249" s="9" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="9"/>
       <c r="B250" s="9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="9"/>
       <c r="B251" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="9"/>
       <c r="B252" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="9"/>
       <c r="B253" s="9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="9"/>
       <c r="B254" s="9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="9"/>
       <c r="B255" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="9"/>
       <c r="B256" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="9"/>
       <c r="B257" s="9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="9"/>
       <c r="B258" s="9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="9"/>
       <c r="B259" s="9" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="9"/>
       <c r="B260" s="9" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="9"/>
       <c r="B261" s="9" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="9"/>
       <c r="B262" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="9"/>
       <c r="B263" s="9" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="9"/>
       <c r="B264" s="9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="9"/>
       <c r="B265" s="9" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="9"/>
       <c r="B266" s="9" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="9"/>
       <c r="B267" s="9" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="9"/>
       <c r="B268" s="9" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="9"/>
       <c r="B269" s="9" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="9"/>
       <c r="B270" s="9" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="9"/>
       <c r="B271" s="9" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="9"/>
       <c r="B272" s="9" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="9"/>
       <c r="B273" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="9"/>
       <c r="B274" s="9" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="9"/>
       <c r="B275" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="9"/>
       <c r="B276" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="9"/>
       <c r="B277" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="9"/>
       <c r="B278" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="9"/>
       <c r="B279" s="9" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="9"/>
       <c r="B280" s="9" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="9"/>
       <c r="B281" s="9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="9"/>
       <c r="B282" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="9"/>
       <c r="B283" s="9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="9"/>
       <c r="B284" s="9" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="9"/>
       <c r="B285" s="9" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="9"/>
       <c r="B286" s="9" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="9"/>
       <c r="B287" s="9" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="9"/>
       <c r="B288" s="9" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="9"/>
       <c r="B289" s="9" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="9"/>
       <c r="B290" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="9"/>
       <c r="B291" s="9" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="9"/>
       <c r="B292" s="9" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="9"/>
       <c r="B293" s="9" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="9"/>
       <c r="B294" s="9" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="9"/>
       <c r="B295" s="9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="9"/>
       <c r="B296" s="9" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="9"/>
       <c r="B297" s="9" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="9"/>
       <c r="B298" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="9"/>
       <c r="B299" s="9" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="9"/>
       <c r="B300" s="9" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="9"/>
       <c r="B301" s="9" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="9"/>
       <c r="B302" s="9" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="9"/>
       <c r="B303" s="9" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="9"/>
       <c r="B304" s="9" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="9"/>
       <c r="B305" s="9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="9"/>
       <c r="B306" s="9" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="9"/>
       <c r="B307" s="9" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="9"/>
       <c r="B308" s="9" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="9"/>
       <c r="B309" s="9" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="9"/>
       <c r="B310" s="9" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="9"/>
       <c r="B311" s="9" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="9"/>
       <c r="B312" s="9" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="9"/>
       <c r="B313" s="9" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="9"/>
       <c r="B314" s="9" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="9"/>
       <c r="B315" s="9" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="9"/>
       <c r="B316" s="9" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="9"/>
       <c r="B317" s="9" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="9"/>
       <c r="B318" s="9" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="9"/>
       <c r="B319" s="9" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="9"/>
       <c r="B320" s="9" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="9"/>
       <c r="B321" s="9" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="9"/>
       <c r="B322" s="9" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="9"/>
       <c r="B323" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="9"/>
       <c r="B324" s="9" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="9"/>
       <c r="B325" s="9" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="9"/>
       <c r="B326" s="9" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="9"/>
       <c r="B327" s="9" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="9"/>
       <c r="B328" s="9" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="9"/>
       <c r="B329" s="9" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="9"/>
       <c r="B330" s="9" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="9"/>
       <c r="B331" s="9" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="9"/>
       <c r="B332" s="9" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="9"/>
       <c r="B333" s="9" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="9"/>
       <c r="B334" s="9" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="9"/>
       <c r="B335" s="9" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="9"/>
       <c r="B336" s="9" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="9"/>
       <c r="B337" s="9" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="9"/>
       <c r="B338" s="9" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="9"/>
       <c r="B339" s="9" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="9"/>
       <c r="B340" s="9" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="9"/>
       <c r="B341" s="9" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="9"/>
       <c r="B342" s="9" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="9"/>
       <c r="B343" s="9" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="9"/>
       <c r="B344" s="9" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="9"/>
       <c r="B345" s="9" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="9"/>
       <c r="B346" s="9" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="9"/>
       <c r="B347" s="9" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="9"/>
       <c r="B348" s="9" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="9"/>
       <c r="B349" s="9" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="9"/>
       <c r="B350" s="9" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="9"/>
       <c r="B351" s="9" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="9"/>
       <c r="B352" s="9" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="9"/>
       <c r="B353" s="9" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="9"/>
       <c r="B354" s="9" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="9"/>
       <c r="B355" s="9" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="9"/>
       <c r="B356" s="9" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="9"/>
       <c r="B357" s="9" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="9"/>
       <c r="B358" s="9" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="9"/>
       <c r="B359" s="9" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="9"/>
       <c r="B360" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="9"/>
       <c r="B361" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="9"/>
       <c r="B362" s="9" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="9"/>
       <c r="B363" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="9"/>
       <c r="B364" s="9" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="9"/>
       <c r="B365" s="9" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="9"/>
       <c r="B366" s="9" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="9"/>
       <c r="B367" s="9" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="9"/>
       <c r="B368" s="9" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="9"/>
       <c r="B369" s="9" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="9"/>
       <c r="B370" s="9" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="9"/>
       <c r="B371" s="9" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="9"/>
       <c r="B372" s="9" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="9"/>
       <c r="B373" s="9" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="9"/>
       <c r="B374" s="9" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="9"/>
       <c r="B375" s="9" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="9"/>
       <c r="B376" s="9" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="9"/>
       <c r="B377" s="9" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="9"/>
       <c r="B378" s="9" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="9"/>
       <c r="B379" s="9" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="9"/>
       <c r="B380" s="9" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="9"/>
       <c r="B381" s="9" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="9"/>
       <c r="B382" s="9" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="9"/>
       <c r="B383" s="9" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="9"/>
       <c r="B384" s="9" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="9"/>
       <c r="B385" s="9" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="9"/>
       <c r="B386" s="9" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="9"/>
       <c r="B387" s="9" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="9"/>
       <c r="B388" s="9" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="9"/>
       <c r="B389" s="9" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="9"/>
       <c r="B390" s="9" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="9"/>
       <c r="B391" s="9" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="9"/>
       <c r="B392" s="9" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="9"/>
       <c r="B393" s="9" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="9"/>
       <c r="B394" s="9" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="9"/>
       <c r="B395" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="9"/>
       <c r="B396" s="9" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="9"/>
       <c r="B397" s="9" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="9"/>
       <c r="B398" s="9" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="9"/>
       <c r="B399" s="9" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="9"/>
       <c r="B400" s="9" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="9"/>
       <c r="B401" s="9" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="9"/>
       <c r="B402" s="9" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="9"/>
       <c r="B403" s="9" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="9"/>
       <c r="B404" s="9" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="9"/>
       <c r="B405" s="9" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="9"/>
       <c r="B406" s="9" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="9"/>
       <c r="B407" s="9" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="9"/>
       <c r="B408" s="9" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="9"/>
       <c r="B409" s="9" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="9"/>
       <c r="B410" s="9" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="9"/>
       <c r="B411" s="9" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="9"/>
       <c r="B412" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="9"/>
       <c r="B413" s="9" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="9"/>
       <c r="B414" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="9"/>
       <c r="B415" s="9" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="9"/>
       <c r="B416" s="9" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="9"/>
       <c r="B417" s="9" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="9"/>
       <c r="B418" s="9" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="9"/>
       <c r="B419" s="9" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="9"/>
       <c r="B420" s="9" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="9"/>
       <c r="B421" s="9" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="9"/>
       <c r="B422" s="9" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="9"/>
       <c r="B423" s="9" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="9"/>
       <c r="B424" s="9" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="9"/>
       <c r="B425" s="9" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="9"/>
       <c r="B426" s="9" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="9"/>
       <c r="B427" s="9" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="9"/>
       <c r="B428" s="9" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="9"/>
       <c r="B429" s="9" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="9"/>
       <c r="B430" s="9" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="9"/>
       <c r="B431" s="9" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="9"/>
       <c r="B432" s="9" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="9"/>
       <c r="B433" s="9" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="9"/>
       <c r="B434" s="9" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="9"/>
       <c r="B435" s="9" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="9"/>
       <c r="B436" s="9" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="9"/>
       <c r="B437" s="9" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="9"/>
       <c r="B438" s="9" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="9"/>
       <c r="B439" s="9" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="9"/>
       <c r="B440" s="9" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="9"/>
       <c r="B441" s="9" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="9"/>
       <c r="B442" s="9" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="9"/>
       <c r="B443" s="9" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="9"/>
       <c r="B444" s="9" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="9"/>
       <c r="B445" s="9" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="9"/>
       <c r="B446" s="9" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="9"/>
       <c r="B447" s="9" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="9"/>
       <c r="B448" s="9" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="9"/>
       <c r="B449" s="9" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="9"/>
       <c r="B450" s="9" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="9"/>
       <c r="B451" s="9" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="9"/>
       <c r="B452" s="9" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="9"/>
       <c r="B453" s="9" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="9"/>
       <c r="B454" s="9" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="9"/>
       <c r="B455" s="9" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="9"/>
       <c r="B456" s="9" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="9"/>
       <c r="B457" s="9" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="9"/>
       <c r="B458" s="9" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="9"/>
       <c r="B459" s="9" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="9"/>
       <c r="B460" s="9" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="9"/>
       <c r="B461" s="9" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="9"/>
       <c r="B462" s="9" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="9"/>
       <c r="B463" s="9" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="9"/>
       <c r="B464" s="9" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="9"/>
       <c r="B465" s="9" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="9"/>
       <c r="B466" s="9" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="9"/>
       <c r="B467" s="9" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="9"/>
       <c r="B468" s="9" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="9"/>
       <c r="B469" s="9" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="9"/>
       <c r="B470" s="9" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="9"/>
       <c r="B471" s="9" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="9"/>
       <c r="B472" s="9" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="9"/>
       <c r="B473" s="9" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="9"/>
       <c r="B474" s="9" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="9"/>
       <c r="B475" s="9" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="9"/>
       <c r="B476" s="9" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="9"/>
       <c r="B477" s="9" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="9"/>
       <c r="B478" s="9" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="9"/>
       <c r="B479" s="9" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="9"/>
       <c r="B480" s="9" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="9"/>
       <c r="B481" s="9" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="9"/>
       <c r="B482" s="9" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="9"/>
       <c r="B483" s="9" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="9"/>
       <c r="B484" s="9" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="9"/>
       <c r="B485" s="9" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="9"/>
       <c r="B486" s="9" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="9"/>
       <c r="B487" s="9" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="9"/>
       <c r="B488" s="9" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="9"/>
       <c r="B489" s="9" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="9"/>
       <c r="B490" s="9" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="9"/>
       <c r="B491" s="9" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="9"/>
       <c r="B492" s="9" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="9"/>
       <c r="B493" s="9" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="9"/>
       <c r="B494" s="9" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="9"/>
       <c r="B495" s="9" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="9"/>
       <c r="B496" s="9" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="9"/>
       <c r="B497" s="9" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="9"/>
       <c r="B498" s="9" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="9"/>
       <c r="B499" s="9" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="9"/>
       <c r="B500" s="9" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="9"/>
       <c r="B501" s="9" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="9"/>
       <c r="B502" s="9" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="9"/>
       <c r="B503" s="9" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="9"/>
       <c r="B504" s="9" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="9"/>
       <c r="B505" s="9" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="9"/>
       <c r="B506" s="9" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="9"/>
       <c r="B507" s="9" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="9"/>
       <c r="B508" s="9" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="9"/>
       <c r="B509" s="9" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="9"/>
       <c r="B510" s="9" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="9"/>
       <c r="B511" s="9" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="9"/>
       <c r="B512" s="9" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="9"/>
       <c r="B513" s="9" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="9"/>
       <c r="B514" s="9" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="9"/>
       <c r="B515" s="9" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="9"/>
       <c r="B516" s="9" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="9"/>
       <c r="B517" s="9" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="9"/>
       <c r="B518" s="9" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="9"/>
       <c r="B519" s="9" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="9"/>
       <c r="B520" s="9" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="9"/>
       <c r="B521" s="9" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="9"/>
       <c r="B522" s="9" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="9"/>
       <c r="B523" s="9" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="9"/>
       <c r="B524" s="9" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="9"/>
       <c r="B525" s="9" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="9"/>
       <c r="B526" s="9" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="9"/>
       <c r="B527" s="9" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="9"/>
       <c r="B528" s="9" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="9"/>
       <c r="B529" s="9" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="9"/>
       <c r="B530" s="9" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="9"/>
       <c r="B531" s="9" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="9"/>
       <c r="B532" s="9" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="9"/>
       <c r="B533" s="9" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="9"/>
       <c r="B534" s="9" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="9"/>
       <c r="B535" s="9" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="9"/>
       <c r="B536" s="9" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="9"/>
       <c r="B537" s="9" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="9"/>
       <c r="B538" s="9" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="9"/>
       <c r="B539" s="9" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="9"/>
       <c r="B540" s="9" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="9"/>
       <c r="B541" s="9" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="9"/>
       <c r="B542" s="9" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="9"/>
       <c r="B543" s="9" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="9"/>
       <c r="B544" s="9" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="9"/>
       <c r="B545" s="9" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="9"/>
       <c r="B546" s="9" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="9"/>
       <c r="B547" s="9" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="9"/>
       <c r="B548" s="9" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="9"/>
       <c r="B549" s="9" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="9"/>
       <c r="B550" s="9" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="9"/>
       <c r="B551" s="9" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="9"/>
       <c r="B552" s="9" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="9"/>
       <c r="B553" s="9" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="9"/>
       <c r="B554" s="9" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="9"/>
       <c r="B555" s="9" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="9"/>
       <c r="B556" s="9" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="9"/>
       <c r="B557" s="9" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="9"/>
       <c r="B558" s="9" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="9"/>
       <c r="B559" s="9" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="9"/>
       <c r="B560" s="9" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="9"/>
       <c r="B561" s="9" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="9"/>
       <c r="B562" s="9" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="9"/>
       <c r="B563" s="9" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="9"/>
       <c r="B564" s="9" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="9"/>
       <c r="B565" s="9" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="9"/>
       <c r="B566" s="9" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="9"/>
       <c r="B567" s="9" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="9"/>
       <c r="B568" s="9" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="9"/>
       <c r="B569" s="9" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="9"/>
       <c r="B570" s="9" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="9"/>
       <c r="B571" s="9" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="9"/>
       <c r="B572" s="9" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="9"/>
       <c r="B573" s="9" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="9"/>
       <c r="B574" s="9" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="9"/>
       <c r="B575" s="9" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="9"/>
       <c r="B576" s="9" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="9"/>
       <c r="B577" s="9" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="9"/>
       <c r="B578" s="9" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="9"/>
       <c r="B579" s="9" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="9"/>
       <c r="B580" s="9" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="9"/>
       <c r="B581" s="9" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="9"/>
       <c r="B582" s="9" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="9"/>
       <c r="B583" s="9" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="9"/>
       <c r="B584" s="9" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="9"/>
       <c r="B585" s="9" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="9"/>
       <c r="B586" s="9" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="9"/>
       <c r="B587" s="9" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="9"/>
       <c r="B588" s="9" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="9"/>
       <c r="B589" s="9" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="9"/>
       <c r="B590" s="9" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="9"/>
       <c r="B591" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="9"/>
       <c r="B592" s="9" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="9"/>
       <c r="B593" s="9" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="9"/>
       <c r="B594" s="9" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="9"/>
       <c r="B595" s="9" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="9"/>
       <c r="B596" s="9" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="9"/>
       <c r="B597" s="9" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="9"/>
       <c r="B598" s="9" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="9"/>
       <c r="B599" s="9" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="9"/>
       <c r="B600" s="9" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="9"/>
       <c r="B601" s="9" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="9"/>
       <c r="B602" s="9" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="9"/>
       <c r="B603" s="9" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="9"/>
       <c r="B604" s="9" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="9"/>
       <c r="B605" s="9" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="9"/>
       <c r="B606" s="9" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="9"/>
       <c r="B607" s="9" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="9"/>
       <c r="B608" s="9" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="9"/>
       <c r="B609" s="9" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="9"/>
       <c r="B610" s="9" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="9"/>
       <c r="B611" s="9" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="9"/>
       <c r="B612" s="9" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="9"/>
       <c r="B613" s="9" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="9"/>
       <c r="B614" s="9" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="9"/>
       <c r="B615" s="9" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="9"/>
       <c r="B616" s="9" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="9"/>
       <c r="B617" s="9" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="9"/>
       <c r="B618" s="9" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="9"/>
       <c r="B619" s="9" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="9"/>
       <c r="B620" s="9" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="9"/>
       <c r="B621" s="9" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="9"/>
       <c r="B622" s="9" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="9"/>
       <c r="B623" s="9" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="9"/>
       <c r="B624" s="9" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="9"/>
       <c r="B625" s="9" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="9"/>
       <c r="B626" s="9" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="9"/>
       <c r="B627" s="9" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="9"/>
       <c r="B628" s="9" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="9"/>
       <c r="B629" s="9" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="9"/>
       <c r="B630" s="9" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="9"/>
       <c r="B631" s="9" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="9"/>
       <c r="B632" s="9" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="9"/>
       <c r="B633" s="9" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="9"/>
       <c r="B634" s="9" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="9"/>
       <c r="B635" s="9" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="9"/>
       <c r="B636" s="9" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="9"/>
       <c r="B637" s="9" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="9"/>
       <c r="B638" s="9" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="9"/>
       <c r="B639" s="9" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="9"/>
       <c r="B640" s="9" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="9"/>
       <c r="B641" s="9" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="9"/>
       <c r="B642" s="9" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="9"/>
       <c r="B643" s="9" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="9"/>
       <c r="B644" s="9" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="9"/>
       <c r="B645" s="9" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="9"/>
       <c r="B646" s="9" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="9"/>
       <c r="B647" s="9" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="9"/>
       <c r="B648" s="9" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="9"/>
       <c r="B649" s="9" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="9"/>
       <c r="B650" s="9" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="9"/>
       <c r="B651" s="9" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="9"/>
       <c r="B652" s="9" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="9"/>
       <c r="B653" s="9" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="9"/>
       <c r="B654" s="9" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="9"/>
       <c r="B655" s="9" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="9"/>
       <c r="B656" s="9" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="9"/>
       <c r="B657" s="9" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="9"/>
       <c r="B658" s="9" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="9"/>
       <c r="B659" s="9" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="9"/>
       <c r="B660" s="9" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="9"/>
       <c r="B661" s="9" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="9"/>
       <c r="B662" s="9" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="9"/>
       <c r="B663" s="9" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" s="9"/>
       <c r="B664" s="9" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" s="9"/>
       <c r="B665" s="9" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" s="9"/>
       <c r="B666" s="9" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" s="9"/>
       <c r="B667" s="9" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="9"/>
       <c r="B668" s="9" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="9"/>
       <c r="B669" s="9" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="9"/>
       <c r="B670" s="9" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" s="9"/>
       <c r="B671" s="9" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" s="9"/>
       <c r="B672" s="9" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" s="9"/>
       <c r="B673" s="9" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" s="9"/>
       <c r="B674" s="9" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" s="9"/>
       <c r="B675" s="9" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" s="9"/>
       <c r="B676" s="9" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" s="9"/>
       <c r="B677" s="9" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="9"/>
       <c r="B678" s="9" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" s="9"/>
       <c r="B679" s="9" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" s="9"/>
       <c r="B680" s="9" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" s="9"/>
       <c r="B681" s="9" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" s="9"/>
       <c r="B682" s="9" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" s="9"/>
       <c r="B683" s="9" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" s="9"/>
       <c r="B684" s="9" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="9"/>
       <c r="B685" s="9" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" s="9"/>
       <c r="B686" s="9" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" s="9"/>
       <c r="B687" s="9" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="9"/>
       <c r="B688" s="9" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="9"/>
       <c r="B689" s="9" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" s="9"/>
       <c r="B690" s="9" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" s="9"/>
       <c r="B691" s="9" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" s="9"/>
       <c r="B692" s="9" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" s="9"/>
       <c r="B693" s="9" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" s="9"/>
       <c r="B694" s="9" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" s="9"/>
       <c r="B695" s="9" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="9"/>
       <c r="B696" s="9" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" s="9"/>
       <c r="B697" s="9" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" s="9"/>
       <c r="B698" s="9" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" s="9"/>
       <c r="B699" s="9" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="9"/>
       <c r="B700" s="9" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="9"/>
       <c r="B701" s="9" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" s="9"/>
       <c r="B702" s="9" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" s="9"/>
       <c r="B703" s="9" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" s="9"/>
       <c r="B704" s="9" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" s="9"/>
       <c r="B705" s="9" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" s="9"/>
       <c r="B706" s="9" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" s="9"/>
       <c r="B707" s="9" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" s="9"/>
       <c r="B708" s="9" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" s="9"/>
       <c r="B709" s="9" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" s="9"/>
       <c r="B710" s="9" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" s="9"/>
       <c r="B711" s="9" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" s="9"/>
       <c r="B712" s="9" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" s="9"/>
       <c r="B713" s="9" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" s="9"/>
       <c r="B714" s="9" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" s="9"/>
       <c r="B715" s="9" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" s="9"/>
       <c r="B716" s="9" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="9"/>
       <c r="B717" s="9" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" s="9"/>
       <c r="B718" s="9" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" s="9"/>
       <c r="B719" s="9" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" s="9"/>
       <c r="B720" s="9" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" s="9"/>
       <c r="B721" s="9" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" s="9"/>
       <c r="B722" s="9" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" s="9"/>
       <c r="B723" s="9" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" s="9"/>
       <c r="B724" s="9" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" s="9"/>
       <c r="B725" s="9" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" s="9"/>
       <c r="B726" s="9" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" s="9"/>
       <c r="B727" s="9" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="9"/>
       <c r="B728" s="9" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" s="9"/>
       <c r="B729" s="9" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="9"/>
       <c r="B730" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="9"/>
       <c r="B731" s="9" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="9"/>
       <c r="B732" s="9" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="9"/>
       <c r="B733" s="9" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="9"/>
       <c r="B734" s="9" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" s="9"/>
       <c r="B735" s="9" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="9"/>
       <c r="B736" s="9" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" s="9"/>
       <c r="B737" s="9" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="9"/>
       <c r="B738" s="9" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" s="9"/>
       <c r="B739" s="9" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="9"/>
       <c r="B740" s="9" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="9"/>
       <c r="B741" s="9" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="9"/>
       <c r="B742" s="9" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="9"/>
       <c r="B743" s="9" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="9"/>
       <c r="B744" s="9" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="9"/>
       <c r="B745" s="9" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" s="9"/>
       <c r="B746" s="9" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" s="9"/>
       <c r="B747" s="9" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="9"/>
       <c r="B748" s="9" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" s="9"/>
       <c r="B749" s="9" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" s="9"/>
       <c r="B750" s="9" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" s="9"/>
       <c r="B751" s="9" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" s="9"/>
       <c r="B752" s="9" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" s="9"/>
       <c r="B753" s="9" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" s="9"/>
       <c r="B754" s="9" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" s="9"/>
       <c r="B755" s="9" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" s="9"/>
       <c r="B756" s="9" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" s="9"/>
       <c r="B757" s="9" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" s="9"/>
       <c r="B758" s="9" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" s="9"/>
       <c r="B759" s="9" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" s="9"/>
       <c r="B760" s="9" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" s="9"/>
       <c r="B761" s="9" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" s="9"/>
       <c r="B762" s="9" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" s="9"/>
       <c r="B763" s="9" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764" s="9"/>
       <c r="B764" s="9" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" s="9"/>
       <c r="B765" s="9" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" s="9"/>
       <c r="B766" s="9" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" s="9"/>
       <c r="B767" s="9" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" s="9"/>
       <c r="B768" s="9" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" s="9"/>
       <c r="B769" s="9" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" s="9"/>
       <c r="B770" s="9" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" s="9"/>
       <c r="B771" s="9" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" s="9"/>
       <c r="B772" s="9" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A773" s="9"/>
       <c r="B773" s="9" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774" s="9"/>
       <c r="B774" s="9" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775" s="9"/>
       <c r="B775" s="9" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776" s="9"/>
       <c r="B776" s="9" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777" s="9"/>
       <c r="B777" s="9" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" s="9"/>
       <c r="B778" s="9" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779" s="9"/>
       <c r="B779" s="9" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780" s="9"/>
       <c r="B780" s="9" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781" s="9"/>
       <c r="B781" s="9" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782" s="9"/>
       <c r="B782" s="9" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A783" s="9"/>
       <c r="B783" s="9" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784" s="9"/>
       <c r="B784" s="9" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" s="9"/>
       <c r="B785" s="9" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" s="9"/>
       <c r="B786" s="9" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787" s="9"/>
       <c r="B787" s="9" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A788" s="9"/>
       <c r="B788" s="9" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A789" s="9"/>
       <c r="B789" s="9" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790" s="9"/>
       <c r="B790" s="9" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791" s="9"/>
       <c r="B791" s="9" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A792" s="9"/>
       <c r="B792" s="9" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A793" s="9"/>
       <c r="B793" s="9" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" s="9"/>
       <c r="B794" s="9" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A795" s="9"/>
       <c r="B795" s="9" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A796" s="9"/>
       <c r="B796" s="9" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797" s="9"/>
       <c r="B797" s="9" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A798" s="9"/>
       <c r="B798" s="9" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799" s="9"/>
       <c r="B799" s="9" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" s="9"/>
       <c r="B800" s="9" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801" s="9"/>
       <c r="B801" s="9" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802" s="9"/>
       <c r="B802" s="9" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A803" s="9"/>
       <c r="B803" s="9" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A804" s="9"/>
       <c r="B804" s="9" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A805" s="9"/>
       <c r="B805" s="9" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A806" s="9"/>
       <c r="B806" s="9" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807" s="9"/>
       <c r="B807" s="9" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A808" s="9"/>
       <c r="B808" s="9" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A809" s="9"/>
       <c r="B809" s="9" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A810" s="9"/>
       <c r="B810" s="9" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A811" s="9"/>
       <c r="B811" s="9" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A812" s="9"/>
       <c r="B812" s="9" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A813" s="9"/>
       <c r="B813" s="9" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A814" s="9"/>
       <c r="B814" s="9" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815" s="9"/>
       <c r="B815" s="9" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816" s="9"/>
       <c r="B816" s="9" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A817" s="9"/>
       <c r="B817" s="9" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A818" s="9"/>
       <c r="B818" s="9" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A819" s="9"/>
       <c r="B819" s="9" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A820" s="9"/>
       <c r="B820" s="9" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A821" s="9"/>
       <c r="B821" s="9" t="s">
         <v>872</v>
@@ -9088,27 +9099,27 @@
   <dimension ref="A1:T361"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="M344" sqref="M344"/>
+      <selection pane="bottomLeft" activeCell="R63" sqref="R63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="16"/>
-    <col min="4" max="4" width="12.453125" style="16" customWidth="1"/>
-    <col min="5" max="7" width="11.1796875" style="16"/>
-    <col min="8" max="9" width="10.81640625" style="16"/>
-    <col min="10" max="10" width="10.81640625" style="19"/>
-    <col min="11" max="11" width="18.81640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="16" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="16"/>
+    <col min="4" max="4" width="12.5" style="16" customWidth="1"/>
+    <col min="5" max="7" width="11.125" style="16"/>
+    <col min="8" max="9" width="10.875" style="16"/>
+    <col min="10" max="10" width="10.875" style="19"/>
+    <col min="11" max="11" width="18.875" style="39" customWidth="1"/>
     <col min="12" max="12" width="23" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.81640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.1796875" style="16"/>
+    <col min="13" max="13" width="23.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9170,7 +9181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>916</v>
       </c>
@@ -9209,7 +9220,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>916</v>
       </c>
@@ -9239,7 +9250,7 @@
       <c r="K3" s="43"/>
       <c r="L3" s="33"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>916</v>
       </c>
@@ -9278,7 +9289,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>916</v>
       </c>
@@ -9309,7 +9320,7 @@
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>916</v>
       </c>
@@ -9341,7 +9352,7 @@
       <c r="J6" s="32"/>
       <c r="L6" s="33"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>916</v>
       </c>
@@ -9372,7 +9383,7 @@
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>916</v>
       </c>
@@ -9403,7 +9414,7 @@
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>916</v>
       </c>
@@ -9442,7 +9453,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>916</v>
       </c>
@@ -9481,7 +9492,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>916</v>
       </c>
@@ -9512,7 +9523,7 @@
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>916</v>
       </c>
@@ -9544,7 +9555,7 @@
       <c r="J12" s="32"/>
       <c r="L12" s="33"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>916</v>
       </c>
@@ -9575,7 +9586,7 @@
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>916</v>
       </c>
@@ -9614,7 +9625,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>916</v>
       </c>
@@ -9644,7 +9655,7 @@
       <c r="K15" s="43"/>
       <c r="L15" s="33"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>916</v>
       </c>
@@ -9683,7 +9694,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>916</v>
       </c>
@@ -9714,7 +9725,7 @@
       <c r="K17" s="33"/>
       <c r="L17" s="33"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>916</v>
       </c>
@@ -9753,7 +9764,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>916</v>
       </c>
@@ -9792,7 +9803,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>916</v>
       </c>
@@ -9831,7 +9842,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>916</v>
       </c>
@@ -9862,7 +9873,7 @@
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>916</v>
       </c>
@@ -9893,7 +9904,7 @@
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>916</v>
       </c>
@@ -9925,7 +9936,7 @@
       <c r="J23" s="32"/>
       <c r="L23" s="33"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>916</v>
       </c>
@@ -9964,7 +9975,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>916</v>
       </c>
@@ -9994,7 +10005,7 @@
       <c r="K25" s="43"/>
       <c r="L25" s="33"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>916</v>
       </c>
@@ -10024,7 +10035,7 @@
       <c r="K26" s="43"/>
       <c r="L26" s="33"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>916</v>
       </c>
@@ -10063,7 +10074,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>916</v>
       </c>
@@ -10093,7 +10104,7 @@
       <c r="K28" s="43"/>
       <c r="L28" s="33"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>916</v>
       </c>
@@ -10124,7 +10135,7 @@
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>916</v>
       </c>
@@ -10156,7 +10167,7 @@
       <c r="J30" s="32"/>
       <c r="L30" s="33"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>916</v>
       </c>
@@ -10195,7 +10206,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>916</v>
       </c>
@@ -10225,7 +10236,7 @@
       <c r="K32" s="43"/>
       <c r="L32" s="33"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>916</v>
       </c>
@@ -10264,7 +10275,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>916</v>
       </c>
@@ -10295,7 +10306,7 @@
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>916</v>
       </c>
@@ -10327,7 +10338,7 @@
       <c r="J35" s="32"/>
       <c r="L35" s="33"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>916</v>
       </c>
@@ -10358,7 +10369,7 @@
       <c r="K36" s="33"/>
       <c r="L36" s="33"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>916</v>
       </c>
@@ -10397,7 +10408,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>916</v>
       </c>
@@ -10428,7 +10439,7 @@
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>916</v>
       </c>
@@ -10459,7 +10470,7 @@
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>916</v>
       </c>
@@ -10498,7 +10509,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>916</v>
       </c>
@@ -10529,7 +10540,7 @@
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>916</v>
       </c>
@@ -10560,7 +10571,7 @@
       <c r="K42" s="33"/>
       <c r="L42" s="33"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>916</v>
       </c>
@@ -10591,7 +10602,7 @@
       <c r="K43" s="33"/>
       <c r="L43" s="33"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>916</v>
       </c>
@@ -10630,7 +10641,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>916</v>
       </c>
@@ -10661,7 +10672,7 @@
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>916</v>
       </c>
@@ -10697,10 +10708,10 @@
         <v>954</v>
       </c>
       <c r="M46" s="33" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>916</v>
       </c>
@@ -10731,7 +10742,7 @@
       <c r="K47" s="33"/>
       <c r="L47" s="33"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>916</v>
       </c>
@@ -10770,7 +10781,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>916</v>
       </c>
@@ -10800,7 +10811,7 @@
       <c r="K49" s="43"/>
       <c r="L49" s="33"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
         <v>916</v>
       </c>
@@ -10836,10 +10847,10 @@
         <v>956</v>
       </c>
       <c r="M50" s="33" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
         <v>916</v>
       </c>
@@ -10869,7 +10880,7 @@
       <c r="K51" s="43"/>
       <c r="L51" s="33"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>916</v>
       </c>
@@ -10899,7 +10910,7 @@
       <c r="K52" s="43"/>
       <c r="L52" s="33"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
         <v>916</v>
       </c>
@@ -10938,7 +10949,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>916</v>
       </c>
@@ -10968,7 +10979,7 @@
       <c r="K54" s="44"/>
       <c r="L54" s="33"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>916</v>
       </c>
@@ -11007,7 +11018,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
         <v>916</v>
       </c>
@@ -11037,7 +11048,7 @@
       <c r="K56" s="44"/>
       <c r="L56" s="33"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
         <v>916</v>
       </c>
@@ -11076,7 +11087,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
         <v>916</v>
       </c>
@@ -11115,7 +11126,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
         <v>916</v>
       </c>
@@ -11145,7 +11156,7 @@
       <c r="K59" s="44"/>
       <c r="L59" s="33"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
         <v>916</v>
       </c>
@@ -11184,7 +11195,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
         <v>916</v>
       </c>
@@ -11215,7 +11226,7 @@
       <c r="K61" s="45"/>
       <c r="L61" s="33"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
         <v>916</v>
       </c>
@@ -11246,7 +11257,7 @@
       <c r="K62" s="45"/>
       <c r="L62" s="33"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
         <v>916</v>
       </c>
@@ -11277,7 +11288,7 @@
       <c r="K63" s="45"/>
       <c r="L63" s="33"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
         <v>916</v>
       </c>
@@ -11316,7 +11327,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
         <v>916</v>
       </c>
@@ -11346,7 +11357,7 @@
       <c r="K65" s="44"/>
       <c r="L65" s="33"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
         <v>916</v>
       </c>
@@ -11376,7 +11387,7 @@
       <c r="K66" s="44"/>
       <c r="L66" s="33"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
         <v>916</v>
       </c>
@@ -11406,7 +11417,7 @@
       <c r="K67" s="44"/>
       <c r="L67" s="33"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
         <v>916</v>
       </c>
@@ -11436,7 +11447,7 @@
       <c r="K68" s="44"/>
       <c r="L68" s="33"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
         <v>916</v>
       </c>
@@ -11466,7 +11477,7 @@
       <c r="K69" s="44"/>
       <c r="L69" s="33"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
         <v>916</v>
       </c>
@@ -11496,7 +11507,7 @@
       <c r="K70" s="44"/>
       <c r="L70" s="33"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
         <v>916</v>
       </c>
@@ -11535,7 +11546,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
         <v>916</v>
       </c>
@@ -11565,7 +11576,7 @@
       <c r="K72" s="44"/>
       <c r="L72" s="33"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
         <v>916</v>
       </c>
@@ -11604,7 +11615,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
         <v>916</v>
       </c>
@@ -11634,7 +11645,7 @@
       <c r="K74" s="44"/>
       <c r="L74" s="33"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
         <v>916</v>
       </c>
@@ -11673,7 +11684,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
         <v>916</v>
       </c>
@@ -11703,7 +11714,7 @@
       <c r="K76" s="44"/>
       <c r="L76" s="33"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
         <v>916</v>
       </c>
@@ -11742,7 +11753,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
         <v>916</v>
       </c>
@@ -11773,7 +11784,7 @@
       <c r="K78" s="45"/>
       <c r="L78" s="33"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
         <v>916</v>
       </c>
@@ -11804,7 +11815,7 @@
       <c r="K79" s="45"/>
       <c r="L79" s="33"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
         <v>916</v>
       </c>
@@ -11835,7 +11846,7 @@
       <c r="K80" s="45"/>
       <c r="L80" s="33"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
         <v>916</v>
       </c>
@@ -11874,7 +11885,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
         <v>916</v>
       </c>
@@ -11913,7 +11924,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="31" t="s">
         <v>916</v>
       </c>
@@ -11943,7 +11954,7 @@
       <c r="K83" s="44"/>
       <c r="L83" s="33"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="31" t="s">
         <v>916</v>
       </c>
@@ -11982,7 +11993,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
         <v>916</v>
       </c>
@@ -12012,7 +12023,7 @@
       <c r="K85" s="44"/>
       <c r="L85" s="33"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
         <v>916</v>
       </c>
@@ -12042,7 +12053,7 @@
       <c r="K86" s="44"/>
       <c r="L86" s="33"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
         <v>916</v>
       </c>
@@ -12072,7 +12083,7 @@
       <c r="K87" s="44"/>
       <c r="L87" s="33"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
         <v>916</v>
       </c>
@@ -12111,7 +12122,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
         <v>916</v>
       </c>
@@ -12137,7 +12148,7 @@
       <c r="K89" s="40"/>
       <c r="L89" s="40"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="27">
         <v>43062</v>
       </c>
@@ -12168,7 +12179,7 @@
       <c r="K90" s="26"/>
       <c r="L90" s="26"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="27">
         <v>43062</v>
       </c>
@@ -12208,7 +12219,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="27">
         <v>43062</v>
       </c>
@@ -12239,7 +12250,7 @@
       <c r="K92" s="26"/>
       <c r="L92" s="26"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="27">
         <v>43062</v>
       </c>
@@ -12279,7 +12290,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="27">
         <v>43062</v>
       </c>
@@ -12310,7 +12321,7 @@
       <c r="K94" s="26"/>
       <c r="L94" s="26"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="27">
         <v>43062</v>
       </c>
@@ -12341,7 +12352,7 @@
       <c r="K95" s="26"/>
       <c r="L95" s="26"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="27">
         <v>43062</v>
       </c>
@@ -12372,7 +12383,7 @@
       <c r="K96" s="26"/>
       <c r="L96" s="26"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="27">
         <v>43062</v>
       </c>
@@ -12409,7 +12420,7 @@
       </c>
       <c r="L97" s="26"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="27">
         <v>43062</v>
       </c>
@@ -12444,7 +12455,7 @@
       <c r="K98" s="26"/>
       <c r="L98" s="26"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="27">
         <v>43062</v>
       </c>
@@ -12479,7 +12490,7 @@
       <c r="K99" s="26"/>
       <c r="L99" s="26"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="27">
         <v>43062</v>
       </c>
@@ -12510,7 +12521,7 @@
       <c r="K100" s="26"/>
       <c r="L100" s="26"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="27">
         <v>43062</v>
       </c>
@@ -12543,7 +12554,7 @@
       <c r="K101" s="26"/>
       <c r="L101" s="26"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="27">
         <v>43062</v>
       </c>
@@ -12574,7 +12585,7 @@
       <c r="K102" s="26"/>
       <c r="L102" s="26"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="27">
         <v>43062</v>
       </c>
@@ -12614,7 +12625,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="27">
         <v>43062</v>
       </c>
@@ -12647,7 +12658,7 @@
       <c r="K104" s="26"/>
       <c r="L104" s="26"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="27">
         <v>43062</v>
       </c>
@@ -12678,7 +12689,7 @@
       <c r="K105" s="26"/>
       <c r="L105" s="26"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="27">
         <v>43062</v>
       </c>
@@ -12711,7 +12722,7 @@
       <c r="K106" s="26"/>
       <c r="L106" s="26"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="27">
         <v>43062</v>
       </c>
@@ -12742,7 +12753,7 @@
       <c r="K107" s="26"/>
       <c r="L107" s="26"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="27">
         <v>43062</v>
       </c>
@@ -12775,7 +12786,7 @@
       <c r="K108" s="26"/>
       <c r="L108" s="26"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="27">
         <v>43062</v>
       </c>
@@ -12806,7 +12817,7 @@
       <c r="K109" s="26"/>
       <c r="L109" s="26"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="27">
         <v>43062</v>
       </c>
@@ -12839,7 +12850,7 @@
       <c r="K110" s="26"/>
       <c r="L110" s="26"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="27">
         <v>43062</v>
       </c>
@@ -12870,7 +12881,7 @@
       <c r="K111" s="26"/>
       <c r="L111" s="26"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="27">
         <v>43062</v>
       </c>
@@ -12903,7 +12914,7 @@
       <c r="K112" s="26"/>
       <c r="L112" s="26"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="27">
         <v>43062</v>
       </c>
@@ -12934,7 +12945,7 @@
       <c r="K113" s="26"/>
       <c r="L113" s="26"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="27">
         <v>43062</v>
       </c>
@@ -12967,7 +12978,7 @@
       <c r="K114" s="26"/>
       <c r="L114" s="26"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="27">
         <v>43062</v>
       </c>
@@ -12998,7 +13009,7 @@
       <c r="K115" s="26"/>
       <c r="L115" s="26"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="27">
         <v>43062</v>
       </c>
@@ -13031,7 +13042,7 @@
       <c r="K116" s="26"/>
       <c r="L116" s="26"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="27">
         <v>43062</v>
       </c>
@@ -13062,7 +13073,7 @@
       <c r="K117" s="26"/>
       <c r="L117" s="26"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="27">
         <v>43062</v>
       </c>
@@ -13095,7 +13106,7 @@
       <c r="K118" s="26"/>
       <c r="L118" s="26"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="27">
         <v>43062</v>
       </c>
@@ -13128,7 +13139,7 @@
       <c r="K119" s="26"/>
       <c r="L119" s="26"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="27">
         <v>43062</v>
       </c>
@@ -13161,7 +13172,7 @@
       <c r="K120" s="26"/>
       <c r="L120" s="26"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="27">
         <v>43062</v>
       </c>
@@ -13192,7 +13203,7 @@
       <c r="K121" s="26"/>
       <c r="L121" s="26"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="27">
         <v>43062</v>
       </c>
@@ -13225,7 +13236,7 @@
       <c r="K122" s="26"/>
       <c r="L122" s="26"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="27">
         <v>43062</v>
       </c>
@@ -13256,7 +13267,7 @@
       <c r="K123" s="26"/>
       <c r="L123" s="26"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="27">
         <v>43062</v>
       </c>
@@ -13289,7 +13300,7 @@
       <c r="K124" s="26"/>
       <c r="L124" s="26"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="27">
         <v>43062</v>
       </c>
@@ -13320,7 +13331,7 @@
       <c r="K125" s="26"/>
       <c r="L125" s="26"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="27">
         <v>43062</v>
       </c>
@@ -13353,7 +13364,7 @@
       <c r="K126" s="26"/>
       <c r="L126" s="26"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="27">
         <v>43062</v>
       </c>
@@ -13384,7 +13395,7 @@
       <c r="K127" s="26"/>
       <c r="L127" s="26"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="27">
         <v>43062</v>
       </c>
@@ -13417,7 +13428,7 @@
       <c r="K128" s="26"/>
       <c r="L128" s="26"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="27">
         <v>43062</v>
       </c>
@@ -13448,7 +13459,7 @@
       <c r="K129" s="26"/>
       <c r="L129" s="26"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="27">
         <v>43062</v>
       </c>
@@ -13488,7 +13499,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="27">
         <v>43062</v>
       </c>
@@ -13519,7 +13530,7 @@
       <c r="K131" s="26"/>
       <c r="L131" s="26"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="27">
         <v>43062</v>
       </c>
@@ -13559,7 +13570,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="27">
         <v>43062</v>
       </c>
@@ -13590,7 +13601,7 @@
       <c r="K133" s="26"/>
       <c r="L133" s="26"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="27">
         <v>43062</v>
       </c>
@@ -13623,7 +13634,7 @@
       <c r="K134" s="26"/>
       <c r="L134" s="26"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="27">
         <v>43062</v>
       </c>
@@ -13654,7 +13665,7 @@
       <c r="K135" s="26"/>
       <c r="L135" s="26"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="27">
         <v>43062</v>
       </c>
@@ -13685,7 +13696,7 @@
       <c r="K136" s="26"/>
       <c r="L136" s="26"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="27">
         <v>43062</v>
       </c>
@@ -13716,7 +13727,7 @@
       <c r="K137" s="26"/>
       <c r="L137" s="26"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="27">
         <v>43062</v>
       </c>
@@ -13749,7 +13760,7 @@
       <c r="K138" s="26"/>
       <c r="L138" s="26"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="27">
         <v>43062</v>
       </c>
@@ -13780,7 +13791,7 @@
       <c r="K139" s="26"/>
       <c r="L139" s="26"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="27">
         <v>43062</v>
       </c>
@@ -13813,7 +13824,7 @@
       <c r="K140" s="26"/>
       <c r="L140" s="26"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="27">
         <v>43062</v>
       </c>
@@ -13844,7 +13855,7 @@
       <c r="K141" s="26"/>
       <c r="L141" s="26"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="27">
         <v>43062</v>
       </c>
@@ -13884,7 +13895,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="27">
         <v>43062</v>
       </c>
@@ -13915,7 +13926,7 @@
       <c r="K143" s="26"/>
       <c r="L143" s="26"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="27">
         <v>43062</v>
       </c>
@@ -13955,7 +13966,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="27">
         <v>43062</v>
       </c>
@@ -13986,7 +13997,7 @@
       <c r="K145" s="26"/>
       <c r="L145" s="26"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="27">
         <v>43062</v>
       </c>
@@ -14026,7 +14037,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="27">
         <v>43062</v>
       </c>
@@ -14057,7 +14068,7 @@
       <c r="K147" s="26"/>
       <c r="M147" s="26"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="27">
         <v>43062</v>
       </c>
@@ -14097,7 +14108,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="27">
         <v>43062</v>
       </c>
@@ -14128,7 +14139,7 @@
       <c r="K149" s="26"/>
       <c r="L149" s="26"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="27">
         <v>43062</v>
       </c>
@@ -14161,7 +14172,7 @@
       <c r="K150" s="26"/>
       <c r="L150" s="26"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="27">
         <v>43062</v>
       </c>
@@ -14194,7 +14205,7 @@
       <c r="K151" s="26"/>
       <c r="L151" s="26"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="27">
         <v>43062</v>
       </c>
@@ -14225,7 +14236,7 @@
       <c r="K152" s="26"/>
       <c r="L152" s="26"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="27">
         <v>43062</v>
       </c>
@@ -14258,7 +14269,7 @@
       <c r="K153" s="26"/>
       <c r="L153" s="26"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="27">
         <v>43062</v>
       </c>
@@ -14289,7 +14300,7 @@
       <c r="K154" s="26"/>
       <c r="L154" s="26"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="27">
         <v>43062</v>
       </c>
@@ -14322,7 +14333,7 @@
       <c r="K155" s="26"/>
       <c r="L155" s="26"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="27">
         <v>43062</v>
       </c>
@@ -14362,7 +14373,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="27">
         <v>43062</v>
       </c>
@@ -14395,7 +14406,7 @@
       <c r="K157" s="26"/>
       <c r="L157" s="26"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="27">
         <v>43062</v>
       </c>
@@ -14435,7 +14446,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="27">
         <v>43062</v>
       </c>
@@ -14466,7 +14477,7 @@
       <c r="K159" s="26"/>
       <c r="L159" s="26"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="27">
         <v>43062</v>
       </c>
@@ -14503,10 +14514,10 @@
         <v>999</v>
       </c>
       <c r="M160" s="26" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="27">
         <v>43062</v>
       </c>
@@ -14537,7 +14548,7 @@
       <c r="K161" s="26"/>
       <c r="L161" s="26"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="27">
         <v>43062</v>
       </c>
@@ -14574,10 +14585,10 @@
         <v>999</v>
       </c>
       <c r="M162" s="26" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="27">
         <v>43062</v>
       </c>
@@ -14608,7 +14619,7 @@
       <c r="K163" s="26"/>
       <c r="L163" s="26"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="27">
         <v>43062</v>
       </c>
@@ -14648,7 +14659,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="27">
         <v>43062</v>
       </c>
@@ -14681,7 +14692,7 @@
       <c r="K165" s="26"/>
       <c r="L165" s="26"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="27">
         <v>43062</v>
       </c>
@@ -14712,7 +14723,7 @@
       <c r="K166" s="26"/>
       <c r="L166" s="26"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="27">
         <v>43062</v>
       </c>
@@ -14745,7 +14756,7 @@
       <c r="K167" s="26"/>
       <c r="L167" s="26"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="27">
         <v>43062</v>
       </c>
@@ -14778,7 +14789,7 @@
       <c r="K168" s="26"/>
       <c r="L168" s="26"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="27">
         <v>43062</v>
       </c>
@@ -14813,7 +14824,7 @@
       <c r="K169" s="26"/>
       <c r="L169" s="26"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="27">
         <v>43062</v>
       </c>
@@ -14853,7 +14864,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="27">
         <v>43062</v>
       </c>
@@ -14884,7 +14895,7 @@
       <c r="K171" s="26"/>
       <c r="L171" s="26"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="27">
         <v>43062</v>
       </c>
@@ -14924,7 +14935,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="27">
         <v>43062</v>
       </c>
@@ -14955,7 +14966,7 @@
       <c r="K173" s="26"/>
       <c r="L173" s="26"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="27">
         <v>43062</v>
       </c>
@@ -14995,7 +15006,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="27">
         <v>43062</v>
       </c>
@@ -15026,7 +15037,7 @@
       <c r="K175" s="26"/>
       <c r="L175" s="26"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="27">
         <v>43062</v>
       </c>
@@ -15059,7 +15070,7 @@
       <c r="K176" s="26"/>
       <c r="L176" s="26"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="27">
         <v>43062</v>
       </c>
@@ -15099,7 +15110,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="27">
         <v>43062</v>
       </c>
@@ -15132,7 +15143,7 @@
       <c r="K178" s="26"/>
       <c r="L178" s="26"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="27">
         <v>43062</v>
       </c>
@@ -15172,7 +15183,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="27">
         <v>43062</v>
       </c>
@@ -15205,7 +15216,7 @@
       <c r="K180" s="26"/>
       <c r="L180" s="26"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="27">
         <v>43062</v>
       </c>
@@ -15245,7 +15256,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="27">
         <v>43062</v>
       </c>
@@ -15278,7 +15289,7 @@
       <c r="K182" s="26"/>
       <c r="L182" s="26"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="27">
         <v>43062</v>
       </c>
@@ -15311,7 +15322,7 @@
       <c r="K183" s="26"/>
       <c r="L183" s="26"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="27">
         <v>43062</v>
       </c>
@@ -15344,7 +15355,7 @@
       <c r="K184" s="26"/>
       <c r="L184" s="26"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="27">
         <v>43062</v>
       </c>
@@ -15375,7 +15386,7 @@
       <c r="K185" s="26"/>
       <c r="L185" s="26"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="27">
         <v>43062</v>
       </c>
@@ -15415,7 +15426,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="27">
         <v>43062</v>
       </c>
@@ -15446,7 +15457,7 @@
       <c r="K187" s="26"/>
       <c r="L187" s="26"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="27">
         <v>43062</v>
       </c>
@@ -15479,7 +15490,7 @@
       <c r="K188" s="26"/>
       <c r="L188" s="26"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="27">
         <v>43062</v>
       </c>
@@ -15510,7 +15521,7 @@
       <c r="K189" s="26"/>
       <c r="L189" s="26"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="27">
         <v>43062</v>
       </c>
@@ -15543,7 +15554,7 @@
       <c r="K190" s="26"/>
       <c r="L190" s="26"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="27">
         <v>43062</v>
       </c>
@@ -15574,7 +15585,7 @@
       <c r="K191" s="26"/>
       <c r="L191" s="26"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="27">
         <v>43062</v>
       </c>
@@ -15608,7 +15619,7 @@
       </c>
       <c r="L192" s="26"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="27">
         <v>43062</v>
       </c>
@@ -15639,7 +15650,7 @@
       <c r="K193" s="26"/>
       <c r="L193" s="26"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="27">
         <v>43062</v>
       </c>
@@ -15672,7 +15683,7 @@
       <c r="K194" s="26"/>
       <c r="L194" s="26"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="27">
         <v>43062</v>
       </c>
@@ -15707,7 +15718,7 @@
       </c>
       <c r="L195" s="26"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="27">
         <v>43062</v>
       </c>
@@ -15738,7 +15749,7 @@
       <c r="K196" s="26"/>
       <c r="L196" s="26"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="27">
         <v>43062</v>
       </c>
@@ -15771,7 +15782,7 @@
       <c r="K197" s="26"/>
       <c r="L197" s="26"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="27">
         <v>43062</v>
       </c>
@@ -15802,7 +15813,7 @@
       <c r="K198" s="26"/>
       <c r="L198" s="26"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="27">
         <v>43062</v>
       </c>
@@ -15842,7 +15853,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="27">
         <v>43062</v>
       </c>
@@ -15873,7 +15884,7 @@
       <c r="K200" s="26"/>
       <c r="L200" s="26"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="27">
         <v>43062</v>
       </c>
@@ -15913,7 +15924,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="27">
         <v>43062</v>
       </c>
@@ -15946,7 +15957,7 @@
       <c r="K202" s="26"/>
       <c r="L202" s="26"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="27">
         <v>43062</v>
       </c>
@@ -15977,7 +15988,7 @@
       <c r="K203" s="26"/>
       <c r="L203" s="26"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="27">
         <v>43062</v>
       </c>
@@ -16017,7 +16028,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="27">
         <v>43062</v>
       </c>
@@ -16048,7 +16059,7 @@
       <c r="K205" s="26"/>
       <c r="L205" s="26"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="27">
         <v>43062</v>
       </c>
@@ -16088,7 +16099,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="27">
         <v>43062</v>
       </c>
@@ -16119,7 +16130,7 @@
       <c r="K207" s="26"/>
       <c r="L207" s="26"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="27">
         <v>43062</v>
       </c>
@@ -16152,7 +16163,7 @@
       <c r="K208" s="26"/>
       <c r="L208" s="26"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="27">
         <v>43062</v>
       </c>
@@ -16183,7 +16194,7 @@
       <c r="K209" s="26"/>
       <c r="L209" s="26"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="27">
         <v>43062</v>
       </c>
@@ -16216,7 +16227,7 @@
       <c r="K210" s="26"/>
       <c r="L210" s="26"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="27">
         <v>43062</v>
       </c>
@@ -16247,7 +16258,7 @@
       <c r="K211" s="26"/>
       <c r="L211" s="26"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="27">
         <v>43062</v>
       </c>
@@ -16287,7 +16298,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="27">
         <v>43062</v>
       </c>
@@ -16318,7 +16329,7 @@
       <c r="K213" s="26"/>
       <c r="L213" s="26"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="27">
         <v>43062</v>
       </c>
@@ -16351,7 +16362,7 @@
       <c r="K214" s="26"/>
       <c r="L214" s="26"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="27">
         <v>43062</v>
       </c>
@@ -16382,7 +16393,7 @@
       <c r="K215" s="26"/>
       <c r="L215" s="26"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="27">
         <v>43062</v>
       </c>
@@ -16413,7 +16424,7 @@
       <c r="K216" s="26"/>
       <c r="L216" s="26"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="27">
         <v>43062</v>
       </c>
@@ -16444,7 +16455,7 @@
       <c r="K217" s="26"/>
       <c r="L217" s="26"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="27">
         <v>43062</v>
       </c>
@@ -16481,10 +16492,10 @@
         <v>954</v>
       </c>
       <c r="M218" s="26" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="27">
         <v>43062</v>
       </c>
@@ -16515,7 +16526,7 @@
       <c r="K219" s="26"/>
       <c r="L219" s="26"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="27">
         <v>43062</v>
       </c>
@@ -16536,7 +16547,7 @@
       </c>
       <c r="G220" s="28"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="37" t="s">
         <v>912</v>
       </c>
@@ -16566,7 +16577,7 @@
       <c r="J221" s="22"/>
       <c r="K221" s="41"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="37" t="s">
         <v>912</v>
       </c>
@@ -16596,7 +16607,7 @@
       <c r="J222" s="23"/>
       <c r="K222" s="40"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="37" t="s">
         <v>912</v>
       </c>
@@ -16626,7 +16637,7 @@
       <c r="J223" s="20"/>
       <c r="K223" s="40"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="37" t="s">
         <v>912</v>
       </c>
@@ -16666,7 +16677,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="37" t="s">
         <v>912</v>
       </c>
@@ -16696,7 +16707,7 @@
       <c r="J225" s="23"/>
       <c r="K225" s="40"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="37" t="s">
         <v>912</v>
       </c>
@@ -16736,7 +16747,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="37" t="s">
         <v>912</v>
       </c>
@@ -16766,7 +16777,7 @@
       <c r="J227" s="22"/>
       <c r="K227" s="41"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="37" t="s">
         <v>912</v>
       </c>
@@ -16796,7 +16807,7 @@
       <c r="J228" s="20"/>
       <c r="K228" s="40"/>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="37" t="s">
         <v>912</v>
       </c>
@@ -16826,7 +16837,7 @@
       <c r="J229" s="22"/>
       <c r="K229" s="41"/>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="37" t="s">
         <v>912</v>
       </c>
@@ -16866,7 +16877,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="37" t="s">
         <v>912</v>
       </c>
@@ -16896,7 +16907,7 @@
       <c r="J231" s="22"/>
       <c r="K231" s="41"/>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="37" t="s">
         <v>912</v>
       </c>
@@ -16926,7 +16937,7 @@
       <c r="J232" s="22"/>
       <c r="K232" s="41"/>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="37" t="s">
         <v>912</v>
       </c>
@@ -16956,7 +16967,7 @@
       <c r="J233" s="22"/>
       <c r="K233" s="41"/>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="37" t="s">
         <v>912</v>
       </c>
@@ -16996,7 +17007,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="37" t="s">
         <v>912</v>
       </c>
@@ -17025,7 +17036,7 @@
       <c r="I235" s="17"/>
       <c r="K235" s="40"/>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="37" t="s">
         <v>912</v>
       </c>
@@ -17055,7 +17066,7 @@
       <c r="J236" s="20"/>
       <c r="K236" s="40"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="37" t="s">
         <v>912</v>
       </c>
@@ -17095,7 +17106,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="37" t="s">
         <v>912</v>
       </c>
@@ -17125,7 +17136,7 @@
       <c r="J238" s="22"/>
       <c r="K238" s="41"/>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="37" t="s">
         <v>912</v>
       </c>
@@ -17165,7 +17176,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="37" t="s">
         <v>912</v>
       </c>
@@ -17195,7 +17206,7 @@
       <c r="J240" s="22"/>
       <c r="K240" s="40"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="37" t="s">
         <v>912</v>
       </c>
@@ -17235,7 +17246,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="37" t="s">
         <v>912</v>
       </c>
@@ -17265,7 +17276,7 @@
       <c r="J242" s="20"/>
       <c r="K242" s="40"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="37" t="s">
         <v>912</v>
       </c>
@@ -17295,7 +17306,7 @@
       <c r="J243" s="20"/>
       <c r="K243" s="40"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="37" t="s">
         <v>912</v>
       </c>
@@ -17325,7 +17336,7 @@
       <c r="J244" s="20"/>
       <c r="K244" s="40"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="37" t="s">
         <v>912</v>
       </c>
@@ -17365,7 +17376,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="37" t="s">
         <v>912</v>
       </c>
@@ -17395,7 +17406,7 @@
       <c r="J246" s="22"/>
       <c r="K246" s="41"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="37" t="s">
         <v>912</v>
       </c>
@@ -17435,7 +17446,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="37" t="s">
         <v>912</v>
       </c>
@@ -17465,7 +17476,7 @@
       <c r="J248" s="20"/>
       <c r="K248" s="40"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="37" t="s">
         <v>912</v>
       </c>
@@ -17495,7 +17506,7 @@
       <c r="J249" s="22"/>
       <c r="K249" s="41"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="37" t="s">
         <v>912</v>
       </c>
@@ -17525,7 +17536,7 @@
       <c r="J250" s="22"/>
       <c r="K250" s="41"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="37" t="s">
         <v>912</v>
       </c>
@@ -17565,7 +17576,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="37" t="s">
         <v>912</v>
       </c>
@@ -17595,7 +17606,7 @@
       <c r="J252" s="22"/>
       <c r="K252" s="41"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="37" t="s">
         <v>912</v>
       </c>
@@ -17625,7 +17636,7 @@
       <c r="J253" s="20"/>
       <c r="K253" s="40"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="37" t="s">
         <v>912</v>
       </c>
@@ -17665,7 +17676,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="37" t="s">
         <v>912</v>
       </c>
@@ -17692,7 +17703,7 @@
       <c r="J255" s="20"/>
       <c r="K255" s="40"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17723,7 +17734,7 @@
       <c r="K256" s="41"/>
       <c r="L256" s="41"/>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17756,7 +17767,7 @@
       <c r="K257" s="40"/>
       <c r="L257" s="40"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17787,7 +17798,7 @@
       <c r="K258" s="40"/>
       <c r="L258" s="40"/>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17826,7 +17837,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17857,7 +17868,7 @@
       <c r="K260" s="40"/>
       <c r="L260" s="40"/>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17888,7 +17899,7 @@
       <c r="K261" s="41"/>
       <c r="L261" s="41"/>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17919,7 +17930,7 @@
       <c r="K262" s="41"/>
       <c r="L262" s="41"/>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17959,7 +17970,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17990,7 +18001,7 @@
       <c r="K264" s="41"/>
       <c r="L264" s="41"/>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18023,7 +18034,7 @@
       <c r="K265" s="41"/>
       <c r="L265" s="41"/>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18054,7 +18065,7 @@
       <c r="K266" s="41"/>
       <c r="L266" s="41"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18089,7 +18100,7 @@
       <c r="K267" s="41"/>
       <c r="L267" s="41"/>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18120,7 +18131,7 @@
       <c r="K268" s="41"/>
       <c r="L268" s="41"/>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18151,7 +18162,7 @@
       <c r="K269" s="41"/>
       <c r="L269" s="41"/>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18182,7 +18193,7 @@
       <c r="K270" s="40"/>
       <c r="L270" s="40"/>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18222,7 +18233,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18253,7 +18264,7 @@
       <c r="K272" s="40"/>
       <c r="L272" s="40"/>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18286,7 +18297,7 @@
       <c r="K273" s="41"/>
       <c r="L273" s="41"/>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18316,7 +18327,7 @@
       <c r="K274" s="40"/>
       <c r="L274" s="40"/>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18356,7 +18367,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18387,7 +18398,7 @@
       <c r="K276" s="40"/>
       <c r="L276" s="40"/>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18427,7 +18438,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18458,7 +18469,7 @@
       <c r="K278" s="40"/>
       <c r="L278" s="40"/>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18498,7 +18509,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18529,7 +18540,7 @@
       <c r="K280" s="41"/>
       <c r="L280" s="41"/>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18560,7 +18571,7 @@
       <c r="K281" s="41"/>
       <c r="L281" s="41"/>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18600,7 +18611,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18631,7 +18642,7 @@
       <c r="K283" s="40"/>
       <c r="L283" s="41"/>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18671,7 +18682,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18702,7 +18713,7 @@
       <c r="K285" s="41"/>
       <c r="L285" s="41"/>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18742,7 +18753,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18775,7 +18786,7 @@
       <c r="K287" s="41"/>
       <c r="L287" s="41"/>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18806,7 +18817,7 @@
       <c r="K288" s="40"/>
       <c r="L288" s="40"/>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18839,7 +18850,7 @@
       <c r="K289" s="41"/>
       <c r="L289" s="41"/>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18870,7 +18881,7 @@
       <c r="K290" s="40"/>
       <c r="L290" s="40"/>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18905,7 +18916,7 @@
       <c r="K291" s="41"/>
       <c r="L291" s="41"/>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18936,7 +18947,7 @@
       <c r="K292" s="41"/>
       <c r="L292" s="40"/>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18973,10 +18984,10 @@
         <v>954</v>
       </c>
       <c r="M293" s="41" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="37" t="s">
         <v>1037</v>
       </c>
@@ -19007,7 +19018,7 @@
       <c r="K294" s="41"/>
       <c r="L294" s="40"/>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="37" t="s">
         <v>1037</v>
       </c>
@@ -19040,7 +19051,7 @@
       <c r="K295" s="41"/>
       <c r="L295" s="41"/>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="37" t="s">
         <v>1037</v>
       </c>
@@ -19071,7 +19082,7 @@
       <c r="K296" s="41"/>
       <c r="L296" s="40"/>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="37" t="s">
         <v>1037</v>
       </c>
@@ -19099,7 +19110,7 @@
       <c r="K297" s="41"/>
       <c r="L297" s="41"/>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19130,7 +19141,7 @@
       <c r="K298" s="41"/>
       <c r="L298" s="41"/>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19163,7 +19174,7 @@
       <c r="K299" s="40"/>
       <c r="L299" s="40"/>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19194,7 +19205,7 @@
       <c r="K300" s="40"/>
       <c r="L300" s="40"/>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19225,7 +19236,7 @@
       <c r="K301" s="46"/>
       <c r="L301" s="41"/>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19265,7 +19276,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19296,7 +19307,7 @@
       <c r="K303" s="41"/>
       <c r="L303" s="41"/>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19329,7 +19340,7 @@
       <c r="K304" s="41"/>
       <c r="L304" s="41"/>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19360,7 +19371,7 @@
       <c r="K305" s="40"/>
       <c r="L305" s="40"/>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19395,7 +19406,7 @@
       <c r="K306" s="41"/>
       <c r="L306" s="41"/>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19426,7 +19437,7 @@
       <c r="K307" s="41"/>
       <c r="L307" s="41"/>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19461,7 +19472,7 @@
       <c r="K308" s="41"/>
       <c r="L308" s="41"/>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19492,7 +19503,7 @@
       <c r="K309" s="41"/>
       <c r="L309" s="41"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19532,7 +19543,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19572,7 +19583,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19603,7 +19614,7 @@
       <c r="K312" s="40"/>
       <c r="L312" s="40"/>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19636,7 +19647,7 @@
       <c r="K313" s="40"/>
       <c r="L313" s="40"/>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19667,7 +19678,7 @@
       <c r="K314" s="40"/>
       <c r="L314" s="40"/>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19702,7 +19713,7 @@
       <c r="K315" s="41"/>
       <c r="L315" s="41"/>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19733,7 +19744,7 @@
       <c r="K316" s="40"/>
       <c r="L316" s="40"/>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19768,7 +19779,7 @@
       <c r="K317" s="40"/>
       <c r="L317" s="40"/>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19801,7 +19812,7 @@
       <c r="K318" s="40"/>
       <c r="L318" s="40"/>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19841,7 +19852,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19872,7 +19883,7 @@
       <c r="K320" s="40"/>
       <c r="L320" s="40"/>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19905,7 +19916,7 @@
       <c r="K321" s="40"/>
       <c r="L321" s="40"/>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19945,7 +19956,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19976,7 +19987,7 @@
       <c r="K323" s="41"/>
       <c r="L323" s="41"/>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20009,7 +20020,7 @@
       <c r="K324" s="41"/>
       <c r="L324" s="41"/>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20040,7 +20051,7 @@
       <c r="K325" s="40"/>
       <c r="L325" s="41"/>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20073,7 +20084,7 @@
       <c r="K326" s="41"/>
       <c r="L326" s="40"/>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20104,7 +20115,7 @@
       <c r="K327" s="41"/>
       <c r="L327" s="41"/>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20137,7 +20148,7 @@
       <c r="K328" s="40"/>
       <c r="L328" s="40"/>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20170,7 +20181,7 @@
       <c r="K329" s="41"/>
       <c r="L329" s="41"/>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20201,7 +20212,7 @@
       <c r="K330" s="40"/>
       <c r="L330" s="40"/>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20241,7 +20252,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20272,7 +20283,7 @@
       <c r="K332" s="40"/>
       <c r="L332" s="40"/>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20305,7 +20316,7 @@
       <c r="K333" s="41"/>
       <c r="L333" s="41"/>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20336,7 +20347,7 @@
       <c r="K334" s="41"/>
       <c r="L334" s="40"/>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20367,7 +20378,7 @@
       <c r="K335" s="41"/>
       <c r="L335" s="41"/>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20398,7 +20409,7 @@
       <c r="K336" s="41"/>
       <c r="L336" s="40"/>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20431,7 +20442,7 @@
       <c r="K337" s="41"/>
       <c r="L337" s="41"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20462,7 +20473,7 @@
       <c r="K338" s="41"/>
       <c r="L338" s="40"/>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20493,7 +20504,7 @@
       <c r="K339" s="41"/>
       <c r="L339" s="41"/>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20526,7 +20537,7 @@
       <c r="K340" s="41"/>
       <c r="L340" s="40"/>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20557,7 +20568,7 @@
       <c r="K341" s="41"/>
       <c r="L341" s="41"/>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20588,7 +20599,7 @@
       <c r="K342" s="40"/>
       <c r="L342" s="40"/>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20619,7 +20630,7 @@
       <c r="K343" s="41"/>
       <c r="L343" s="41"/>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20659,7 +20670,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20690,7 +20701,7 @@
       <c r="K345" s="41"/>
       <c r="L345" s="41"/>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20723,7 +20734,7 @@
       <c r="K346" s="41"/>
       <c r="L346" s="41"/>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20754,7 +20765,7 @@
       <c r="K347" s="42"/>
       <c r="L347" s="42"/>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20785,7 +20796,7 @@
       <c r="K348" s="40"/>
       <c r="L348" s="40"/>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20825,7 +20836,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20856,7 +20867,7 @@
       <c r="K350" s="41"/>
       <c r="L350" s="41"/>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20887,7 +20898,7 @@
       <c r="K351" s="40"/>
       <c r="L351" s="40"/>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20927,7 +20938,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20958,7 +20969,7 @@
       <c r="K353" s="40"/>
       <c r="L353" s="40"/>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20989,7 +21000,7 @@
       <c r="K354" s="41"/>
       <c r="L354" s="41"/>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21022,7 +21033,7 @@
       <c r="K355" s="40"/>
       <c r="L355" s="40"/>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21053,7 +21064,7 @@
       <c r="K356" s="41"/>
       <c r="L356" s="41"/>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21084,7 +21095,7 @@
       <c r="K357" s="40"/>
       <c r="L357" s="40"/>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21115,7 +21126,7 @@
       <c r="K358" s="41"/>
       <c r="L358" s="41"/>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21146,7 +21157,7 @@
       <c r="K359" s="40"/>
       <c r="L359" s="40"/>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21174,7 +21185,7 @@
       <c r="K360" s="40"/>
       <c r="L360" s="40"/>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G361" s="16">
         <f>SUM(G2:G360)</f>
         <v>9993</v>

--- a/R/2017_11_23_Completed_LN1_Deep (0m to 120m)_newcleaned.xlsx
+++ b/R/2017_11_23_Completed_LN1_Deep (0m to 120m)_newcleaned.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TMSI-REL\Desktop\Zhi Yi's Working Folder\UROPS\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DF11A1-D45B-4823-82C8-DE7CD77882D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2C131978-B970-4338-8F90-BA47D16E38BD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="16665" windowHeight="15225" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="454" windowWidth="16660" windowHeight="15220" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
     <sheet name="LN1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'LN1'!$A$1:$T$361</definedName>
+  </definedNames>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -3881,30 +3879,30 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="32.5" customWidth="1"/>
+    <col min="1" max="2" width="32.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>873</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>874</v>
       </c>
       <c r="B2" s="12"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>875</v>
       </c>
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>876</v>
       </c>
@@ -3912,7 +3910,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>878</v>
       </c>
@@ -3920,97 +3918,97 @@
         <v>879</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>880</v>
       </c>
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>881</v>
       </c>
       <c r="B7" s="13"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>882</v>
       </c>
       <c r="B8" s="12"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>883</v>
       </c>
       <c r="B9" s="13"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>884</v>
       </c>
       <c r="B10" s="12"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>885</v>
       </c>
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>886</v>
       </c>
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>887</v>
       </c>
       <c r="B13" s="14"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>888</v>
       </c>
       <c r="B14" s="15"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>889</v>
       </c>
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>890</v>
       </c>
       <c r="B16" s="13"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>891</v>
       </c>
       <c r="B17" s="13"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>892</v>
       </c>
       <c r="B18" s="13"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>893</v>
       </c>
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>894</v>
       </c>
       <c r="B20" s="12"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>895</v>
       </c>
@@ -4018,13 +4016,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>896</v>
       </c>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>897</v>
       </c>
@@ -4032,43 +4030,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>898</v>
       </c>
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>899</v>
       </c>
       <c r="B25" s="12"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>900</v>
       </c>
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>901</v>
       </c>
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>902</v>
       </c>
       <c r="B28" s="12"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>903</v>
       </c>
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>904</v>
       </c>
@@ -4076,7 +4074,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>906</v>
       </c>
@@ -4091,13 +4089,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B821"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:B821"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -4105,7 +4103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -4113,7 +4111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -4121,7 +4119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
@@ -4129,7 +4127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>27</v>
       </c>
@@ -4137,7 +4135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
@@ -4145,7 +4143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
@@ -4153,7 +4151,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>33</v>
       </c>
@@ -4161,7 +4159,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>35</v>
       </c>
@@ -4169,7 +4167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>37</v>
       </c>
@@ -4177,7 +4175,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
@@ -4185,7 +4183,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>41</v>
       </c>
@@ -4193,7 +4191,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
@@ -4201,7 +4199,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>45</v>
       </c>
@@ -4209,7 +4207,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
@@ -4217,7 +4215,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>49</v>
       </c>
@@ -4225,7 +4223,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>51</v>
       </c>
@@ -4233,7 +4231,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>53</v>
       </c>
@@ -4241,7 +4239,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>55</v>
       </c>
@@ -4249,7 +4247,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>57</v>
       </c>
@@ -4257,7 +4255,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>59</v>
       </c>
@@ -4265,7 +4263,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>61</v>
       </c>
@@ -4273,7 +4271,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>63</v>
       </c>
@@ -4281,7 +4279,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>65</v>
       </c>
@@ -4289,7 +4287,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>67</v>
       </c>
@@ -4297,7 +4295,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>69</v>
       </c>
@@ -4305,7 +4303,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>71</v>
       </c>
@@ -4313,7 +4311,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>73</v>
       </c>
@@ -4321,7 +4319,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>75</v>
       </c>
@@ -4329,7 +4327,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>77</v>
       </c>
@@ -4337,7 +4335,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>79</v>
       </c>
@@ -4345,7 +4343,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>81</v>
       </c>
@@ -4353,7 +4351,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>83</v>
       </c>
@@ -4361,4729 +4359,4729 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
       <c r="B50" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="8"/>
       <c r="B79" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="8"/>
       <c r="B80" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="8"/>
       <c r="B84" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="8"/>
       <c r="B85" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="8"/>
       <c r="B86" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="8"/>
       <c r="B87" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="8"/>
       <c r="B88" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="8"/>
       <c r="B89" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="8"/>
       <c r="B90" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="8"/>
       <c r="B91" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="8"/>
       <c r="B92" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="8"/>
       <c r="B93" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="8"/>
       <c r="B94" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="8"/>
       <c r="B95" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="8"/>
       <c r="B96" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="8"/>
       <c r="B97" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="8"/>
       <c r="B98" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="8"/>
       <c r="B99" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="8"/>
       <c r="B100" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="8"/>
       <c r="B101" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="8"/>
       <c r="B102" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="8"/>
       <c r="B103" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="8"/>
       <c r="B104" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="8"/>
       <c r="B105" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="8"/>
       <c r="B106" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="8"/>
       <c r="B107" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="8"/>
       <c r="B108" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="8"/>
       <c r="B109" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="8"/>
       <c r="B110" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="8"/>
       <c r="B111" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="8"/>
       <c r="B112" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="8"/>
       <c r="B113" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="8"/>
       <c r="B114" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="8"/>
       <c r="B115" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="8"/>
       <c r="B116" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="8"/>
       <c r="B117" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="8"/>
       <c r="B118" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="8"/>
       <c r="B119" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="8"/>
       <c r="B120" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="8"/>
       <c r="B121" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="8"/>
       <c r="B122" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="8"/>
       <c r="B123" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="8"/>
       <c r="B124" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="8"/>
       <c r="B125" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="8"/>
       <c r="B126" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="8"/>
       <c r="B127" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="8"/>
       <c r="B128" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="8"/>
       <c r="B129" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="8"/>
       <c r="B130" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="8"/>
       <c r="B131" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="8"/>
       <c r="B132" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="8"/>
       <c r="B133" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="8"/>
       <c r="B134" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="8"/>
       <c r="B135" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="8"/>
       <c r="B136" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="8"/>
       <c r="B137" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="8"/>
       <c r="B138" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="8"/>
       <c r="B139" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="8"/>
       <c r="B140" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="8"/>
       <c r="B141" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="8"/>
       <c r="B142" s="8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="8"/>
       <c r="B143" s="8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="8"/>
       <c r="B144" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="8"/>
       <c r="B145" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="8"/>
       <c r="B146" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="8"/>
       <c r="B147" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="8"/>
       <c r="B148" s="8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="8"/>
       <c r="B149" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="8"/>
       <c r="B150" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="8"/>
       <c r="B151" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="8"/>
       <c r="B152" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="8"/>
       <c r="B153" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="8"/>
       <c r="B154" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="8"/>
       <c r="B155" s="8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="8"/>
       <c r="B156" s="8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="8"/>
       <c r="B157" s="8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="8"/>
       <c r="B158" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="8"/>
       <c r="B159" s="8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="8"/>
       <c r="B160" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="8"/>
       <c r="B161" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="8"/>
       <c r="B162" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="8"/>
       <c r="B163" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="8"/>
       <c r="B164" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="8"/>
       <c r="B165" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="8"/>
       <c r="B166" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="8"/>
       <c r="B167" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="8"/>
       <c r="B168" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="8"/>
       <c r="B169" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="8"/>
       <c r="B170" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="8"/>
       <c r="B171" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="8"/>
       <c r="B172" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="8"/>
       <c r="B173" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="9"/>
       <c r="B174" s="9" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="9"/>
       <c r="B175" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="9"/>
       <c r="B176" s="9" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="9"/>
       <c r="B177" s="9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="9"/>
       <c r="B178" s="9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="9"/>
       <c r="B179" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="9"/>
       <c r="B180" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="9"/>
       <c r="B181" s="9" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="9"/>
       <c r="B182" s="9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="9"/>
       <c r="B183" s="9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="9"/>
       <c r="B184" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="9"/>
       <c r="B185" s="9" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="9"/>
       <c r="B186" s="9" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="9"/>
       <c r="B187" s="9" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="9"/>
       <c r="B188" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="9"/>
       <c r="B189" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="9"/>
       <c r="B190" s="9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="9"/>
       <c r="B191" s="9" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="9"/>
       <c r="B192" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="9"/>
       <c r="B193" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="9"/>
       <c r="B194" s="9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="9"/>
       <c r="B195" s="9" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="9"/>
       <c r="B196" s="9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="9"/>
       <c r="B197" s="9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="9"/>
       <c r="B198" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="9"/>
       <c r="B199" s="9" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="9"/>
       <c r="B200" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="9"/>
       <c r="B201" s="9" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="9"/>
       <c r="B202" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="9"/>
       <c r="B203" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="9"/>
       <c r="B204" s="9" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="9"/>
       <c r="B205" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="9"/>
       <c r="B206" s="9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="9"/>
       <c r="B207" s="9" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="9"/>
       <c r="B208" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="9"/>
       <c r="B209" s="9" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="9"/>
       <c r="B210" s="9" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="9"/>
       <c r="B211" s="9" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="9"/>
       <c r="B212" s="9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="9"/>
       <c r="B213" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="9"/>
       <c r="B214" s="9" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="9"/>
       <c r="B215" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="9"/>
       <c r="B216" s="9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="9"/>
       <c r="B217" s="9" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="9"/>
       <c r="B218" s="9" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="9"/>
       <c r="B219" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="9"/>
       <c r="B220" s="9" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="9"/>
       <c r="B221" s="9" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="9"/>
       <c r="B222" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="9"/>
       <c r="B223" s="9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="9"/>
       <c r="B224" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="9"/>
       <c r="B225" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="9"/>
       <c r="B226" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="9"/>
       <c r="B227" s="9" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="9"/>
       <c r="B228" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="9"/>
       <c r="B229" s="9" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="9"/>
       <c r="B230" s="9" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="9"/>
       <c r="B231" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="9"/>
       <c r="B232" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="9"/>
       <c r="B233" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="9"/>
       <c r="B234" s="9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="9"/>
       <c r="B235" s="9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="9"/>
       <c r="B236" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="9"/>
       <c r="B237" s="9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="9"/>
       <c r="B238" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="9"/>
       <c r="B239" s="9" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="9"/>
       <c r="B240" s="9" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="9"/>
       <c r="B241" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="9"/>
       <c r="B242" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="9"/>
       <c r="B243" s="9" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="9"/>
       <c r="B244" s="9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="9"/>
       <c r="B245" s="9" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="9"/>
       <c r="B246" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="9"/>
       <c r="B247" s="9" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="9"/>
       <c r="B248" s="9" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="9"/>
       <c r="B249" s="9" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="9"/>
       <c r="B250" s="9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="9"/>
       <c r="B251" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="9"/>
       <c r="B252" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="9"/>
       <c r="B253" s="9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="9"/>
       <c r="B254" s="9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="9"/>
       <c r="B255" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="9"/>
       <c r="B256" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="9"/>
       <c r="B257" s="9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="9"/>
       <c r="B258" s="9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="9"/>
       <c r="B259" s="9" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="9"/>
       <c r="B260" s="9" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="9"/>
       <c r="B261" s="9" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="9"/>
       <c r="B262" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="9"/>
       <c r="B263" s="9" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="9"/>
       <c r="B264" s="9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="9"/>
       <c r="B265" s="9" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="9"/>
       <c r="B266" s="9" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="9"/>
       <c r="B267" s="9" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="9"/>
       <c r="B268" s="9" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="9"/>
       <c r="B269" s="9" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="9"/>
       <c r="B270" s="9" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="9"/>
       <c r="B271" s="9" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="9"/>
       <c r="B272" s="9" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="9"/>
       <c r="B273" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="9"/>
       <c r="B274" s="9" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="9"/>
       <c r="B275" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="9"/>
       <c r="B276" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="9"/>
       <c r="B277" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="9"/>
       <c r="B278" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="9"/>
       <c r="B279" s="9" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="9"/>
       <c r="B280" s="9" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="9"/>
       <c r="B281" s="9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="9"/>
       <c r="B282" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="9"/>
       <c r="B283" s="9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="9"/>
       <c r="B284" s="9" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="9"/>
       <c r="B285" s="9" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="9"/>
       <c r="B286" s="9" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="9"/>
       <c r="B287" s="9" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="9"/>
       <c r="B288" s="9" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="9"/>
       <c r="B289" s="9" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="9"/>
       <c r="B290" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="9"/>
       <c r="B291" s="9" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="9"/>
       <c r="B292" s="9" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="9"/>
       <c r="B293" s="9" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="9"/>
       <c r="B294" s="9" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="9"/>
       <c r="B295" s="9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="9"/>
       <c r="B296" s="9" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="9"/>
       <c r="B297" s="9" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="9"/>
       <c r="B298" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="9"/>
       <c r="B299" s="9" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="9"/>
       <c r="B300" s="9" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="9"/>
       <c r="B301" s="9" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="9"/>
       <c r="B302" s="9" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="9"/>
       <c r="B303" s="9" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="9"/>
       <c r="B304" s="9" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="9"/>
       <c r="B305" s="9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="9"/>
       <c r="B306" s="9" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="9"/>
       <c r="B307" s="9" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="9"/>
       <c r="B308" s="9" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="9"/>
       <c r="B309" s="9" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="9"/>
       <c r="B310" s="9" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="9"/>
       <c r="B311" s="9" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="9"/>
       <c r="B312" s="9" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="9"/>
       <c r="B313" s="9" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="9"/>
       <c r="B314" s="9" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="9"/>
       <c r="B315" s="9" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="9"/>
       <c r="B316" s="9" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="9"/>
       <c r="B317" s="9" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="9"/>
       <c r="B318" s="9" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="9"/>
       <c r="B319" s="9" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="9"/>
       <c r="B320" s="9" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="9"/>
       <c r="B321" s="9" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="9"/>
       <c r="B322" s="9" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="9"/>
       <c r="B323" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="9"/>
       <c r="B324" s="9" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="9"/>
       <c r="B325" s="9" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="9"/>
       <c r="B326" s="9" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="9"/>
       <c r="B327" s="9" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="9"/>
       <c r="B328" s="9" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="9"/>
       <c r="B329" s="9" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="9"/>
       <c r="B330" s="9" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="9"/>
       <c r="B331" s="9" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="9"/>
       <c r="B332" s="9" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="9"/>
       <c r="B333" s="9" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="9"/>
       <c r="B334" s="9" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="9"/>
       <c r="B335" s="9" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="9"/>
       <c r="B336" s="9" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="9"/>
       <c r="B337" s="9" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="9"/>
       <c r="B338" s="9" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="9"/>
       <c r="B339" s="9" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="9"/>
       <c r="B340" s="9" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="9"/>
       <c r="B341" s="9" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="9"/>
       <c r="B342" s="9" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="9"/>
       <c r="B343" s="9" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="9"/>
       <c r="B344" s="9" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="9"/>
       <c r="B345" s="9" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="9"/>
       <c r="B346" s="9" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="9"/>
       <c r="B347" s="9" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="9"/>
       <c r="B348" s="9" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="9"/>
       <c r="B349" s="9" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="9"/>
       <c r="B350" s="9" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="9"/>
       <c r="B351" s="9" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="9"/>
       <c r="B352" s="9" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="9"/>
       <c r="B353" s="9" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="9"/>
       <c r="B354" s="9" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="9"/>
       <c r="B355" s="9" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="9"/>
       <c r="B356" s="9" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="9"/>
       <c r="B357" s="9" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="9"/>
       <c r="B358" s="9" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="9"/>
       <c r="B359" s="9" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="9"/>
       <c r="B360" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="9"/>
       <c r="B361" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="9"/>
       <c r="B362" s="9" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="9"/>
       <c r="B363" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="9"/>
       <c r="B364" s="9" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="9"/>
       <c r="B365" s="9" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="9"/>
       <c r="B366" s="9" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="9"/>
       <c r="B367" s="9" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="9"/>
       <c r="B368" s="9" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="9"/>
       <c r="B369" s="9" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="9"/>
       <c r="B370" s="9" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="9"/>
       <c r="B371" s="9" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="9"/>
       <c r="B372" s="9" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="9"/>
       <c r="B373" s="9" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="9"/>
       <c r="B374" s="9" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="9"/>
       <c r="B375" s="9" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="9"/>
       <c r="B376" s="9" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="9"/>
       <c r="B377" s="9" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="9"/>
       <c r="B378" s="9" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="9"/>
       <c r="B379" s="9" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="9"/>
       <c r="B380" s="9" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="9"/>
       <c r="B381" s="9" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="9"/>
       <c r="B382" s="9" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="9"/>
       <c r="B383" s="9" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="9"/>
       <c r="B384" s="9" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" s="9"/>
       <c r="B385" s="9" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="9"/>
       <c r="B386" s="9" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="9"/>
       <c r="B387" s="9" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" s="9"/>
       <c r="B388" s="9" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" s="9"/>
       <c r="B389" s="9" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" s="9"/>
       <c r="B390" s="9" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="9"/>
       <c r="B391" s="9" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="9"/>
       <c r="B392" s="9" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" s="9"/>
       <c r="B393" s="9" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" s="9"/>
       <c r="B394" s="9" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" s="9"/>
       <c r="B395" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" s="9"/>
       <c r="B396" s="9" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" s="9"/>
       <c r="B397" s="9" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" s="9"/>
       <c r="B398" s="9" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" s="9"/>
       <c r="B399" s="9" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" s="9"/>
       <c r="B400" s="9" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="9"/>
       <c r="B401" s="9" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" s="9"/>
       <c r="B402" s="9" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="9"/>
       <c r="B403" s="9" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" s="9"/>
       <c r="B404" s="9" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" s="9"/>
       <c r="B405" s="9" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" s="9"/>
       <c r="B406" s="9" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" s="9"/>
       <c r="B407" s="9" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="9"/>
       <c r="B408" s="9" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="9"/>
       <c r="B409" s="9" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" s="9"/>
       <c r="B410" s="9" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" s="9"/>
       <c r="B411" s="9" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" s="9"/>
       <c r="B412" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" s="9"/>
       <c r="B413" s="9" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" s="9"/>
       <c r="B414" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" s="9"/>
       <c r="B415" s="9" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" s="9"/>
       <c r="B416" s="9" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" s="9"/>
       <c r="B417" s="9" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" s="9"/>
       <c r="B418" s="9" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="9"/>
       <c r="B419" s="9" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" s="9"/>
       <c r="B420" s="9" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" s="9"/>
       <c r="B421" s="9" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" s="9"/>
       <c r="B422" s="9" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" s="9"/>
       <c r="B423" s="9" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="9"/>
       <c r="B424" s="9" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" s="9"/>
       <c r="B425" s="9" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="9"/>
       <c r="B426" s="9" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="9"/>
       <c r="B427" s="9" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" s="9"/>
       <c r="B428" s="9" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" s="9"/>
       <c r="B429" s="9" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" s="9"/>
       <c r="B430" s="9" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" s="9"/>
       <c r="B431" s="9" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" s="9"/>
       <c r="B432" s="9" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" s="9"/>
       <c r="B433" s="9" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" s="9"/>
       <c r="B434" s="9" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" s="9"/>
       <c r="B435" s="9" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" s="9"/>
       <c r="B436" s="9" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" s="9"/>
       <c r="B437" s="9" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" s="9"/>
       <c r="B438" s="9" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" s="9"/>
       <c r="B439" s="9" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" s="9"/>
       <c r="B440" s="9" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" s="9"/>
       <c r="B441" s="9" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" s="9"/>
       <c r="B442" s="9" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" s="9"/>
       <c r="B443" s="9" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" s="9"/>
       <c r="B444" s="9" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" s="9"/>
       <c r="B445" s="9" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" s="9"/>
       <c r="B446" s="9" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" s="9"/>
       <c r="B447" s="9" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" s="9"/>
       <c r="B448" s="9" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" s="9"/>
       <c r="B449" s="9" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" s="9"/>
       <c r="B450" s="9" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" s="9"/>
       <c r="B451" s="9" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" s="9"/>
       <c r="B452" s="9" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" s="9"/>
       <c r="B453" s="9" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" s="9"/>
       <c r="B454" s="9" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" s="9"/>
       <c r="B455" s="9" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" s="9"/>
       <c r="B456" s="9" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" s="9"/>
       <c r="B457" s="9" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" s="9"/>
       <c r="B458" s="9" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" s="9"/>
       <c r="B459" s="9" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" s="9"/>
       <c r="B460" s="9" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" s="9"/>
       <c r="B461" s="9" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" s="9"/>
       <c r="B462" s="9" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" s="9"/>
       <c r="B463" s="9" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" s="9"/>
       <c r="B464" s="9" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" s="9"/>
       <c r="B465" s="9" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" s="9"/>
       <c r="B466" s="9" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" s="9"/>
       <c r="B467" s="9" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" s="9"/>
       <c r="B468" s="9" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" s="9"/>
       <c r="B469" s="9" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" s="9"/>
       <c r="B470" s="9" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" s="9"/>
       <c r="B471" s="9" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" s="9"/>
       <c r="B472" s="9" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" s="9"/>
       <c r="B473" s="9" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" s="9"/>
       <c r="B474" s="9" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" s="9"/>
       <c r="B475" s="9" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" s="9"/>
       <c r="B476" s="9" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" s="9"/>
       <c r="B477" s="9" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" s="9"/>
       <c r="B478" s="9" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" s="9"/>
       <c r="B479" s="9" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" s="9"/>
       <c r="B480" s="9" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" s="9"/>
       <c r="B481" s="9" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" s="9"/>
       <c r="B482" s="9" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" s="9"/>
       <c r="B483" s="9" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" s="9"/>
       <c r="B484" s="9" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" s="9"/>
       <c r="B485" s="9" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" s="9"/>
       <c r="B486" s="9" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" s="9"/>
       <c r="B487" s="9" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" s="9"/>
       <c r="B488" s="9" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" s="9"/>
       <c r="B489" s="9" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" s="9"/>
       <c r="B490" s="9" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" s="9"/>
       <c r="B491" s="9" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" s="9"/>
       <c r="B492" s="9" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" s="9"/>
       <c r="B493" s="9" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" s="9"/>
       <c r="B494" s="9" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" s="9"/>
       <c r="B495" s="9" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" s="9"/>
       <c r="B496" s="9" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" s="9"/>
       <c r="B497" s="9" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" s="9"/>
       <c r="B498" s="9" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" s="9"/>
       <c r="B499" s="9" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" s="9"/>
       <c r="B500" s="9" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" s="9"/>
       <c r="B501" s="9" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A502" s="9"/>
       <c r="B502" s="9" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" s="9"/>
       <c r="B503" s="9" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" s="9"/>
       <c r="B504" s="9" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A505" s="9"/>
       <c r="B505" s="9" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A506" s="9"/>
       <c r="B506" s="9" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" s="9"/>
       <c r="B507" s="9" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" s="9"/>
       <c r="B508" s="9" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A509" s="9"/>
       <c r="B509" s="9" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" s="9"/>
       <c r="B510" s="9" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" s="9"/>
       <c r="B511" s="9" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A512" s="9"/>
       <c r="B512" s="9" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A513" s="9"/>
       <c r="B513" s="9" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" s="9"/>
       <c r="B514" s="9" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A515" s="9"/>
       <c r="B515" s="9" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" s="9"/>
       <c r="B516" s="9" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A517" s="9"/>
       <c r="B517" s="9" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A518" s="9"/>
       <c r="B518" s="9" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A519" s="9"/>
       <c r="B519" s="9" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A520" s="9"/>
       <c r="B520" s="9" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A521" s="9"/>
       <c r="B521" s="9" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A522" s="9"/>
       <c r="B522" s="9" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A523" s="9"/>
       <c r="B523" s="9" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A524" s="9"/>
       <c r="B524" s="9" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A525" s="9"/>
       <c r="B525" s="9" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A526" s="9"/>
       <c r="B526" s="9" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A527" s="9"/>
       <c r="B527" s="9" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A528" s="9"/>
       <c r="B528" s="9" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A529" s="9"/>
       <c r="B529" s="9" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A530" s="9"/>
       <c r="B530" s="9" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A531" s="9"/>
       <c r="B531" s="9" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A532" s="9"/>
       <c r="B532" s="9" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" s="9"/>
       <c r="B533" s="9" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A534" s="9"/>
       <c r="B534" s="9" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A535" s="9"/>
       <c r="B535" s="9" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A536" s="9"/>
       <c r="B536" s="9" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A537" s="9"/>
       <c r="B537" s="9" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A538" s="9"/>
       <c r="B538" s="9" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A539" s="9"/>
       <c r="B539" s="9" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A540" s="9"/>
       <c r="B540" s="9" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A541" s="9"/>
       <c r="B541" s="9" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A542" s="9"/>
       <c r="B542" s="9" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A543" s="9"/>
       <c r="B543" s="9" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A544" s="9"/>
       <c r="B544" s="9" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A545" s="9"/>
       <c r="B545" s="9" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A546" s="9"/>
       <c r="B546" s="9" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A547" s="9"/>
       <c r="B547" s="9" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A548" s="9"/>
       <c r="B548" s="9" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A549" s="9"/>
       <c r="B549" s="9" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A550" s="9"/>
       <c r="B550" s="9" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A551" s="9"/>
       <c r="B551" s="9" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A552" s="9"/>
       <c r="B552" s="9" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A553" s="9"/>
       <c r="B553" s="9" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A554" s="9"/>
       <c r="B554" s="9" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A555" s="9"/>
       <c r="B555" s="9" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A556" s="9"/>
       <c r="B556" s="9" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A557" s="9"/>
       <c r="B557" s="9" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A558" s="9"/>
       <c r="B558" s="9" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A559" s="9"/>
       <c r="B559" s="9" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A560" s="9"/>
       <c r="B560" s="9" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A561" s="9"/>
       <c r="B561" s="9" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A562" s="9"/>
       <c r="B562" s="9" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A563" s="9"/>
       <c r="B563" s="9" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A564" s="9"/>
       <c r="B564" s="9" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A565" s="9"/>
       <c r="B565" s="9" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A566" s="9"/>
       <c r="B566" s="9" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A567" s="9"/>
       <c r="B567" s="9" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A568" s="9"/>
       <c r="B568" s="9" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A569" s="9"/>
       <c r="B569" s="9" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A570" s="9"/>
       <c r="B570" s="9" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A571" s="9"/>
       <c r="B571" s="9" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A572" s="9"/>
       <c r="B572" s="9" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A573" s="9"/>
       <c r="B573" s="9" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A574" s="9"/>
       <c r="B574" s="9" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A575" s="9"/>
       <c r="B575" s="9" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" s="9"/>
       <c r="B576" s="9" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A577" s="9"/>
       <c r="B577" s="9" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A578" s="9"/>
       <c r="B578" s="9" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A579" s="9"/>
       <c r="B579" s="9" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A580" s="9"/>
       <c r="B580" s="9" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A581" s="9"/>
       <c r="B581" s="9" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A582" s="9"/>
       <c r="B582" s="9" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A583" s="9"/>
       <c r="B583" s="9" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A584" s="9"/>
       <c r="B584" s="9" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A585" s="9"/>
       <c r="B585" s="9" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A586" s="9"/>
       <c r="B586" s="9" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A587" s="9"/>
       <c r="B587" s="9" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A588" s="9"/>
       <c r="B588" s="9" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A589" s="9"/>
       <c r="B589" s="9" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A590" s="9"/>
       <c r="B590" s="9" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A591" s="9"/>
       <c r="B591" s="9" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A592" s="9"/>
       <c r="B592" s="9" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A593" s="9"/>
       <c r="B593" s="9" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A594" s="9"/>
       <c r="B594" s="9" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A595" s="9"/>
       <c r="B595" s="9" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A596" s="9"/>
       <c r="B596" s="9" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A597" s="9"/>
       <c r="B597" s="9" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A598" s="9"/>
       <c r="B598" s="9" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A599" s="9"/>
       <c r="B599" s="9" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A600" s="9"/>
       <c r="B600" s="9" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A601" s="9"/>
       <c r="B601" s="9" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A602" s="9"/>
       <c r="B602" s="9" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A603" s="9"/>
       <c r="B603" s="9" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A604" s="9"/>
       <c r="B604" s="9" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A605" s="9"/>
       <c r="B605" s="9" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A606" s="9"/>
       <c r="B606" s="9" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A607" s="9"/>
       <c r="B607" s="9" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A608" s="9"/>
       <c r="B608" s="9" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A609" s="9"/>
       <c r="B609" s="9" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A610" s="9"/>
       <c r="B610" s="9" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A611" s="9"/>
       <c r="B611" s="9" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A612" s="9"/>
       <c r="B612" s="9" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A613" s="9"/>
       <c r="B613" s="9" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A614" s="9"/>
       <c r="B614" s="9" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A615" s="9"/>
       <c r="B615" s="9" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A616" s="9"/>
       <c r="B616" s="9" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A617" s="9"/>
       <c r="B617" s="9" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A618" s="9"/>
       <c r="B618" s="9" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A619" s="9"/>
       <c r="B619" s="9" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A620" s="9"/>
       <c r="B620" s="9" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A621" s="9"/>
       <c r="B621" s="9" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A622" s="9"/>
       <c r="B622" s="9" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A623" s="9"/>
       <c r="B623" s="9" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A624" s="9"/>
       <c r="B624" s="9" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A625" s="9"/>
       <c r="B625" s="9" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A626" s="9"/>
       <c r="B626" s="9" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A627" s="9"/>
       <c r="B627" s="9" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A628" s="9"/>
       <c r="B628" s="9" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A629" s="9"/>
       <c r="B629" s="9" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A630" s="9"/>
       <c r="B630" s="9" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A631" s="9"/>
       <c r="B631" s="9" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A632" s="9"/>
       <c r="B632" s="9" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A633" s="9"/>
       <c r="B633" s="9" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A634" s="9"/>
       <c r="B634" s="9" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A635" s="9"/>
       <c r="B635" s="9" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A636" s="9"/>
       <c r="B636" s="9" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A637" s="9"/>
       <c r="B637" s="9" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A638" s="9"/>
       <c r="B638" s="9" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A639" s="9"/>
       <c r="B639" s="9" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A640" s="9"/>
       <c r="B640" s="9" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A641" s="9"/>
       <c r="B641" s="9" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A642" s="9"/>
       <c r="B642" s="9" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A643" s="9"/>
       <c r="B643" s="9" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A644" s="9"/>
       <c r="B644" s="9" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A645" s="9"/>
       <c r="B645" s="9" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A646" s="9"/>
       <c r="B646" s="9" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A647" s="9"/>
       <c r="B647" s="9" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A648" s="9"/>
       <c r="B648" s="9" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A649" s="9"/>
       <c r="B649" s="9" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A650" s="9"/>
       <c r="B650" s="9" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A651" s="9"/>
       <c r="B651" s="9" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A652" s="9"/>
       <c r="B652" s="9" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A653" s="9"/>
       <c r="B653" s="9" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A654" s="9"/>
       <c r="B654" s="9" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A655" s="9"/>
       <c r="B655" s="9" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A656" s="9"/>
       <c r="B656" s="9" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A657" s="9"/>
       <c r="B657" s="9" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A658" s="9"/>
       <c r="B658" s="9" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A659" s="9"/>
       <c r="B659" s="9" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A660" s="9"/>
       <c r="B660" s="9" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A661" s="9"/>
       <c r="B661" s="9" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A662" s="9"/>
       <c r="B662" s="9" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A663" s="9"/>
       <c r="B663" s="9" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A664" s="9"/>
       <c r="B664" s="9" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A665" s="9"/>
       <c r="B665" s="9" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A666" s="9"/>
       <c r="B666" s="9" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A667" s="9"/>
       <c r="B667" s="9" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A668" s="9"/>
       <c r="B668" s="9" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A669" s="9"/>
       <c r="B669" s="9" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A670" s="9"/>
       <c r="B670" s="9" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A671" s="9"/>
       <c r="B671" s="9" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A672" s="9"/>
       <c r="B672" s="9" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A673" s="9"/>
       <c r="B673" s="9" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A674" s="9"/>
       <c r="B674" s="9" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A675" s="9"/>
       <c r="B675" s="9" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A676" s="9"/>
       <c r="B676" s="9" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A677" s="9"/>
       <c r="B677" s="9" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A678" s="9"/>
       <c r="B678" s="9" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A679" s="9"/>
       <c r="B679" s="9" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A680" s="9"/>
       <c r="B680" s="9" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A681" s="9"/>
       <c r="B681" s="9" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A682" s="9"/>
       <c r="B682" s="9" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A683" s="9"/>
       <c r="B683" s="9" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A684" s="9"/>
       <c r="B684" s="9" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A685" s="9"/>
       <c r="B685" s="9" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A686" s="9"/>
       <c r="B686" s="9" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A687" s="9"/>
       <c r="B687" s="9" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A688" s="9"/>
       <c r="B688" s="9" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A689" s="9"/>
       <c r="B689" s="9" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A690" s="9"/>
       <c r="B690" s="9" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A691" s="9"/>
       <c r="B691" s="9" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A692" s="9"/>
       <c r="B692" s="9" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A693" s="9"/>
       <c r="B693" s="9" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A694" s="9"/>
       <c r="B694" s="9" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A695" s="9"/>
       <c r="B695" s="9" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A696" s="9"/>
       <c r="B696" s="9" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A697" s="9"/>
       <c r="B697" s="9" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A698" s="9"/>
       <c r="B698" s="9" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A699" s="9"/>
       <c r="B699" s="9" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A700" s="9"/>
       <c r="B700" s="9" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A701" s="9"/>
       <c r="B701" s="9" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A702" s="9"/>
       <c r="B702" s="9" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A703" s="9"/>
       <c r="B703" s="9" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A704" s="9"/>
       <c r="B704" s="9" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A705" s="9"/>
       <c r="B705" s="9" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A706" s="9"/>
       <c r="B706" s="9" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A707" s="9"/>
       <c r="B707" s="9" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A708" s="9"/>
       <c r="B708" s="9" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A709" s="9"/>
       <c r="B709" s="9" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A710" s="9"/>
       <c r="B710" s="9" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A711" s="9"/>
       <c r="B711" s="9" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A712" s="9"/>
       <c r="B712" s="9" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A713" s="9"/>
       <c r="B713" s="9" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A714" s="9"/>
       <c r="B714" s="9" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A715" s="9"/>
       <c r="B715" s="9" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A716" s="9"/>
       <c r="B716" s="9" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A717" s="9"/>
       <c r="B717" s="9" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A718" s="9"/>
       <c r="B718" s="9" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A719" s="9"/>
       <c r="B719" s="9" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A720" s="9"/>
       <c r="B720" s="9" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A721" s="9"/>
       <c r="B721" s="9" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A722" s="9"/>
       <c r="B722" s="9" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A723" s="9"/>
       <c r="B723" s="9" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A724" s="9"/>
       <c r="B724" s="9" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A725" s="9"/>
       <c r="B725" s="9" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A726" s="9"/>
       <c r="B726" s="9" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A727" s="9"/>
       <c r="B727" s="9" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A728" s="9"/>
       <c r="B728" s="9" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A729" s="9"/>
       <c r="B729" s="9" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A730" s="9"/>
       <c r="B730" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A731" s="9"/>
       <c r="B731" s="9" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A732" s="9"/>
       <c r="B732" s="9" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A733" s="9"/>
       <c r="B733" s="9" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A734" s="9"/>
       <c r="B734" s="9" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A735" s="9"/>
       <c r="B735" s="9" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A736" s="9"/>
       <c r="B736" s="9" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A737" s="9"/>
       <c r="B737" s="9" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A738" s="9"/>
       <c r="B738" s="9" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A739" s="9"/>
       <c r="B739" s="9" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A740" s="9"/>
       <c r="B740" s="9" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A741" s="9"/>
       <c r="B741" s="9" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A742" s="9"/>
       <c r="B742" s="9" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A743" s="9"/>
       <c r="B743" s="9" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A744" s="9"/>
       <c r="B744" s="9" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A745" s="9"/>
       <c r="B745" s="9" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A746" s="9"/>
       <c r="B746" s="9" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A747" s="9"/>
       <c r="B747" s="9" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A748" s="9"/>
       <c r="B748" s="9" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A749" s="9"/>
       <c r="B749" s="9" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A750" s="9"/>
       <c r="B750" s="9" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A751" s="9"/>
       <c r="B751" s="9" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A752" s="9"/>
       <c r="B752" s="9" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A753" s="9"/>
       <c r="B753" s="9" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A754" s="9"/>
       <c r="B754" s="9" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A755" s="9"/>
       <c r="B755" s="9" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A756" s="9"/>
       <c r="B756" s="9" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A757" s="9"/>
       <c r="B757" s="9" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A758" s="9"/>
       <c r="B758" s="9" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A759" s="9"/>
       <c r="B759" s="9" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A760" s="9"/>
       <c r="B760" s="9" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A761" s="9"/>
       <c r="B761" s="9" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A762" s="9"/>
       <c r="B762" s="9" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A763" s="9"/>
       <c r="B763" s="9" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A764" s="9"/>
       <c r="B764" s="9" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A765" s="9"/>
       <c r="B765" s="9" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A766" s="9"/>
       <c r="B766" s="9" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A767" s="9"/>
       <c r="B767" s="9" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A768" s="9"/>
       <c r="B768" s="9" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A769" s="9"/>
       <c r="B769" s="9" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A770" s="9"/>
       <c r="B770" s="9" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A771" s="9"/>
       <c r="B771" s="9" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A772" s="9"/>
       <c r="B772" s="9" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A773" s="9"/>
       <c r="B773" s="9" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A774" s="9"/>
       <c r="B774" s="9" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A775" s="9"/>
       <c r="B775" s="9" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A776" s="9"/>
       <c r="B776" s="9" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A777" s="9"/>
       <c r="B777" s="9" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A778" s="9"/>
       <c r="B778" s="9" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A779" s="9"/>
       <c r="B779" s="9" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A780" s="9"/>
       <c r="B780" s="9" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A781" s="9"/>
       <c r="B781" s="9" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A782" s="9"/>
       <c r="B782" s="9" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A783" s="9"/>
       <c r="B783" s="9" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A784" s="9"/>
       <c r="B784" s="9" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A785" s="9"/>
       <c r="B785" s="9" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A786" s="9"/>
       <c r="B786" s="9" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A787" s="9"/>
       <c r="B787" s="9" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A788" s="9"/>
       <c r="B788" s="9" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A789" s="9"/>
       <c r="B789" s="9" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A790" s="9"/>
       <c r="B790" s="9" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A791" s="9"/>
       <c r="B791" s="9" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A792" s="9"/>
       <c r="B792" s="9" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A793" s="9"/>
       <c r="B793" s="9" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A794" s="9"/>
       <c r="B794" s="9" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A795" s="9"/>
       <c r="B795" s="9" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A796" s="9"/>
       <c r="B796" s="9" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A797" s="9"/>
       <c r="B797" s="9" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A798" s="9"/>
       <c r="B798" s="9" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A799" s="9"/>
       <c r="B799" s="9" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A800" s="9"/>
       <c r="B800" s="9" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A801" s="9"/>
       <c r="B801" s="9" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A802" s="9"/>
       <c r="B802" s="9" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A803" s="9"/>
       <c r="B803" s="9" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A804" s="9"/>
       <c r="B804" s="9" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A805" s="9"/>
       <c r="B805" s="9" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A806" s="9"/>
       <c r="B806" s="9" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A807" s="9"/>
       <c r="B807" s="9" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A808" s="9"/>
       <c r="B808" s="9" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A809" s="9"/>
       <c r="B809" s="9" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A810" s="9"/>
       <c r="B810" s="9" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A811" s="9"/>
       <c r="B811" s="9" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A812" s="9"/>
       <c r="B812" s="9" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A813" s="9"/>
       <c r="B813" s="9" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A814" s="9"/>
       <c r="B814" s="9" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A815" s="9"/>
       <c r="B815" s="9" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A816" s="9"/>
       <c r="B816" s="9" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A817" s="9"/>
       <c r="B817" s="9" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A818" s="9"/>
       <c r="B818" s="9" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A819" s="9"/>
       <c r="B819" s="9" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A820" s="9"/>
       <c r="B820" s="9" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A821" s="9"/>
       <c r="B821" s="9" t="s">
         <v>872</v>
@@ -9098,28 +9096,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="R63" sqref="R63"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="16" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="16"/>
-    <col min="4" max="4" width="12.5" style="16" customWidth="1"/>
-    <col min="5" max="7" width="11.125" style="16"/>
-    <col min="8" max="9" width="10.875" style="16"/>
-    <col min="10" max="10" width="10.875" style="19"/>
-    <col min="11" max="11" width="18.875" style="39" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" style="16"/>
+    <col min="4" max="4" width="12.453125" style="16" customWidth="1"/>
+    <col min="5" max="7" width="11.08984375" style="16"/>
+    <col min="8" max="9" width="10.90625" style="16"/>
+    <col min="10" max="10" width="10.90625" style="19"/>
+    <col min="11" max="11" width="18.90625" style="39" customWidth="1"/>
     <col min="12" max="12" width="23" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.125" style="16"/>
+    <col min="13" max="13" width="23.90625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.08984375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9181,7 +9179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>916</v>
       </c>
@@ -9220,7 +9218,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
         <v>916</v>
       </c>
@@ -9250,7 +9248,7 @@
       <c r="K3" s="43"/>
       <c r="L3" s="33"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
         <v>916</v>
       </c>
@@ -9289,7 +9287,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
         <v>916</v>
       </c>
@@ -9320,7 +9318,7 @@
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
         <v>916</v>
       </c>
@@ -9352,7 +9350,7 @@
       <c r="J6" s="32"/>
       <c r="L6" s="33"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>916</v>
       </c>
@@ -9383,7 +9381,7 @@
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>916</v>
       </c>
@@ -9414,7 +9412,7 @@
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>916</v>
       </c>
@@ -9453,7 +9451,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
         <v>916</v>
       </c>
@@ -9492,7 +9490,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>916</v>
       </c>
@@ -9523,7 +9521,7 @@
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="31" t="s">
         <v>916</v>
       </c>
@@ -9555,7 +9553,7 @@
       <c r="J12" s="32"/>
       <c r="L12" s="33"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>916</v>
       </c>
@@ -9586,7 +9584,7 @@
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
         <v>916</v>
       </c>
@@ -9625,7 +9623,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
         <v>916</v>
       </c>
@@ -9655,7 +9653,7 @@
       <c r="K15" s="43"/>
       <c r="L15" s="33"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>916</v>
       </c>
@@ -9694,7 +9692,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
         <v>916</v>
       </c>
@@ -9725,7 +9723,7 @@
       <c r="K17" s="33"/>
       <c r="L17" s="33"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
         <v>916</v>
       </c>
@@ -9764,7 +9762,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
         <v>916</v>
       </c>
@@ -9803,7 +9801,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
         <v>916</v>
       </c>
@@ -9842,7 +9840,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
         <v>916</v>
       </c>
@@ -9873,7 +9871,7 @@
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="31" t="s">
         <v>916</v>
       </c>
@@ -9904,7 +9902,7 @@
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
         <v>916</v>
       </c>
@@ -9936,7 +9934,7 @@
       <c r="J23" s="32"/>
       <c r="L23" s="33"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="31" t="s">
         <v>916</v>
       </c>
@@ -9975,7 +9973,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="31" t="s">
         <v>916</v>
       </c>
@@ -10005,7 +10003,7 @@
       <c r="K25" s="43"/>
       <c r="L25" s="33"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>916</v>
       </c>
@@ -10035,7 +10033,7 @@
       <c r="K26" s="43"/>
       <c r="L26" s="33"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
         <v>916</v>
       </c>
@@ -10074,7 +10072,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
         <v>916</v>
       </c>
@@ -10104,7 +10102,7 @@
       <c r="K28" s="43"/>
       <c r="L28" s="33"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
         <v>916</v>
       </c>
@@ -10135,7 +10133,7 @@
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>916</v>
       </c>
@@ -10167,7 +10165,7 @@
       <c r="J30" s="32"/>
       <c r="L30" s="33"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
         <v>916</v>
       </c>
@@ -10206,7 +10204,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
         <v>916</v>
       </c>
@@ -10236,7 +10234,7 @@
       <c r="K32" s="43"/>
       <c r="L32" s="33"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
         <v>916</v>
       </c>
@@ -10275,7 +10273,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
         <v>916</v>
       </c>
@@ -10306,7 +10304,7 @@
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
         <v>916</v>
       </c>
@@ -10338,7 +10336,7 @@
       <c r="J35" s="32"/>
       <c r="L35" s="33"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
         <v>916</v>
       </c>
@@ -10369,7 +10367,7 @@
       <c r="K36" s="33"/>
       <c r="L36" s="33"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
         <v>916</v>
       </c>
@@ -10408,7 +10406,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="31" t="s">
         <v>916</v>
       </c>
@@ -10439,7 +10437,7 @@
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="31" t="s">
         <v>916</v>
       </c>
@@ -10470,7 +10468,7 @@
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="31" t="s">
         <v>916</v>
       </c>
@@ -10509,7 +10507,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="31" t="s">
         <v>916</v>
       </c>
@@ -10540,7 +10538,7 @@
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
         <v>916</v>
       </c>
@@ -10571,7 +10569,7 @@
       <c r="K42" s="33"/>
       <c r="L42" s="33"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
         <v>916</v>
       </c>
@@ -10602,7 +10600,7 @@
       <c r="K43" s="33"/>
       <c r="L43" s="33"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
         <v>916</v>
       </c>
@@ -10641,7 +10639,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>916</v>
       </c>
@@ -10672,7 +10670,7 @@
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="31" t="s">
         <v>916</v>
       </c>
@@ -10711,7 +10709,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
         <v>916</v>
       </c>
@@ -10742,7 +10740,7 @@
       <c r="K47" s="33"/>
       <c r="L47" s="33"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="31" t="s">
         <v>916</v>
       </c>
@@ -10781,7 +10779,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
         <v>916</v>
       </c>
@@ -10811,7 +10809,7 @@
       <c r="K49" s="43"/>
       <c r="L49" s="33"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
         <v>916</v>
       </c>
@@ -10850,7 +10848,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
         <v>916</v>
       </c>
@@ -10880,7 +10878,7 @@
       <c r="K51" s="43"/>
       <c r="L51" s="33"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
         <v>916</v>
       </c>
@@ -10910,7 +10908,7 @@
       <c r="K52" s="43"/>
       <c r="L52" s="33"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="31" t="s">
         <v>916</v>
       </c>
@@ -10949,7 +10947,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
         <v>916</v>
       </c>
@@ -10979,7 +10977,7 @@
       <c r="K54" s="44"/>
       <c r="L54" s="33"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="31" t="s">
         <v>916</v>
       </c>
@@ -11018,7 +11016,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="31" t="s">
         <v>916</v>
       </c>
@@ -11048,7 +11046,7 @@
       <c r="K56" s="44"/>
       <c r="L56" s="33"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="31" t="s">
         <v>916</v>
       </c>
@@ -11087,7 +11085,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="31" t="s">
         <v>916</v>
       </c>
@@ -11126,7 +11124,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
         <v>916</v>
       </c>
@@ -11156,7 +11154,7 @@
       <c r="K59" s="44"/>
       <c r="L59" s="33"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="31" t="s">
         <v>916</v>
       </c>
@@ -11195,7 +11193,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="31" t="s">
         <v>916</v>
       </c>
@@ -11226,7 +11224,7 @@
       <c r="K61" s="45"/>
       <c r="L61" s="33"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
         <v>916</v>
       </c>
@@ -11257,7 +11255,7 @@
       <c r="K62" s="45"/>
       <c r="L62" s="33"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
         <v>916</v>
       </c>
@@ -11288,7 +11286,7 @@
       <c r="K63" s="45"/>
       <c r="L63" s="33"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="31" t="s">
         <v>916</v>
       </c>
@@ -11327,7 +11325,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="31" t="s">
         <v>916</v>
       </c>
@@ -11357,7 +11355,7 @@
       <c r="K65" s="44"/>
       <c r="L65" s="33"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="31" t="s">
         <v>916</v>
       </c>
@@ -11387,7 +11385,7 @@
       <c r="K66" s="44"/>
       <c r="L66" s="33"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="31" t="s">
         <v>916</v>
       </c>
@@ -11417,7 +11415,7 @@
       <c r="K67" s="44"/>
       <c r="L67" s="33"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="31" t="s">
         <v>916</v>
       </c>
@@ -11447,7 +11445,7 @@
       <c r="K68" s="44"/>
       <c r="L68" s="33"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="31" t="s">
         <v>916</v>
       </c>
@@ -11477,7 +11475,7 @@
       <c r="K69" s="44"/>
       <c r="L69" s="33"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="31" t="s">
         <v>916</v>
       </c>
@@ -11507,7 +11505,7 @@
       <c r="K70" s="44"/>
       <c r="L70" s="33"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="31" t="s">
         <v>916</v>
       </c>
@@ -11546,7 +11544,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="31" t="s">
         <v>916</v>
       </c>
@@ -11576,7 +11574,7 @@
       <c r="K72" s="44"/>
       <c r="L72" s="33"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="31" t="s">
         <v>916</v>
       </c>
@@ -11615,7 +11613,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="31" t="s">
         <v>916</v>
       </c>
@@ -11645,7 +11643,7 @@
       <c r="K74" s="44"/>
       <c r="L74" s="33"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="31" t="s">
         <v>916</v>
       </c>
@@ -11684,7 +11682,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="31" t="s">
         <v>916</v>
       </c>
@@ -11714,7 +11712,7 @@
       <c r="K76" s="44"/>
       <c r="L76" s="33"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="31" t="s">
         <v>916</v>
       </c>
@@ -11753,7 +11751,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="31" t="s">
         <v>916</v>
       </c>
@@ -11784,7 +11782,7 @@
       <c r="K78" s="45"/>
       <c r="L78" s="33"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="31" t="s">
         <v>916</v>
       </c>
@@ -11815,7 +11813,7 @@
       <c r="K79" s="45"/>
       <c r="L79" s="33"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="31" t="s">
         <v>916</v>
       </c>
@@ -11846,7 +11844,7 @@
       <c r="K80" s="45"/>
       <c r="L80" s="33"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="31" t="s">
         <v>916</v>
       </c>
@@ -11885,7 +11883,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="31" t="s">
         <v>916</v>
       </c>
@@ -11924,7 +11922,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="31" t="s">
         <v>916</v>
       </c>
@@ -11954,7 +11952,7 @@
       <c r="K83" s="44"/>
       <c r="L83" s="33"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="31" t="s">
         <v>916</v>
       </c>
@@ -11993,7 +11991,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="31" t="s">
         <v>916</v>
       </c>
@@ -12023,7 +12021,7 @@
       <c r="K85" s="44"/>
       <c r="L85" s="33"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="31" t="s">
         <v>916</v>
       </c>
@@ -12053,7 +12051,7 @@
       <c r="K86" s="44"/>
       <c r="L86" s="33"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="31" t="s">
         <v>916</v>
       </c>
@@ -12083,7 +12081,7 @@
       <c r="K87" s="44"/>
       <c r="L87" s="33"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="31" t="s">
         <v>916</v>
       </c>
@@ -12122,7 +12120,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="31" t="s">
         <v>916</v>
       </c>
@@ -12148,7 +12146,7 @@
       <c r="K89" s="40"/>
       <c r="L89" s="40"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="27">
         <v>43062</v>
       </c>
@@ -12179,7 +12177,7 @@
       <c r="K90" s="26"/>
       <c r="L90" s="26"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="27">
         <v>43062</v>
       </c>
@@ -12219,7 +12217,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="27">
         <v>43062</v>
       </c>
@@ -12250,7 +12248,7 @@
       <c r="K92" s="26"/>
       <c r="L92" s="26"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="27">
         <v>43062</v>
       </c>
@@ -12290,7 +12288,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="27">
         <v>43062</v>
       </c>
@@ -12321,7 +12319,7 @@
       <c r="K94" s="26"/>
       <c r="L94" s="26"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="27">
         <v>43062</v>
       </c>
@@ -12352,7 +12350,7 @@
       <c r="K95" s="26"/>
       <c r="L95" s="26"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="27">
         <v>43062</v>
       </c>
@@ -12383,7 +12381,7 @@
       <c r="K96" s="26"/>
       <c r="L96" s="26"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="27">
         <v>43062</v>
       </c>
@@ -12420,7 +12418,7 @@
       </c>
       <c r="L97" s="26"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="27">
         <v>43062</v>
       </c>
@@ -12455,7 +12453,7 @@
       <c r="K98" s="26"/>
       <c r="L98" s="26"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="27">
         <v>43062</v>
       </c>
@@ -12490,7 +12488,7 @@
       <c r="K99" s="26"/>
       <c r="L99" s="26"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="27">
         <v>43062</v>
       </c>
@@ -12521,7 +12519,7 @@
       <c r="K100" s="26"/>
       <c r="L100" s="26"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="27">
         <v>43062</v>
       </c>
@@ -12554,7 +12552,7 @@
       <c r="K101" s="26"/>
       <c r="L101" s="26"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="27">
         <v>43062</v>
       </c>
@@ -12585,7 +12583,7 @@
       <c r="K102" s="26"/>
       <c r="L102" s="26"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="27">
         <v>43062</v>
       </c>
@@ -12625,7 +12623,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="27">
         <v>43062</v>
       </c>
@@ -12658,7 +12656,7 @@
       <c r="K104" s="26"/>
       <c r="L104" s="26"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="27">
         <v>43062</v>
       </c>
@@ -12689,7 +12687,7 @@
       <c r="K105" s="26"/>
       <c r="L105" s="26"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="27">
         <v>43062</v>
       </c>
@@ -12722,7 +12720,7 @@
       <c r="K106" s="26"/>
       <c r="L106" s="26"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="27">
         <v>43062</v>
       </c>
@@ -12753,7 +12751,7 @@
       <c r="K107" s="26"/>
       <c r="L107" s="26"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="27">
         <v>43062</v>
       </c>
@@ -12786,7 +12784,7 @@
       <c r="K108" s="26"/>
       <c r="L108" s="26"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="27">
         <v>43062</v>
       </c>
@@ -12817,7 +12815,7 @@
       <c r="K109" s="26"/>
       <c r="L109" s="26"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="27">
         <v>43062</v>
       </c>
@@ -12850,7 +12848,7 @@
       <c r="K110" s="26"/>
       <c r="L110" s="26"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="27">
         <v>43062</v>
       </c>
@@ -12881,7 +12879,7 @@
       <c r="K111" s="26"/>
       <c r="L111" s="26"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="27">
         <v>43062</v>
       </c>
@@ -12914,7 +12912,7 @@
       <c r="K112" s="26"/>
       <c r="L112" s="26"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="27">
         <v>43062</v>
       </c>
@@ -12945,7 +12943,7 @@
       <c r="K113" s="26"/>
       <c r="L113" s="26"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="27">
         <v>43062</v>
       </c>
@@ -12978,7 +12976,7 @@
       <c r="K114" s="26"/>
       <c r="L114" s="26"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="27">
         <v>43062</v>
       </c>
@@ -13009,7 +13007,7 @@
       <c r="K115" s="26"/>
       <c r="L115" s="26"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="27">
         <v>43062</v>
       </c>
@@ -13042,7 +13040,7 @@
       <c r="K116" s="26"/>
       <c r="L116" s="26"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="27">
         <v>43062</v>
       </c>
@@ -13073,7 +13071,7 @@
       <c r="K117" s="26"/>
       <c r="L117" s="26"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="27">
         <v>43062</v>
       </c>
@@ -13106,7 +13104,7 @@
       <c r="K118" s="26"/>
       <c r="L118" s="26"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="27">
         <v>43062</v>
       </c>
@@ -13139,7 +13137,7 @@
       <c r="K119" s="26"/>
       <c r="L119" s="26"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="27">
         <v>43062</v>
       </c>
@@ -13172,7 +13170,7 @@
       <c r="K120" s="26"/>
       <c r="L120" s="26"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="27">
         <v>43062</v>
       </c>
@@ -13203,7 +13201,7 @@
       <c r="K121" s="26"/>
       <c r="L121" s="26"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="27">
         <v>43062</v>
       </c>
@@ -13236,7 +13234,7 @@
       <c r="K122" s="26"/>
       <c r="L122" s="26"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="27">
         <v>43062</v>
       </c>
@@ -13267,7 +13265,7 @@
       <c r="K123" s="26"/>
       <c r="L123" s="26"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="27">
         <v>43062</v>
       </c>
@@ -13300,7 +13298,7 @@
       <c r="K124" s="26"/>
       <c r="L124" s="26"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="27">
         <v>43062</v>
       </c>
@@ -13331,7 +13329,7 @@
       <c r="K125" s="26"/>
       <c r="L125" s="26"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="27">
         <v>43062</v>
       </c>
@@ -13364,7 +13362,7 @@
       <c r="K126" s="26"/>
       <c r="L126" s="26"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="27">
         <v>43062</v>
       </c>
@@ -13395,7 +13393,7 @@
       <c r="K127" s="26"/>
       <c r="L127" s="26"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="27">
         <v>43062</v>
       </c>
@@ -13428,7 +13426,7 @@
       <c r="K128" s="26"/>
       <c r="L128" s="26"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="27">
         <v>43062</v>
       </c>
@@ -13459,7 +13457,7 @@
       <c r="K129" s="26"/>
       <c r="L129" s="26"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="27">
         <v>43062</v>
       </c>
@@ -13499,7 +13497,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="27">
         <v>43062</v>
       </c>
@@ -13530,7 +13528,7 @@
       <c r="K131" s="26"/>
       <c r="L131" s="26"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="27">
         <v>43062</v>
       </c>
@@ -13570,7 +13568,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="27">
         <v>43062</v>
       </c>
@@ -13601,7 +13599,7 @@
       <c r="K133" s="26"/>
       <c r="L133" s="26"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="27">
         <v>43062</v>
       </c>
@@ -13634,7 +13632,7 @@
       <c r="K134" s="26"/>
       <c r="L134" s="26"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="27">
         <v>43062</v>
       </c>
@@ -13665,7 +13663,7 @@
       <c r="K135" s="26"/>
       <c r="L135" s="26"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="27">
         <v>43062</v>
       </c>
@@ -13696,7 +13694,7 @@
       <c r="K136" s="26"/>
       <c r="L136" s="26"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="27">
         <v>43062</v>
       </c>
@@ -13727,7 +13725,7 @@
       <c r="K137" s="26"/>
       <c r="L137" s="26"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="27">
         <v>43062</v>
       </c>
@@ -13760,7 +13758,7 @@
       <c r="K138" s="26"/>
       <c r="L138" s="26"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="27">
         <v>43062</v>
       </c>
@@ -13791,7 +13789,7 @@
       <c r="K139" s="26"/>
       <c r="L139" s="26"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="27">
         <v>43062</v>
       </c>
@@ -13824,7 +13822,7 @@
       <c r="K140" s="26"/>
       <c r="L140" s="26"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="27">
         <v>43062</v>
       </c>
@@ -13855,7 +13853,7 @@
       <c r="K141" s="26"/>
       <c r="L141" s="26"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="27">
         <v>43062</v>
       </c>
@@ -13895,7 +13893,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="27">
         <v>43062</v>
       </c>
@@ -13926,7 +13924,7 @@
       <c r="K143" s="26"/>
       <c r="L143" s="26"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="27">
         <v>43062</v>
       </c>
@@ -13966,7 +13964,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="27">
         <v>43062</v>
       </c>
@@ -13997,7 +13995,7 @@
       <c r="K145" s="26"/>
       <c r="L145" s="26"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="27">
         <v>43062</v>
       </c>
@@ -14037,7 +14035,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="27">
         <v>43062</v>
       </c>
@@ -14068,7 +14066,7 @@
       <c r="K147" s="26"/>
       <c r="M147" s="26"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="27">
         <v>43062</v>
       </c>
@@ -14108,7 +14106,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="27">
         <v>43062</v>
       </c>
@@ -14139,7 +14137,7 @@
       <c r="K149" s="26"/>
       <c r="L149" s="26"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="27">
         <v>43062</v>
       </c>
@@ -14172,7 +14170,7 @@
       <c r="K150" s="26"/>
       <c r="L150" s="26"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="27">
         <v>43062</v>
       </c>
@@ -14205,7 +14203,7 @@
       <c r="K151" s="26"/>
       <c r="L151" s="26"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="27">
         <v>43062</v>
       </c>
@@ -14236,7 +14234,7 @@
       <c r="K152" s="26"/>
       <c r="L152" s="26"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" s="27">
         <v>43062</v>
       </c>
@@ -14269,7 +14267,7 @@
       <c r="K153" s="26"/>
       <c r="L153" s="26"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="27">
         <v>43062</v>
       </c>
@@ -14300,7 +14298,7 @@
       <c r="K154" s="26"/>
       <c r="L154" s="26"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="27">
         <v>43062</v>
       </c>
@@ -14333,7 +14331,7 @@
       <c r="K155" s="26"/>
       <c r="L155" s="26"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="27">
         <v>43062</v>
       </c>
@@ -14373,7 +14371,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="27">
         <v>43062</v>
       </c>
@@ -14406,7 +14404,7 @@
       <c r="K157" s="26"/>
       <c r="L157" s="26"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="27">
         <v>43062</v>
       </c>
@@ -14446,7 +14444,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" s="27">
         <v>43062</v>
       </c>
@@ -14477,7 +14475,7 @@
       <c r="K159" s="26"/>
       <c r="L159" s="26"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" s="27">
         <v>43062</v>
       </c>
@@ -14517,7 +14515,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="27">
         <v>43062</v>
       </c>
@@ -14548,7 +14546,7 @@
       <c r="K161" s="26"/>
       <c r="L161" s="26"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="27">
         <v>43062</v>
       </c>
@@ -14588,7 +14586,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="27">
         <v>43062</v>
       </c>
@@ -14619,7 +14617,7 @@
       <c r="K163" s="26"/>
       <c r="L163" s="26"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="27">
         <v>43062</v>
       </c>
@@ -14659,7 +14657,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="27">
         <v>43062</v>
       </c>
@@ -14692,7 +14690,7 @@
       <c r="K165" s="26"/>
       <c r="L165" s="26"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="27">
         <v>43062</v>
       </c>
@@ -14723,7 +14721,7 @@
       <c r="K166" s="26"/>
       <c r="L166" s="26"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="27">
         <v>43062</v>
       </c>
@@ -14756,7 +14754,7 @@
       <c r="K167" s="26"/>
       <c r="L167" s="26"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" s="27">
         <v>43062</v>
       </c>
@@ -14789,7 +14787,7 @@
       <c r="K168" s="26"/>
       <c r="L168" s="26"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" s="27">
         <v>43062</v>
       </c>
@@ -14824,7 +14822,7 @@
       <c r="K169" s="26"/>
       <c r="L169" s="26"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" s="27">
         <v>43062</v>
       </c>
@@ -14864,7 +14862,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" s="27">
         <v>43062</v>
       </c>
@@ -14895,7 +14893,7 @@
       <c r="K171" s="26"/>
       <c r="L171" s="26"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" s="27">
         <v>43062</v>
       </c>
@@ -14935,7 +14933,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" s="27">
         <v>43062</v>
       </c>
@@ -14966,7 +14964,7 @@
       <c r="K173" s="26"/>
       <c r="L173" s="26"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" s="27">
         <v>43062</v>
       </c>
@@ -15006,7 +15004,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" s="27">
         <v>43062</v>
       </c>
@@ -15037,7 +15035,7 @@
       <c r="K175" s="26"/>
       <c r="L175" s="26"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" s="27">
         <v>43062</v>
       </c>
@@ -15070,7 +15068,7 @@
       <c r="K176" s="26"/>
       <c r="L176" s="26"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="27">
         <v>43062</v>
       </c>
@@ -15110,7 +15108,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="27">
         <v>43062</v>
       </c>
@@ -15143,7 +15141,7 @@
       <c r="K178" s="26"/>
       <c r="L178" s="26"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="27">
         <v>43062</v>
       </c>
@@ -15183,7 +15181,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" s="27">
         <v>43062</v>
       </c>
@@ -15216,7 +15214,7 @@
       <c r="K180" s="26"/>
       <c r="L180" s="26"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" s="27">
         <v>43062</v>
       </c>
@@ -15256,7 +15254,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="27">
         <v>43062</v>
       </c>
@@ -15289,7 +15287,7 @@
       <c r="K182" s="26"/>
       <c r="L182" s="26"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" s="27">
         <v>43062</v>
       </c>
@@ -15322,7 +15320,7 @@
       <c r="K183" s="26"/>
       <c r="L183" s="26"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" s="27">
         <v>43062</v>
       </c>
@@ -15355,7 +15353,7 @@
       <c r="K184" s="26"/>
       <c r="L184" s="26"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" s="27">
         <v>43062</v>
       </c>
@@ -15386,7 +15384,7 @@
       <c r="K185" s="26"/>
       <c r="L185" s="26"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="27">
         <v>43062</v>
       </c>
@@ -15426,7 +15424,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" s="27">
         <v>43062</v>
       </c>
@@ -15457,7 +15455,7 @@
       <c r="K187" s="26"/>
       <c r="L187" s="26"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" s="27">
         <v>43062</v>
       </c>
@@ -15490,7 +15488,7 @@
       <c r="K188" s="26"/>
       <c r="L188" s="26"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" s="27">
         <v>43062</v>
       </c>
@@ -15521,7 +15519,7 @@
       <c r="K189" s="26"/>
       <c r="L189" s="26"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" s="27">
         <v>43062</v>
       </c>
@@ -15554,7 +15552,7 @@
       <c r="K190" s="26"/>
       <c r="L190" s="26"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" s="27">
         <v>43062</v>
       </c>
@@ -15585,7 +15583,7 @@
       <c r="K191" s="26"/>
       <c r="L191" s="26"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" s="27">
         <v>43062</v>
       </c>
@@ -15619,7 +15617,7 @@
       </c>
       <c r="L192" s="26"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="27">
         <v>43062</v>
       </c>
@@ -15650,7 +15648,7 @@
       <c r="K193" s="26"/>
       <c r="L193" s="26"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" s="27">
         <v>43062</v>
       </c>
@@ -15683,7 +15681,7 @@
       <c r="K194" s="26"/>
       <c r="L194" s="26"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" s="27">
         <v>43062</v>
       </c>
@@ -15718,7 +15716,7 @@
       </c>
       <c r="L195" s="26"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" s="27">
         <v>43062</v>
       </c>
@@ -15749,7 +15747,7 @@
       <c r="K196" s="26"/>
       <c r="L196" s="26"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" s="27">
         <v>43062</v>
       </c>
@@ -15782,7 +15780,7 @@
       <c r="K197" s="26"/>
       <c r="L197" s="26"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" s="27">
         <v>43062</v>
       </c>
@@ -15813,7 +15811,7 @@
       <c r="K198" s="26"/>
       <c r="L198" s="26"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" s="27">
         <v>43062</v>
       </c>
@@ -15853,7 +15851,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" s="27">
         <v>43062</v>
       </c>
@@ -15884,7 +15882,7 @@
       <c r="K200" s="26"/>
       <c r="L200" s="26"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" s="27">
         <v>43062</v>
       </c>
@@ -15924,7 +15922,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" s="27">
         <v>43062</v>
       </c>
@@ -15957,7 +15955,7 @@
       <c r="K202" s="26"/>
       <c r="L202" s="26"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203" s="27">
         <v>43062</v>
       </c>
@@ -15988,7 +15986,7 @@
       <c r="K203" s="26"/>
       <c r="L203" s="26"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" s="27">
         <v>43062</v>
       </c>
@@ -16028,7 +16026,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" s="27">
         <v>43062</v>
       </c>
@@ -16059,7 +16057,7 @@
       <c r="K205" s="26"/>
       <c r="L205" s="26"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206" s="27">
         <v>43062</v>
       </c>
@@ -16099,7 +16097,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" s="27">
         <v>43062</v>
       </c>
@@ -16130,7 +16128,7 @@
       <c r="K207" s="26"/>
       <c r="L207" s="26"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208" s="27">
         <v>43062</v>
       </c>
@@ -16163,7 +16161,7 @@
       <c r="K208" s="26"/>
       <c r="L208" s="26"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" s="27">
         <v>43062</v>
       </c>
@@ -16194,7 +16192,7 @@
       <c r="K209" s="26"/>
       <c r="L209" s="26"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" s="27">
         <v>43062</v>
       </c>
@@ -16227,7 +16225,7 @@
       <c r="K210" s="26"/>
       <c r="L210" s="26"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211" s="27">
         <v>43062</v>
       </c>
@@ -16258,7 +16256,7 @@
       <c r="K211" s="26"/>
       <c r="L211" s="26"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212" s="27">
         <v>43062</v>
       </c>
@@ -16298,7 +16296,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" s="27">
         <v>43062</v>
       </c>
@@ -16329,7 +16327,7 @@
       <c r="K213" s="26"/>
       <c r="L213" s="26"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" s="27">
         <v>43062</v>
       </c>
@@ -16362,7 +16360,7 @@
       <c r="K214" s="26"/>
       <c r="L214" s="26"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" s="27">
         <v>43062</v>
       </c>
@@ -16393,7 +16391,7 @@
       <c r="K215" s="26"/>
       <c r="L215" s="26"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" s="27">
         <v>43062</v>
       </c>
@@ -16424,7 +16422,7 @@
       <c r="K216" s="26"/>
       <c r="L216" s="26"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217" s="27">
         <v>43062</v>
       </c>
@@ -16455,7 +16453,7 @@
       <c r="K217" s="26"/>
       <c r="L217" s="26"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" s="27">
         <v>43062</v>
       </c>
@@ -16495,7 +16493,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219" s="27">
         <v>43062</v>
       </c>
@@ -16526,7 +16524,7 @@
       <c r="K219" s="26"/>
       <c r="L219" s="26"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" s="27">
         <v>43062</v>
       </c>
@@ -16547,7 +16545,7 @@
       </c>
       <c r="G220" s="28"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" s="37" t="s">
         <v>912</v>
       </c>
@@ -16577,7 +16575,7 @@
       <c r="J221" s="22"/>
       <c r="K221" s="41"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="37" t="s">
         <v>912</v>
       </c>
@@ -16607,7 +16605,7 @@
       <c r="J222" s="23"/>
       <c r="K222" s="40"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" s="37" t="s">
         <v>912</v>
       </c>
@@ -16637,7 +16635,7 @@
       <c r="J223" s="20"/>
       <c r="K223" s="40"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" s="37" t="s">
         <v>912</v>
       </c>
@@ -16677,7 +16675,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" s="37" t="s">
         <v>912</v>
       </c>
@@ -16707,7 +16705,7 @@
       <c r="J225" s="23"/>
       <c r="K225" s="40"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" s="37" t="s">
         <v>912</v>
       </c>
@@ -16747,7 +16745,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" s="37" t="s">
         <v>912</v>
       </c>
@@ -16777,7 +16775,7 @@
       <c r="J227" s="22"/>
       <c r="K227" s="41"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" s="37" t="s">
         <v>912</v>
       </c>
@@ -16807,7 +16805,7 @@
       <c r="J228" s="20"/>
       <c r="K228" s="40"/>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" s="37" t="s">
         <v>912</v>
       </c>
@@ -16837,7 +16835,7 @@
       <c r="J229" s="22"/>
       <c r="K229" s="41"/>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" s="37" t="s">
         <v>912</v>
       </c>
@@ -16877,7 +16875,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231" s="37" t="s">
         <v>912</v>
       </c>
@@ -16907,7 +16905,7 @@
       <c r="J231" s="22"/>
       <c r="K231" s="41"/>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" s="37" t="s">
         <v>912</v>
       </c>
@@ -16937,7 +16935,7 @@
       <c r="J232" s="22"/>
       <c r="K232" s="41"/>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233" s="37" t="s">
         <v>912</v>
       </c>
@@ -16967,7 +16965,7 @@
       <c r="J233" s="22"/>
       <c r="K233" s="41"/>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A234" s="37" t="s">
         <v>912</v>
       </c>
@@ -17007,7 +17005,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235" s="37" t="s">
         <v>912</v>
       </c>
@@ -17036,7 +17034,7 @@
       <c r="I235" s="17"/>
       <c r="K235" s="40"/>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" s="37" t="s">
         <v>912</v>
       </c>
@@ -17066,7 +17064,7 @@
       <c r="J236" s="20"/>
       <c r="K236" s="40"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A237" s="37" t="s">
         <v>912</v>
       </c>
@@ -17106,7 +17104,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238" s="37" t="s">
         <v>912</v>
       </c>
@@ -17136,7 +17134,7 @@
       <c r="J238" s="22"/>
       <c r="K238" s="41"/>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239" s="37" t="s">
         <v>912</v>
       </c>
@@ -17176,7 +17174,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A240" s="37" t="s">
         <v>912</v>
       </c>
@@ -17206,7 +17204,7 @@
       <c r="J240" s="22"/>
       <c r="K240" s="40"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A241" s="37" t="s">
         <v>912</v>
       </c>
@@ -17246,7 +17244,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A242" s="37" t="s">
         <v>912</v>
       </c>
@@ -17276,7 +17274,7 @@
       <c r="J242" s="20"/>
       <c r="K242" s="40"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A243" s="37" t="s">
         <v>912</v>
       </c>
@@ -17306,7 +17304,7 @@
       <c r="J243" s="20"/>
       <c r="K243" s="40"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A244" s="37" t="s">
         <v>912</v>
       </c>
@@ -17336,7 +17334,7 @@
       <c r="J244" s="20"/>
       <c r="K244" s="40"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A245" s="37" t="s">
         <v>912</v>
       </c>
@@ -17376,7 +17374,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A246" s="37" t="s">
         <v>912</v>
       </c>
@@ -17406,7 +17404,7 @@
       <c r="J246" s="22"/>
       <c r="K246" s="41"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A247" s="37" t="s">
         <v>912</v>
       </c>
@@ -17446,7 +17444,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A248" s="37" t="s">
         <v>912</v>
       </c>
@@ -17476,7 +17474,7 @@
       <c r="J248" s="20"/>
       <c r="K248" s="40"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A249" s="37" t="s">
         <v>912</v>
       </c>
@@ -17506,7 +17504,7 @@
       <c r="J249" s="22"/>
       <c r="K249" s="41"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A250" s="37" t="s">
         <v>912</v>
       </c>
@@ -17536,7 +17534,7 @@
       <c r="J250" s="22"/>
       <c r="K250" s="41"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A251" s="37" t="s">
         <v>912</v>
       </c>
@@ -17576,7 +17574,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A252" s="37" t="s">
         <v>912</v>
       </c>
@@ -17606,7 +17604,7 @@
       <c r="J252" s="22"/>
       <c r="K252" s="41"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A253" s="37" t="s">
         <v>912</v>
       </c>
@@ -17636,7 +17634,7 @@
       <c r="J253" s="20"/>
       <c r="K253" s="40"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A254" s="37" t="s">
         <v>912</v>
       </c>
@@ -17676,7 +17674,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A255" s="37" t="s">
         <v>912</v>
       </c>
@@ -17703,7 +17701,7 @@
       <c r="J255" s="20"/>
       <c r="K255" s="40"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A256" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17734,7 +17732,7 @@
       <c r="K256" s="41"/>
       <c r="L256" s="41"/>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A257" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17767,7 +17765,7 @@
       <c r="K257" s="40"/>
       <c r="L257" s="40"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A258" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17798,7 +17796,7 @@
       <c r="K258" s="40"/>
       <c r="L258" s="40"/>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A259" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17837,7 +17835,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A260" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17868,7 +17866,7 @@
       <c r="K260" s="40"/>
       <c r="L260" s="40"/>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A261" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17899,7 +17897,7 @@
       <c r="K261" s="41"/>
       <c r="L261" s="41"/>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A262" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17930,7 +17928,7 @@
       <c r="K262" s="41"/>
       <c r="L262" s="41"/>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A263" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17970,7 +17968,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A264" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18001,7 +17999,7 @@
       <c r="K264" s="41"/>
       <c r="L264" s="41"/>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18034,7 +18032,7 @@
       <c r="K265" s="41"/>
       <c r="L265" s="41"/>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A266" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18065,7 +18063,7 @@
       <c r="K266" s="41"/>
       <c r="L266" s="41"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A267" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18100,7 +18098,7 @@
       <c r="K267" s="41"/>
       <c r="L267" s="41"/>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A268" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18131,7 +18129,7 @@
       <c r="K268" s="41"/>
       <c r="L268" s="41"/>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A269" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18162,7 +18160,7 @@
       <c r="K269" s="41"/>
       <c r="L269" s="41"/>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A270" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18193,7 +18191,7 @@
       <c r="K270" s="40"/>
       <c r="L270" s="40"/>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A271" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18233,7 +18231,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A272" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18264,7 +18262,7 @@
       <c r="K272" s="40"/>
       <c r="L272" s="40"/>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A273" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18297,7 +18295,7 @@
       <c r="K273" s="41"/>
       <c r="L273" s="41"/>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A274" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18327,7 +18325,7 @@
       <c r="K274" s="40"/>
       <c r="L274" s="40"/>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A275" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18367,7 +18365,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A276" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18398,7 +18396,7 @@
       <c r="K276" s="40"/>
       <c r="L276" s="40"/>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A277" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18438,7 +18436,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A278" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18469,7 +18467,7 @@
       <c r="K278" s="40"/>
       <c r="L278" s="40"/>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A279" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18509,7 +18507,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A280" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18540,7 +18538,7 @@
       <c r="K280" s="41"/>
       <c r="L280" s="41"/>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A281" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18571,7 +18569,7 @@
       <c r="K281" s="41"/>
       <c r="L281" s="41"/>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A282" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18611,7 +18609,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A283" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18642,7 +18640,7 @@
       <c r="K283" s="40"/>
       <c r="L283" s="41"/>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A284" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18682,7 +18680,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A285" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18713,7 +18711,7 @@
       <c r="K285" s="41"/>
       <c r="L285" s="41"/>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A286" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18753,7 +18751,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A287" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18786,7 +18784,7 @@
       <c r="K287" s="41"/>
       <c r="L287" s="41"/>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A288" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18817,7 +18815,7 @@
       <c r="K288" s="40"/>
       <c r="L288" s="40"/>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A289" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18850,7 +18848,7 @@
       <c r="K289" s="41"/>
       <c r="L289" s="41"/>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A290" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18881,7 +18879,7 @@
       <c r="K290" s="40"/>
       <c r="L290" s="40"/>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A291" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18916,7 +18914,7 @@
       <c r="K291" s="41"/>
       <c r="L291" s="41"/>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A292" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18947,7 +18945,7 @@
       <c r="K292" s="41"/>
       <c r="L292" s="40"/>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A293" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18987,7 +18985,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A294" s="37" t="s">
         <v>1037</v>
       </c>
@@ -19018,7 +19016,7 @@
       <c r="K294" s="41"/>
       <c r="L294" s="40"/>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A295" s="37" t="s">
         <v>1037</v>
       </c>
@@ -19051,7 +19049,7 @@
       <c r="K295" s="41"/>
       <c r="L295" s="41"/>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A296" s="37" t="s">
         <v>1037</v>
       </c>
@@ -19082,7 +19080,7 @@
       <c r="K296" s="41"/>
       <c r="L296" s="40"/>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A297" s="37" t="s">
         <v>1037</v>
       </c>
@@ -19110,7 +19108,7 @@
       <c r="K297" s="41"/>
       <c r="L297" s="41"/>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A298" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19141,7 +19139,7 @@
       <c r="K298" s="41"/>
       <c r="L298" s="41"/>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A299" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19174,7 +19172,7 @@
       <c r="K299" s="40"/>
       <c r="L299" s="40"/>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A300" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19205,7 +19203,7 @@
       <c r="K300" s="40"/>
       <c r="L300" s="40"/>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A301" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19236,7 +19234,7 @@
       <c r="K301" s="46"/>
       <c r="L301" s="41"/>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A302" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19276,7 +19274,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A303" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19307,7 +19305,7 @@
       <c r="K303" s="41"/>
       <c r="L303" s="41"/>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A304" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19340,7 +19338,7 @@
       <c r="K304" s="41"/>
       <c r="L304" s="41"/>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A305" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19371,7 +19369,7 @@
       <c r="K305" s="40"/>
       <c r="L305" s="40"/>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A306" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19406,7 +19404,7 @@
       <c r="K306" s="41"/>
       <c r="L306" s="41"/>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A307" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19437,7 +19435,7 @@
       <c r="K307" s="41"/>
       <c r="L307" s="41"/>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A308" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19472,7 +19470,7 @@
       <c r="K308" s="41"/>
       <c r="L308" s="41"/>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A309" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19503,7 +19501,7 @@
       <c r="K309" s="41"/>
       <c r="L309" s="41"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A310" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19543,7 +19541,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A311" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19583,7 +19581,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A312" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19614,7 +19612,7 @@
       <c r="K312" s="40"/>
       <c r="L312" s="40"/>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A313" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19647,7 +19645,7 @@
       <c r="K313" s="40"/>
       <c r="L313" s="40"/>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A314" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19678,7 +19676,7 @@
       <c r="K314" s="40"/>
       <c r="L314" s="40"/>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A315" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19713,7 +19711,7 @@
       <c r="K315" s="41"/>
       <c r="L315" s="41"/>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A316" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19744,7 +19742,7 @@
       <c r="K316" s="40"/>
       <c r="L316" s="40"/>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A317" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19779,7 +19777,7 @@
       <c r="K317" s="40"/>
       <c r="L317" s="40"/>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A318" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19812,7 +19810,7 @@
       <c r="K318" s="40"/>
       <c r="L318" s="40"/>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A319" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19852,7 +19850,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A320" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19883,7 +19881,7 @@
       <c r="K320" s="40"/>
       <c r="L320" s="40"/>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A321" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19916,7 +19914,7 @@
       <c r="K321" s="40"/>
       <c r="L321" s="40"/>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A322" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19956,7 +19954,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A323" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19987,7 +19985,7 @@
       <c r="K323" s="41"/>
       <c r="L323" s="41"/>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A324" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20020,7 +20018,7 @@
       <c r="K324" s="41"/>
       <c r="L324" s="41"/>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A325" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20051,7 +20049,7 @@
       <c r="K325" s="40"/>
       <c r="L325" s="41"/>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A326" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20084,7 +20082,7 @@
       <c r="K326" s="41"/>
       <c r="L326" s="40"/>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A327" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20115,7 +20113,7 @@
       <c r="K327" s="41"/>
       <c r="L327" s="41"/>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A328" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20148,7 +20146,7 @@
       <c r="K328" s="40"/>
       <c r="L328" s="40"/>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A329" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20181,7 +20179,7 @@
       <c r="K329" s="41"/>
       <c r="L329" s="41"/>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A330" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20212,7 +20210,7 @@
       <c r="K330" s="40"/>
       <c r="L330" s="40"/>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A331" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20252,7 +20250,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A332" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20283,7 +20281,7 @@
       <c r="K332" s="40"/>
       <c r="L332" s="40"/>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A333" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20316,7 +20314,7 @@
       <c r="K333" s="41"/>
       <c r="L333" s="41"/>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A334" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20347,7 +20345,7 @@
       <c r="K334" s="41"/>
       <c r="L334" s="40"/>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A335" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20378,7 +20376,7 @@
       <c r="K335" s="41"/>
       <c r="L335" s="41"/>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A336" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20409,7 +20407,7 @@
       <c r="K336" s="41"/>
       <c r="L336" s="40"/>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A337" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20442,7 +20440,7 @@
       <c r="K337" s="41"/>
       <c r="L337" s="41"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A338" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20473,7 +20471,7 @@
       <c r="K338" s="41"/>
       <c r="L338" s="40"/>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A339" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20504,7 +20502,7 @@
       <c r="K339" s="41"/>
       <c r="L339" s="41"/>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A340" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20537,7 +20535,7 @@
       <c r="K340" s="41"/>
       <c r="L340" s="40"/>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A341" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20568,7 +20566,7 @@
       <c r="K341" s="41"/>
       <c r="L341" s="41"/>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A342" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20599,7 +20597,7 @@
       <c r="K342" s="40"/>
       <c r="L342" s="40"/>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A343" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20630,7 +20628,7 @@
       <c r="K343" s="41"/>
       <c r="L343" s="41"/>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A344" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20670,7 +20668,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A345" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20701,7 +20699,7 @@
       <c r="K345" s="41"/>
       <c r="L345" s="41"/>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A346" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20734,7 +20732,7 @@
       <c r="K346" s="41"/>
       <c r="L346" s="41"/>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A347" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20765,7 +20763,7 @@
       <c r="K347" s="42"/>
       <c r="L347" s="42"/>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A348" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20796,7 +20794,7 @@
       <c r="K348" s="40"/>
       <c r="L348" s="40"/>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A349" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20836,7 +20834,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A350" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20867,7 +20865,7 @@
       <c r="K350" s="41"/>
       <c r="L350" s="41"/>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A351" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20898,7 +20896,7 @@
       <c r="K351" s="40"/>
       <c r="L351" s="40"/>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A352" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20938,7 +20936,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A353" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20969,7 +20967,7 @@
       <c r="K353" s="40"/>
       <c r="L353" s="40"/>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A354" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21000,7 +20998,7 @@
       <c r="K354" s="41"/>
       <c r="L354" s="41"/>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A355" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21033,7 +21031,7 @@
       <c r="K355" s="40"/>
       <c r="L355" s="40"/>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A356" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21064,7 +21062,7 @@
       <c r="K356" s="41"/>
       <c r="L356" s="41"/>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A357" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21095,7 +21093,7 @@
       <c r="K357" s="40"/>
       <c r="L357" s="40"/>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A358" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21126,7 +21124,7 @@
       <c r="K358" s="41"/>
       <c r="L358" s="41"/>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A359" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21157,7 +21155,7 @@
       <c r="K359" s="40"/>
       <c r="L359" s="40"/>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A360" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21185,13 +21183,14 @@
       <c r="K360" s="40"/>
       <c r="L360" s="40"/>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
       <c r="G361" s="16">
         <f>SUM(G2:G360)</f>
         <v>9993</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T361" xr:uid="{7482A1D5-DADB-46C2-9285-BE270A6CD978}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/R/2017_11_23_Completed_LN1_Deep (0m to 120m)_newcleaned.xlsx
+++ b/R/2017_11_23_Completed_LN1_Deep (0m to 120m)_newcleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2C131978-B970-4338-8F90-BA47D16E38BD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ED725335-399C-454C-A660-65A9BA241809}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="454" windowWidth="16660" windowHeight="15220" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="LN1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'LN1'!$A$1:$T$361</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'LN1'!$A$1:$T$362</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="1073">
   <si>
     <t>Date/Time</t>
   </si>
@@ -3192,9 +3192,6 @@
   </si>
   <si>
     <t>DIC SP.</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>Oxypora lacera</t>
@@ -4089,7 +4086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B821"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B821"/>
     </sheetView>
   </sheetViews>
@@ -9094,12 +9091,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T361"/>
+  <dimension ref="A1:T362"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="H256" sqref="H256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
@@ -9448,7 +9445,7 @@
         <v>926</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
@@ -9792,13 +9789,13 @@
         <v>936</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="M19" s="33" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -9831,13 +9828,13 @@
         <v>938</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -10066,10 +10063,10 @@
         <v>940</v>
       </c>
       <c r="L27" s="33" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="M27" s="33" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -10706,7 +10703,7 @@
         <v>954</v>
       </c>
       <c r="M46" s="33" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -10845,7 +10842,7 @@
         <v>956</v>
       </c>
       <c r="M50" s="33" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
@@ -10944,7 +10941,7 @@
         <v>957</v>
       </c>
       <c r="M53" s="48" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
@@ -11745,10 +11742,10 @@
         <v>948</v>
       </c>
       <c r="L77" s="33" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="M77" s="33" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
@@ -12414,7 +12411,7 @@
         <v>979</v>
       </c>
       <c r="K97" s="26" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="L97" s="26"/>
     </row>
@@ -13887,10 +13884,10 @@
         <v>924</v>
       </c>
       <c r="L142" s="39" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="M142" s="47" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.35">
@@ -14032,7 +14029,7 @@
         <v>957</v>
       </c>
       <c r="M146" s="48" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.35">
@@ -14103,7 +14100,7 @@
         <v>957</v>
       </c>
       <c r="M148" s="48" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.35">
@@ -14368,7 +14365,7 @@
         <v>957</v>
       </c>
       <c r="M156" s="48" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.35">
@@ -14506,13 +14503,13 @@
         <v>998</v>
       </c>
       <c r="K160" s="26" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L160" s="26" t="s">
         <v>999</v>
       </c>
       <c r="M160" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.35">
@@ -14577,13 +14574,13 @@
         <v>998</v>
       </c>
       <c r="K162" s="26" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L162" s="26" t="s">
         <v>999</v>
       </c>
       <c r="M162" s="26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.35">
@@ -14853,13 +14850,13 @@
         <v>1002</v>
       </c>
       <c r="K170" s="26" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="L170" s="26" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="M170" s="26" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.35">
@@ -15099,7 +15096,7 @@
         <v>1005</v>
       </c>
       <c r="K177" s="26" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L177" s="26" t="s">
         <v>1006</v>
@@ -15913,7 +15910,7 @@
         <v>1014</v>
       </c>
       <c r="K201" s="26" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="L201" s="26" t="s">
         <v>1015</v>
@@ -16088,7 +16085,7 @@
         <v>1017</v>
       </c>
       <c r="K206" s="26" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L206" s="26" t="s">
         <v>1018</v>
@@ -16287,7 +16284,7 @@
         <v>1019</v>
       </c>
       <c r="K212" s="26" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="L212" s="26" t="s">
         <v>1020</v>
@@ -16490,7 +16487,7 @@
         <v>954</v>
       </c>
       <c r="M218" s="26" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.35">
@@ -16561,19 +16558,16 @@
       <c r="E221" s="28">
         <v>3</v>
       </c>
-      <c r="F221" s="21">
-        <v>5007</v>
+      <c r="F221" s="28">
+        <v>5000</v>
       </c>
       <c r="G221" s="21">
         <f>F222-F221</f>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H221" s="21" t="s">
         <v>909</v>
       </c>
-      <c r="I221" s="21"/>
-      <c r="J221" s="22"/>
-      <c r="K221" s="41"/>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="37" t="s">
@@ -16592,18 +16586,18 @@
         <v>3</v>
       </c>
       <c r="F222" s="21">
-        <v>5027</v>
+        <v>5007</v>
       </c>
       <c r="G222" s="21">
-        <f t="shared" ref="G222:G254" si="4">F223-F222</f>
-        <v>8</v>
+        <f t="shared" ref="G222:G285" si="4">F223-F222</f>
+        <v>20</v>
       </c>
       <c r="H222" s="21" t="s">
         <v>55</v>
       </c>
       <c r="I222" s="21"/>
-      <c r="J222" s="23"/>
-      <c r="K222" s="40"/>
+      <c r="J222" s="22"/>
+      <c r="K222" s="41"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" s="37" t="s">
@@ -16622,17 +16616,17 @@
         <v>3</v>
       </c>
       <c r="F223" s="21">
-        <v>5035</v>
+        <v>5027</v>
       </c>
       <c r="G223" s="21">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H223" s="17" t="s">
         <v>909</v>
       </c>
-      <c r="I223" s="17"/>
-      <c r="J223" s="20"/>
+      <c r="I223" s="21"/>
+      <c r="J223" s="23"/>
       <c r="K223" s="40"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.35">
@@ -16652,28 +16646,18 @@
         <v>3</v>
       </c>
       <c r="F224" s="21">
-        <v>5044</v>
+        <v>5035</v>
       </c>
       <c r="G224" s="21">
         <f t="shared" si="4"/>
-        <v>544</v>
+        <v>9</v>
       </c>
       <c r="H224" s="21" t="s">
         <v>908</v>
       </c>
-      <c r="I224" s="21"/>
-      <c r="J224" s="21">
-        <v>230285</v>
-      </c>
-      <c r="K224" s="46" t="s">
-        <v>1059</v>
-      </c>
-      <c r="L224" s="39" t="s">
-        <v>1060</v>
-      </c>
-      <c r="M224" s="39" t="s">
-        <v>1060</v>
-      </c>
+      <c r="I224" s="17"/>
+      <c r="J224" s="20"/>
+      <c r="K224" s="40"/>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" s="37" t="s">
@@ -16692,18 +16676,28 @@
         <v>3</v>
       </c>
       <c r="F225" s="21">
-        <v>5588</v>
+        <v>5044</v>
       </c>
       <c r="G225" s="21">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>544</v>
       </c>
       <c r="H225" s="17" t="s">
         <v>909</v>
       </c>
-      <c r="I225" s="17"/>
-      <c r="J225" s="23"/>
-      <c r="K225" s="40"/>
+      <c r="I225" s="21"/>
+      <c r="J225" s="21">
+        <v>230285</v>
+      </c>
+      <c r="K225" s="46" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L225" s="39" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M225" s="39" t="s">
+        <v>1059</v>
+      </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" s="37" t="s">
@@ -16722,28 +16716,18 @@
         <v>3</v>
       </c>
       <c r="F226" s="21">
-        <v>5591</v>
+        <v>5588</v>
       </c>
       <c r="G226" s="21">
         <f t="shared" si="4"/>
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="H226" s="21" t="s">
         <v>908</v>
       </c>
-      <c r="I226" s="21"/>
-      <c r="J226" s="22">
-        <v>230293</v>
-      </c>
-      <c r="K226" s="41" t="s">
-        <v>911</v>
-      </c>
-      <c r="L226" s="39" t="s">
-        <v>967</v>
-      </c>
-      <c r="M226" s="33" t="s">
-        <v>967</v>
-      </c>
+      <c r="I226" s="17"/>
+      <c r="J226" s="23"/>
+      <c r="K226" s="40"/>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" s="37" t="s">
@@ -16762,18 +16746,28 @@
         <v>3</v>
       </c>
       <c r="F227" s="21">
-        <v>5800</v>
+        <v>5591</v>
       </c>
       <c r="G227" s="21">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="H227" s="21" t="s">
         <v>909</v>
       </c>
       <c r="I227" s="21"/>
-      <c r="J227" s="22"/>
-      <c r="K227" s="41"/>
+      <c r="J227" s="22">
+        <v>230293</v>
+      </c>
+      <c r="K227" s="41" t="s">
+        <v>911</v>
+      </c>
+      <c r="L227" s="39" t="s">
+        <v>967</v>
+      </c>
+      <c r="M227" s="33" t="s">
+        <v>967</v>
+      </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" s="37" t="s">
@@ -16792,18 +16786,18 @@
         <v>3</v>
       </c>
       <c r="F228" s="21">
-        <v>5823</v>
+        <v>5800</v>
       </c>
       <c r="G228" s="21">
         <f t="shared" si="4"/>
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="H228" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I228" s="17"/>
-      <c r="J228" s="20"/>
-      <c r="K228" s="40"/>
+      <c r="I228" s="21"/>
+      <c r="J228" s="22"/>
+      <c r="K228" s="41"/>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" s="37" t="s">
@@ -16822,18 +16816,18 @@
         <v>3</v>
       </c>
       <c r="F229" s="21">
-        <v>5960</v>
+        <v>5823</v>
       </c>
       <c r="G229" s="21">
         <f t="shared" si="4"/>
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="H229" s="21" t="s">
         <v>909</v>
       </c>
-      <c r="I229" s="21"/>
-      <c r="J229" s="22"/>
-      <c r="K229" s="41"/>
+      <c r="I229" s="17"/>
+      <c r="J229" s="20"/>
+      <c r="K229" s="40"/>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" s="37" t="s">
@@ -16852,28 +16846,18 @@
         <v>3</v>
       </c>
       <c r="F230" s="21">
-        <v>6011</v>
+        <v>5960</v>
       </c>
       <c r="G230" s="21">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="H230" s="21" t="s">
         <v>908</v>
       </c>
       <c r="I230" s="21"/>
-      <c r="J230" s="22">
-        <v>230299</v>
-      </c>
-      <c r="K230" s="41" t="s">
-        <v>933</v>
-      </c>
-      <c r="L230" s="39" t="s">
-        <v>935</v>
-      </c>
-      <c r="M230" s="33" t="s">
-        <v>935</v>
-      </c>
+      <c r="J230" s="22"/>
+      <c r="K230" s="41"/>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231" s="37" t="s">
@@ -16892,18 +16876,28 @@
         <v>3</v>
       </c>
       <c r="F231" s="21">
-        <v>6022</v>
+        <v>6011</v>
       </c>
       <c r="G231" s="21">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H231" s="21" t="s">
         <v>909</v>
       </c>
       <c r="I231" s="21"/>
-      <c r="J231" s="22"/>
-      <c r="K231" s="41"/>
+      <c r="J231" s="22">
+        <v>230299</v>
+      </c>
+      <c r="K231" s="41" t="s">
+        <v>933</v>
+      </c>
+      <c r="L231" s="39" t="s">
+        <v>935</v>
+      </c>
+      <c r="M231" s="33" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" s="37" t="s">
@@ -16922,11 +16916,11 @@
         <v>3</v>
       </c>
       <c r="F232" s="21">
-        <v>6037</v>
+        <v>6022</v>
       </c>
       <c r="G232" s="21">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H232" s="21" t="s">
         <v>55</v>
@@ -16952,11 +16946,11 @@
         <v>3</v>
       </c>
       <c r="F233" s="21">
-        <v>6057</v>
+        <v>6037</v>
       </c>
       <c r="G233" s="21">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H233" s="21" t="s">
         <v>909</v>
@@ -16982,28 +16976,18 @@
         <v>3</v>
       </c>
       <c r="F234" s="21">
-        <v>6058</v>
+        <v>6057</v>
       </c>
       <c r="G234" s="21">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="H234" s="21" t="s">
         <v>908</v>
       </c>
       <c r="I234" s="21"/>
-      <c r="J234" s="20">
-        <v>230305</v>
-      </c>
-      <c r="K234" s="41" t="s">
-        <v>911</v>
-      </c>
-      <c r="L234" s="39" t="s">
-        <v>965</v>
-      </c>
-      <c r="M234" s="33" t="s">
-        <v>965</v>
-      </c>
+      <c r="J234" s="22"/>
+      <c r="K234" s="41"/>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235" s="37" t="s">
@@ -17022,17 +17006,28 @@
         <v>3</v>
       </c>
       <c r="F235" s="21">
-        <v>6093</v>
+        <v>6058</v>
       </c>
       <c r="G235" s="21">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="H235" s="21" t="s">
         <v>909</v>
       </c>
-      <c r="I235" s="17"/>
-      <c r="K235" s="40"/>
+      <c r="I235" s="21"/>
+      <c r="J235" s="20">
+        <v>230305</v>
+      </c>
+      <c r="K235" s="41" t="s">
+        <v>911</v>
+      </c>
+      <c r="L235" s="39" t="s">
+        <v>965</v>
+      </c>
+      <c r="M235" s="33" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" s="37" t="s">
@@ -17051,17 +17046,16 @@
         <v>3</v>
       </c>
       <c r="F236" s="21">
-        <v>6097</v>
+        <v>6093</v>
       </c>
       <c r="G236" s="21">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H236" s="17" t="s">
         <v>55</v>
       </c>
       <c r="I236" s="17"/>
-      <c r="J236" s="20"/>
       <c r="K236" s="40"/>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.35">
@@ -17081,28 +17075,18 @@
         <v>3</v>
       </c>
       <c r="F237" s="21">
-        <v>6118</v>
+        <v>6097</v>
       </c>
       <c r="G237" s="21">
         <f t="shared" si="4"/>
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="H237" s="17" t="s">
         <v>908</v>
       </c>
       <c r="I237" s="17"/>
-      <c r="J237" s="20">
-        <v>230312</v>
-      </c>
-      <c r="K237" s="40" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L237" s="39" t="s">
-        <v>1015</v>
-      </c>
-      <c r="M237" s="26" t="s">
-        <v>1015</v>
-      </c>
+      <c r="J237" s="20"/>
+      <c r="K237" s="40"/>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238" s="37" t="s">
@@ -17121,18 +17105,28 @@
         <v>3</v>
       </c>
       <c r="F238" s="21">
-        <v>6189</v>
+        <v>6118</v>
       </c>
       <c r="G238" s="21">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="H238" s="21" t="s">
         <v>909</v>
       </c>
-      <c r="I238" s="21"/>
-      <c r="J238" s="22"/>
-      <c r="K238" s="41"/>
+      <c r="I238" s="17"/>
+      <c r="J238" s="20">
+        <v>230312</v>
+      </c>
+      <c r="K238" s="40" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L238" s="39" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M238" s="26" t="s">
+        <v>1015</v>
+      </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239" s="37" t="s">
@@ -17151,28 +17145,18 @@
         <v>3</v>
       </c>
       <c r="F239" s="21">
-        <v>6200</v>
+        <v>6189</v>
       </c>
       <c r="G239" s="21">
-        <f>F240-F239</f>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="H239" s="20" t="s">
         <v>908</v>
       </c>
-      <c r="I239" s="17"/>
-      <c r="J239" s="22">
-        <v>230318</v>
-      </c>
-      <c r="K239" s="40" t="s">
-        <v>911</v>
-      </c>
-      <c r="L239" s="39" t="s">
-        <v>967</v>
-      </c>
-      <c r="M239" s="33" t="s">
-        <v>967</v>
-      </c>
+      <c r="I239" s="21"/>
+      <c r="J239" s="22"/>
+      <c r="K239" s="41"/>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A240" s="37" t="s">
@@ -17191,18 +17175,28 @@
         <v>3</v>
       </c>
       <c r="F240" s="21">
-        <v>6217</v>
+        <v>6200</v>
       </c>
       <c r="G240" s="21">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H240" s="20" t="s">
         <v>909</v>
       </c>
       <c r="I240" s="17"/>
-      <c r="J240" s="22"/>
-      <c r="K240" s="40"/>
+      <c r="J240" s="22">
+        <v>230318</v>
+      </c>
+      <c r="K240" s="40" t="s">
+        <v>911</v>
+      </c>
+      <c r="L240" s="39" t="s">
+        <v>967</v>
+      </c>
+      <c r="M240" s="33" t="s">
+        <v>967</v>
+      </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A241" s="37" t="s">
@@ -17221,28 +17215,18 @@
         <v>3</v>
       </c>
       <c r="F241" s="21">
-        <v>6246</v>
+        <v>6217</v>
       </c>
       <c r="G241" s="21">
         <f t="shared" si="4"/>
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="H241" s="17" t="s">
         <v>908</v>
       </c>
       <c r="I241" s="17"/>
-      <c r="J241" s="20">
-        <v>230320</v>
-      </c>
-      <c r="K241" s="40" t="s">
-        <v>911</v>
-      </c>
-      <c r="L241" s="39" t="s">
-        <v>965</v>
-      </c>
-      <c r="M241" s="33" t="s">
-        <v>965</v>
-      </c>
+      <c r="J241" s="22"/>
+      <c r="K241" s="40"/>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A242" s="37" t="s">
@@ -17261,18 +17245,28 @@
         <v>3</v>
       </c>
       <c r="F242" s="21">
-        <v>6449</v>
+        <v>6246</v>
       </c>
       <c r="G242" s="21">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="H242" s="17" t="s">
         <v>909</v>
       </c>
       <c r="I242" s="17"/>
-      <c r="J242" s="20"/>
-      <c r="K242" s="40"/>
+      <c r="J242" s="20">
+        <v>230320</v>
+      </c>
+      <c r="K242" s="40" t="s">
+        <v>911</v>
+      </c>
+      <c r="L242" s="39" t="s">
+        <v>965</v>
+      </c>
+      <c r="M242" s="33" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A243" s="37" t="s">
@@ -17291,11 +17285,11 @@
         <v>3</v>
       </c>
       <c r="F243" s="21">
-        <v>6466</v>
+        <v>6449</v>
       </c>
       <c r="G243" s="21">
         <f t="shared" si="4"/>
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H243" s="17" t="s">
         <v>55</v>
@@ -17321,11 +17315,11 @@
         <v>3</v>
       </c>
       <c r="F244" s="21">
-        <v>6567</v>
+        <v>6466</v>
       </c>
       <c r="G244" s="21">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="H244" s="17" t="s">
         <v>909</v>
@@ -17351,28 +17345,18 @@
         <v>3</v>
       </c>
       <c r="F245" s="21">
-        <v>6570</v>
+        <v>6567</v>
       </c>
       <c r="G245" s="21">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H245" s="21" t="s">
         <v>908</v>
       </c>
-      <c r="I245" s="21"/>
-      <c r="J245" s="22">
-        <v>230329</v>
-      </c>
-      <c r="K245" s="41" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L245" s="39" t="s">
-        <v>937</v>
-      </c>
-      <c r="M245" s="39" t="s">
-        <v>937</v>
-      </c>
+      <c r="I245" s="17"/>
+      <c r="J245" s="20"/>
+      <c r="K245" s="40"/>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A246" s="37" t="s">
@@ -17391,18 +17375,28 @@
         <v>3</v>
       </c>
       <c r="F246" s="21">
-        <v>6578</v>
+        <v>6570</v>
       </c>
       <c r="G246" s="21">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H246" s="21" t="s">
         <v>53</v>
       </c>
       <c r="I246" s="21"/>
-      <c r="J246" s="22"/>
-      <c r="K246" s="41"/>
+      <c r="J246" s="22">
+        <v>230329</v>
+      </c>
+      <c r="K246" s="41" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L246" s="39" t="s">
+        <v>937</v>
+      </c>
+      <c r="M246" s="39" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A247" s="37" t="s">
@@ -17421,28 +17415,18 @@
         <v>3</v>
       </c>
       <c r="F247" s="21">
-        <v>6600</v>
+        <v>6578</v>
       </c>
       <c r="G247" s="21">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H247" s="21" t="s">
         <v>908</v>
       </c>
       <c r="I247" s="21"/>
-      <c r="J247" s="22">
-        <v>230330</v>
-      </c>
-      <c r="K247" s="41" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L247" s="39" t="s">
-        <v>937</v>
-      </c>
-      <c r="M247" s="39" t="s">
-        <v>937</v>
-      </c>
+      <c r="J247" s="22"/>
+      <c r="K247" s="41"/>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A248" s="37" t="s">
@@ -17461,18 +17445,28 @@
         <v>3</v>
       </c>
       <c r="F248" s="21">
-        <v>6620</v>
+        <v>6600</v>
       </c>
       <c r="G248" s="21">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H248" s="17" t="s">
         <v>909</v>
       </c>
-      <c r="I248" s="17"/>
-      <c r="J248" s="20"/>
-      <c r="K248" s="40"/>
+      <c r="I248" s="21"/>
+      <c r="J248" s="22">
+        <v>230330</v>
+      </c>
+      <c r="K248" s="41" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L248" s="39" t="s">
+        <v>937</v>
+      </c>
+      <c r="M248" s="39" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A249" s="37" t="s">
@@ -17491,18 +17485,18 @@
         <v>3</v>
       </c>
       <c r="F249" s="21">
-        <v>6629</v>
+        <v>6620</v>
       </c>
       <c r="G249" s="21">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H249" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I249" s="21"/>
-      <c r="J249" s="22"/>
-      <c r="K249" s="41"/>
+      <c r="I249" s="17"/>
+      <c r="J249" s="20"/>
+      <c r="K249" s="40"/>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A250" s="37" t="s">
@@ -17521,11 +17515,11 @@
         <v>3</v>
       </c>
       <c r="F250" s="21">
-        <v>6647</v>
+        <v>6629</v>
       </c>
       <c r="G250" s="21">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H250" s="21" t="s">
         <v>909</v>
@@ -17551,28 +17545,18 @@
         <v>3</v>
       </c>
       <c r="F251" s="21">
-        <v>6660</v>
+        <v>6647</v>
       </c>
       <c r="G251" s="21">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H251" s="17" t="s">
         <v>908</v>
       </c>
-      <c r="I251" s="17"/>
-      <c r="J251" s="20">
-        <v>230335</v>
-      </c>
-      <c r="K251" s="40" t="s">
-        <v>915</v>
-      </c>
-      <c r="L251" s="39" t="s">
-        <v>922</v>
-      </c>
-      <c r="M251" s="33" t="s">
-        <v>922</v>
-      </c>
+      <c r="I251" s="21"/>
+      <c r="J251" s="22"/>
+      <c r="K251" s="41"/>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A252" s="37" t="s">
@@ -17591,18 +17575,28 @@
         <v>3</v>
       </c>
       <c r="F252" s="21">
-        <v>6696</v>
+        <v>6660</v>
       </c>
       <c r="G252" s="21">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H252" s="21" t="s">
         <v>909</v>
       </c>
-      <c r="I252" s="21"/>
-      <c r="J252" s="22"/>
-      <c r="K252" s="41"/>
+      <c r="I252" s="17"/>
+      <c r="J252" s="20">
+        <v>230335</v>
+      </c>
+      <c r="K252" s="40" t="s">
+        <v>915</v>
+      </c>
+      <c r="L252" s="39" t="s">
+        <v>922</v>
+      </c>
+      <c r="M252" s="33" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A253" s="37" t="s">
@@ -17621,18 +17615,18 @@
         <v>3</v>
       </c>
       <c r="F253" s="21">
-        <v>6707</v>
+        <v>6696</v>
       </c>
       <c r="G253" s="21">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H253" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I253" s="17"/>
-      <c r="J253" s="20"/>
-      <c r="K253" s="40"/>
+      <c r="I253" s="21"/>
+      <c r="J253" s="22"/>
+      <c r="K253" s="41"/>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A254" s="37" t="s">
@@ -17651,28 +17645,18 @@
         <v>3</v>
       </c>
       <c r="F254" s="21">
-        <v>6724</v>
+        <v>6707</v>
       </c>
       <c r="G254" s="21">
         <f t="shared" si="4"/>
-        <v>276</v>
+        <v>17</v>
       </c>
       <c r="H254" s="21" t="s">
         <v>908</v>
       </c>
-      <c r="I254" s="21"/>
-      <c r="J254" s="22">
-        <v>230342</v>
-      </c>
-      <c r="K254" s="41" t="s">
-        <v>911</v>
-      </c>
-      <c r="L254" s="39" t="s">
-        <v>965</v>
-      </c>
-      <c r="M254" s="33" t="s">
-        <v>965</v>
-      </c>
+      <c r="I254" s="17"/>
+      <c r="J254" s="20"/>
+      <c r="K254" s="40"/>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A255" s="37" t="s">
@@ -17690,20 +17674,33 @@
       <c r="E255" s="28">
         <v>3</v>
       </c>
-      <c r="F255" s="38">
-        <v>7000</v>
-      </c>
-      <c r="G255" s="21"/>
+      <c r="F255" s="21">
+        <v>6724</v>
+      </c>
+      <c r="G255" s="21">
+        <f t="shared" si="4"/>
+        <v>276</v>
+      </c>
       <c r="H255" s="17" t="s">
         <v>909</v>
       </c>
-      <c r="I255" s="17"/>
-      <c r="J255" s="20"/>
-      <c r="K255" s="40"/>
+      <c r="I255" s="21"/>
+      <c r="J255" s="22">
+        <v>230342</v>
+      </c>
+      <c r="K255" s="41" t="s">
+        <v>911</v>
+      </c>
+      <c r="L255" s="39" t="s">
+        <v>965</v>
+      </c>
+      <c r="M255" s="33" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A256" s="37" t="s">
-        <v>1037</v>
+        <v>912</v>
       </c>
       <c r="B256" s="21" t="s">
         <v>910</v>
@@ -17712,25 +17709,19 @@
         <v>907</v>
       </c>
       <c r="D256" s="21" t="s">
-        <v>1021</v>
+        <v>913</v>
       </c>
       <c r="E256" s="28">
-        <v>4</v>
-      </c>
-      <c r="F256" s="21">
-        <v>7500</v>
-      </c>
-      <c r="G256" s="21">
-        <f>F257-F256</f>
-        <v>48</v>
-      </c>
-      <c r="H256" s="21" t="s">
-        <v>909</v>
-      </c>
-      <c r="I256" s="21"/>
-      <c r="J256" s="22"/>
-      <c r="K256" s="41"/>
-      <c r="L256" s="41"/>
+        <v>3</v>
+      </c>
+      <c r="F256" s="38">
+        <v>7000</v>
+      </c>
+      <c r="G256" s="21"/>
+      <c r="H256" s="21"/>
+      <c r="I256" s="17"/>
+      <c r="J256" s="20"/>
+      <c r="K256" s="40"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A257" s="37" t="s">
@@ -17749,21 +17740,19 @@
         <v>4</v>
       </c>
       <c r="F257" s="21">
-        <v>7548</v>
+        <v>7500</v>
       </c>
       <c r="G257" s="21">
-        <f t="shared" ref="G257:G296" si="5">F258-F257</f>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>48</v>
       </c>
       <c r="H257" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I257" s="21" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J257" s="23"/>
-      <c r="K257" s="40"/>
-      <c r="L257" s="40"/>
+      <c r="I257" s="21"/>
+      <c r="J257" s="22"/>
+      <c r="K257" s="41"/>
+      <c r="L257" s="41"/>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A258" s="37" t="s">
@@ -17782,17 +17771,19 @@
         <v>4</v>
       </c>
       <c r="F258" s="21">
-        <v>7552</v>
+        <v>7548</v>
       </c>
       <c r="G258" s="21">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H258" s="17" t="s">
         <v>909</v>
       </c>
-      <c r="I258" s="17"/>
-      <c r="J258" s="20"/>
+      <c r="I258" s="21" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J258" s="23"/>
       <c r="K258" s="40"/>
       <c r="L258" s="40"/>
     </row>
@@ -17813,27 +17804,19 @@
         <v>4</v>
       </c>
       <c r="F259" s="21">
-        <v>7565</v>
+        <v>7552</v>
       </c>
       <c r="G259" s="21">
-        <f t="shared" si="5"/>
-        <v>37</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="H259" s="21" t="s">
         <v>908</v>
       </c>
-      <c r="J259" s="21">
-        <v>1869</v>
-      </c>
-      <c r="K259" s="46" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L259" s="41" t="s">
-        <v>1062</v>
-      </c>
-      <c r="M259" s="41" t="s">
-        <v>1062</v>
-      </c>
+      <c r="I259" s="17"/>
+      <c r="J259" s="20"/>
+      <c r="K259" s="40"/>
+      <c r="L259" s="40"/>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A260" s="37" t="s">
@@ -17852,19 +17835,27 @@
         <v>4</v>
       </c>
       <c r="F260" s="21">
-        <v>7602</v>
+        <v>7565</v>
       </c>
       <c r="G260" s="21">
-        <f t="shared" si="5"/>
-        <v>420</v>
+        <f t="shared" si="4"/>
+        <v>37</v>
       </c>
       <c r="H260" s="17" t="s">
         <v>909</v>
       </c>
-      <c r="I260" s="17"/>
-      <c r="J260" s="23"/>
-      <c r="K260" s="40"/>
-      <c r="L260" s="40"/>
+      <c r="J260" s="21">
+        <v>1869</v>
+      </c>
+      <c r="K260" s="46" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L260" s="41" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M260" s="41" t="s">
+        <v>1061</v>
+      </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A261" s="37" t="s">
@@ -17883,19 +17874,19 @@
         <v>4</v>
       </c>
       <c r="F261" s="21">
-        <v>8022</v>
+        <v>7602</v>
       </c>
       <c r="G261" s="21">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="H261" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I261" s="21"/>
-      <c r="J261" s="22"/>
-      <c r="K261" s="41"/>
-      <c r="L261" s="41"/>
+      <c r="I261" s="17"/>
+      <c r="J261" s="23"/>
+      <c r="K261" s="40"/>
+      <c r="L261" s="40"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A262" s="37" t="s">
@@ -17914,11 +17905,11 @@
         <v>4</v>
       </c>
       <c r="F262" s="21">
-        <v>8033</v>
+        <v>8022</v>
       </c>
       <c r="G262" s="21">
-        <f t="shared" si="5"/>
-        <v>47</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="H262" s="21" t="s">
         <v>909</v>
@@ -17945,28 +17936,19 @@
         <v>4</v>
       </c>
       <c r="F263" s="21">
-        <v>8080</v>
+        <v>8033</v>
       </c>
       <c r="G263" s="21">
-        <f t="shared" si="5"/>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>47</v>
       </c>
       <c r="H263" s="17" t="s">
         <v>908</v>
       </c>
-      <c r="I263" s="17"/>
-      <c r="J263" s="20" t="s">
-        <v>1024</v>
-      </c>
-      <c r="K263" s="40" t="s">
-        <v>948</v>
-      </c>
-      <c r="L263" s="40" t="s">
-        <v>950</v>
-      </c>
-      <c r="M263" s="33" t="s">
-        <v>950</v>
-      </c>
+      <c r="I263" s="21"/>
+      <c r="J263" s="22"/>
+      <c r="K263" s="41"/>
+      <c r="L263" s="41"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A264" s="37" t="s">
@@ -17985,19 +17967,28 @@
         <v>4</v>
       </c>
       <c r="F264" s="21">
-        <v>8110</v>
+        <v>8080</v>
       </c>
       <c r="G264" s="21">
-        <f t="shared" si="5"/>
-        <v>92</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="H264" s="21" t="s">
         <v>909</v>
       </c>
-      <c r="I264" s="21"/>
-      <c r="J264" s="22"/>
-      <c r="K264" s="41"/>
-      <c r="L264" s="41"/>
+      <c r="I264" s="17"/>
+      <c r="J264" s="20" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K264" s="40" t="s">
+        <v>948</v>
+      </c>
+      <c r="L264" s="40" t="s">
+        <v>950</v>
+      </c>
+      <c r="M264" s="33" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265" s="37" t="s">
@@ -18016,19 +18007,17 @@
         <v>4</v>
       </c>
       <c r="F265" s="21">
-        <v>8202</v>
+        <v>8110</v>
       </c>
       <c r="G265" s="21">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>92</v>
       </c>
       <c r="H265" s="21" t="s">
         <v>55</v>
       </c>
       <c r="I265" s="21"/>
-      <c r="J265" s="22" t="s">
-        <v>1025</v>
-      </c>
+      <c r="J265" s="22"/>
       <c r="K265" s="41"/>
       <c r="L265" s="41"/>
     </row>
@@ -18049,17 +18038,19 @@
         <v>4</v>
       </c>
       <c r="F266" s="21">
-        <v>8211</v>
+        <v>8202</v>
       </c>
       <c r="G266" s="21">
-        <f t="shared" si="5"/>
-        <v>38</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="H266" s="21" t="s">
         <v>909</v>
       </c>
       <c r="I266" s="21"/>
-      <c r="J266" s="22"/>
+      <c r="J266" s="22" t="s">
+        <v>1025</v>
+      </c>
       <c r="K266" s="41"/>
       <c r="L266" s="41"/>
     </row>
@@ -18080,21 +18071,17 @@
         <v>4</v>
       </c>
       <c r="F267" s="21">
-        <v>8249</v>
+        <v>8211</v>
       </c>
       <c r="G267" s="21">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>38</v>
       </c>
       <c r="H267" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I267" s="21" t="s">
-        <v>1026</v>
-      </c>
-      <c r="J267" s="22">
-        <v>1876</v>
-      </c>
+      <c r="I267" s="21"/>
+      <c r="J267" s="22"/>
       <c r="K267" s="41"/>
       <c r="L267" s="41"/>
     </row>
@@ -18115,17 +18102,21 @@
         <v>4</v>
       </c>
       <c r="F268" s="21">
-        <v>8253</v>
+        <v>8249</v>
       </c>
       <c r="G268" s="21">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="H268" s="21" t="s">
         <v>909</v>
       </c>
-      <c r="I268" s="21"/>
-      <c r="J268" s="22"/>
+      <c r="I268" s="21" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J268" s="22">
+        <v>1876</v>
+      </c>
       <c r="K268" s="41"/>
       <c r="L268" s="41"/>
     </row>
@@ -18146,11 +18137,11 @@
         <v>4</v>
       </c>
       <c r="F269" s="21">
-        <v>8265</v>
+        <v>8253</v>
       </c>
       <c r="G269" s="21">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="H269" s="21" t="s">
         <v>55</v>
@@ -18177,19 +18168,19 @@
         <v>4</v>
       </c>
       <c r="F270" s="21">
-        <v>8270</v>
+        <v>8265</v>
       </c>
       <c r="G270" s="21">
-        <f t="shared" si="5"/>
-        <v>52</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="H270" s="21" t="s">
         <v>909</v>
       </c>
-      <c r="I270" s="17"/>
-      <c r="J270" s="20"/>
-      <c r="K270" s="40"/>
-      <c r="L270" s="40"/>
+      <c r="I270" s="21"/>
+      <c r="J270" s="22"/>
+      <c r="K270" s="41"/>
+      <c r="L270" s="41"/>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A271" s="37" t="s">
@@ -18208,28 +18199,19 @@
         <v>4</v>
       </c>
       <c r="F271" s="21">
-        <v>8322</v>
+        <v>8270</v>
       </c>
       <c r="G271" s="21">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>52</v>
       </c>
       <c r="H271" s="17" t="s">
         <v>908</v>
       </c>
       <c r="I271" s="17"/>
-      <c r="J271" s="20" t="s">
-        <v>1027</v>
-      </c>
-      <c r="K271" s="40" t="s">
-        <v>911</v>
-      </c>
-      <c r="L271" s="40" t="s">
-        <v>965</v>
-      </c>
-      <c r="M271" s="33" t="s">
-        <v>965</v>
-      </c>
+      <c r="J271" s="20"/>
+      <c r="K271" s="40"/>
+      <c r="L271" s="40"/>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A272" s="37" t="s">
@@ -18248,19 +18230,28 @@
         <v>4</v>
       </c>
       <c r="F272" s="21">
-        <v>8335</v>
+        <v>8322</v>
       </c>
       <c r="G272" s="21">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="H272" s="17" t="s">
         <v>909</v>
       </c>
       <c r="I272" s="17"/>
-      <c r="J272" s="20"/>
-      <c r="K272" s="40"/>
-      <c r="L272" s="40"/>
+      <c r="J272" s="20" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K272" s="40" t="s">
+        <v>911</v>
+      </c>
+      <c r="L272" s="40" t="s">
+        <v>965</v>
+      </c>
+      <c r="M272" s="33" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A273" s="37" t="s">
@@ -18279,21 +18270,19 @@
         <v>4</v>
       </c>
       <c r="F273" s="21">
-        <v>8350</v>
+        <v>8335</v>
       </c>
       <c r="G273" s="21">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="H273" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I273" s="21"/>
-      <c r="J273" s="22">
-        <v>1879</v>
-      </c>
-      <c r="K273" s="41"/>
-      <c r="L273" s="41"/>
+      <c r="I273" s="17"/>
+      <c r="J273" s="20"/>
+      <c r="K273" s="40"/>
+      <c r="L273" s="40"/>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A274" s="37" t="s">
@@ -18312,18 +18301,21 @@
         <v>4</v>
       </c>
       <c r="F274" s="21">
-        <v>8367</v>
+        <v>8350</v>
       </c>
       <c r="G274" s="21">
-        <f t="shared" si="5"/>
-        <v>78</v>
+        <f t="shared" si="4"/>
+        <v>17</v>
       </c>
       <c r="H274" s="20" t="s">
         <v>909</v>
       </c>
-      <c r="I274" s="17"/>
-      <c r="K274" s="40"/>
-      <c r="L274" s="40"/>
+      <c r="I274" s="21"/>
+      <c r="J274" s="22">
+        <v>1879</v>
+      </c>
+      <c r="K274" s="41"/>
+      <c r="L274" s="41"/>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A275" s="37" t="s">
@@ -18342,28 +18334,18 @@
         <v>4</v>
       </c>
       <c r="F275" s="21">
-        <v>8445</v>
+        <v>8367</v>
       </c>
       <c r="G275" s="21">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>78</v>
       </c>
       <c r="H275" s="20" t="s">
         <v>908</v>
       </c>
       <c r="I275" s="17"/>
-      <c r="J275" s="19">
-        <v>1880</v>
-      </c>
-      <c r="K275" s="40" t="s">
-        <v>943</v>
-      </c>
-      <c r="L275" s="40" t="s">
-        <v>945</v>
-      </c>
-      <c r="M275" s="34" t="s">
-        <v>945</v>
-      </c>
+      <c r="K275" s="40"/>
+      <c r="L275" s="40"/>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A276" s="37" t="s">
@@ -18382,19 +18364,28 @@
         <v>4</v>
       </c>
       <c r="F276" s="21">
-        <v>8457</v>
+        <v>8445</v>
       </c>
       <c r="G276" s="21">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="H276" s="17" t="s">
         <v>909</v>
       </c>
       <c r="I276" s="17"/>
-      <c r="J276" s="20"/>
-      <c r="K276" s="40"/>
-      <c r="L276" s="40"/>
+      <c r="J276" s="19">
+        <v>1880</v>
+      </c>
+      <c r="K276" s="40" t="s">
+        <v>943</v>
+      </c>
+      <c r="L276" s="40" t="s">
+        <v>945</v>
+      </c>
+      <c r="M276" s="34" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A277" s="37" t="s">
@@ -18413,28 +18404,19 @@
         <v>4</v>
       </c>
       <c r="F277" s="21">
-        <v>8462</v>
+        <v>8457</v>
       </c>
       <c r="G277" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H277" s="17" t="s">
         <v>908</v>
       </c>
       <c r="I277" s="17"/>
-      <c r="J277" s="20">
-        <v>1881</v>
-      </c>
-      <c r="K277" s="40" t="s">
-        <v>943</v>
-      </c>
-      <c r="L277" s="40" t="s">
-        <v>945</v>
-      </c>
-      <c r="M277" s="34" t="s">
-        <v>945</v>
-      </c>
+      <c r="J277" s="20"/>
+      <c r="K277" s="40"/>
+      <c r="L277" s="40"/>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A278" s="37" t="s">
@@ -18453,19 +18435,28 @@
         <v>4</v>
       </c>
       <c r="F278" s="21">
-        <v>8467</v>
+        <v>8462</v>
       </c>
       <c r="G278" s="21">
-        <f t="shared" si="5"/>
-        <v>41</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="H278" s="17" t="s">
         <v>909</v>
       </c>
       <c r="I278" s="17"/>
-      <c r="J278" s="20"/>
-      <c r="K278" s="40"/>
-      <c r="L278" s="40"/>
+      <c r="J278" s="20">
+        <v>1881</v>
+      </c>
+      <c r="K278" s="40" t="s">
+        <v>943</v>
+      </c>
+      <c r="L278" s="40" t="s">
+        <v>945</v>
+      </c>
+      <c r="M278" s="34" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A279" s="37" t="s">
@@ -18484,28 +18475,19 @@
         <v>4</v>
       </c>
       <c r="F279" s="21">
-        <v>8508</v>
+        <v>8467</v>
       </c>
       <c r="G279" s="21">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>41</v>
       </c>
       <c r="H279" s="17" t="s">
         <v>908</v>
       </c>
       <c r="I279" s="17"/>
-      <c r="J279" s="20" t="s">
-        <v>1028</v>
-      </c>
-      <c r="K279" s="40" t="s">
-        <v>1029</v>
-      </c>
-      <c r="L279" s="40" t="s">
-        <v>1063</v>
-      </c>
-      <c r="M279" s="40" t="s">
-        <v>1063</v>
-      </c>
+      <c r="J279" s="20"/>
+      <c r="K279" s="40"/>
+      <c r="L279" s="40"/>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A280" s="37" t="s">
@@ -18524,19 +18506,28 @@
         <v>4</v>
       </c>
       <c r="F280" s="21">
-        <v>8511</v>
+        <v>8508</v>
       </c>
       <c r="G280" s="21">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="H280" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I280" s="21"/>
-      <c r="J280" s="22"/>
-      <c r="K280" s="41"/>
-      <c r="L280" s="41"/>
+      <c r="I280" s="17"/>
+      <c r="J280" s="20" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K280" s="40" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L280" s="40" t="s">
+        <v>1062</v>
+      </c>
+      <c r="M280" s="40" t="s">
+        <v>1062</v>
+      </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A281" s="37" t="s">
@@ -18555,11 +18546,11 @@
         <v>4</v>
       </c>
       <c r="F281" s="21">
-        <v>8521</v>
+        <v>8511</v>
       </c>
       <c r="G281" s="21">
-        <f t="shared" si="5"/>
-        <v>330</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="H281" s="21" t="s">
         <v>909</v>
@@ -18586,28 +18577,19 @@
         <v>4</v>
       </c>
       <c r="F282" s="21">
-        <v>8851</v>
+        <v>8521</v>
       </c>
       <c r="G282" s="21">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>330</v>
       </c>
       <c r="H282" s="21" t="s">
         <v>908</v>
       </c>
       <c r="I282" s="21"/>
-      <c r="J282" s="22" t="s">
-        <v>1030</v>
-      </c>
-      <c r="K282" s="41" t="s">
-        <v>1031</v>
-      </c>
-      <c r="L282" s="41" t="s">
-        <v>1064</v>
-      </c>
-      <c r="M282" s="39" t="s">
-        <v>1071</v>
-      </c>
+      <c r="J282" s="22"/>
+      <c r="K282" s="41"/>
+      <c r="L282" s="41"/>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A283" s="37" t="s">
@@ -18626,19 +18608,28 @@
         <v>4</v>
       </c>
       <c r="F283" s="21">
-        <v>8853</v>
+        <v>8851</v>
       </c>
       <c r="G283" s="21">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H283" s="17" t="s">
         <v>909</v>
       </c>
-      <c r="I283" s="17"/>
-      <c r="J283" s="20"/>
-      <c r="K283" s="40"/>
-      <c r="L283" s="41"/>
+      <c r="I283" s="21"/>
+      <c r="J283" s="22" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K283" s="41" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L283" s="41" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M283" s="39" t="s">
+        <v>1070</v>
+      </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A284" s="37" t="s">
@@ -18657,28 +18648,19 @@
         <v>4</v>
       </c>
       <c r="F284" s="21">
-        <v>8866</v>
+        <v>8853</v>
       </c>
       <c r="G284" s="21">
-        <f t="shared" si="5"/>
-        <v>148</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="H284" s="21" t="s">
         <v>908</v>
       </c>
-      <c r="I284" s="21"/>
-      <c r="J284" s="22">
-        <v>1887</v>
-      </c>
-      <c r="K284" s="41" t="s">
-        <v>911</v>
-      </c>
-      <c r="L284" s="40" t="s">
-        <v>965</v>
-      </c>
-      <c r="M284" s="33" t="s">
-        <v>965</v>
-      </c>
+      <c r="I284" s="17"/>
+      <c r="J284" s="20"/>
+      <c r="K284" s="40"/>
+      <c r="L284" s="41"/>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A285" s="37" t="s">
@@ -18697,19 +18679,28 @@
         <v>4</v>
       </c>
       <c r="F285" s="21">
-        <v>9014</v>
+        <v>8866</v>
       </c>
       <c r="G285" s="21">
-        <f t="shared" si="5"/>
-        <v>37</v>
+        <f t="shared" si="4"/>
+        <v>148</v>
       </c>
       <c r="H285" s="21" t="s">
         <v>909</v>
       </c>
       <c r="I285" s="21"/>
-      <c r="J285" s="22"/>
-      <c r="K285" s="41"/>
-      <c r="L285" s="41"/>
+      <c r="J285" s="22">
+        <v>1887</v>
+      </c>
+      <c r="K285" s="41" t="s">
+        <v>911</v>
+      </c>
+      <c r="L285" s="40" t="s">
+        <v>965</v>
+      </c>
+      <c r="M285" s="33" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A286" s="37" t="s">
@@ -18728,28 +18719,19 @@
         <v>4</v>
       </c>
       <c r="F286" s="21">
-        <v>9051</v>
+        <v>9014</v>
       </c>
       <c r="G286" s="21">
-        <f t="shared" si="5"/>
-        <v>59</v>
+        <f t="shared" ref="G286:G297" si="5">F287-F286</f>
+        <v>37</v>
       </c>
       <c r="H286" s="17" t="s">
         <v>908</v>
       </c>
-      <c r="I286" s="17"/>
-      <c r="J286" s="20" t="s">
-        <v>1032</v>
-      </c>
-      <c r="K286" s="40" t="s">
-        <v>943</v>
-      </c>
-      <c r="L286" s="40" t="s">
-        <v>945</v>
-      </c>
-      <c r="M286" s="34" t="s">
-        <v>945</v>
-      </c>
+      <c r="I286" s="21"/>
+      <c r="J286" s="22"/>
+      <c r="K286" s="41"/>
+      <c r="L286" s="41"/>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A287" s="37" t="s">
@@ -18768,21 +18750,28 @@
         <v>4</v>
       </c>
       <c r="F287" s="21">
-        <v>9110</v>
+        <v>9051</v>
       </c>
       <c r="G287" s="21">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="H287" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I287" s="21"/>
-      <c r="J287" s="22">
-        <v>1892</v>
-      </c>
-      <c r="K287" s="41"/>
-      <c r="L287" s="41"/>
+      <c r="I287" s="17"/>
+      <c r="J287" s="20" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K287" s="40" t="s">
+        <v>943</v>
+      </c>
+      <c r="L287" s="40" t="s">
+        <v>945</v>
+      </c>
+      <c r="M287" s="34" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A288" s="37" t="s">
@@ -18801,19 +18790,21 @@
         <v>4</v>
       </c>
       <c r="F288" s="21">
-        <v>9118</v>
+        <v>9110</v>
       </c>
       <c r="G288" s="21">
         <f t="shared" si="5"/>
-        <v>214</v>
+        <v>8</v>
       </c>
       <c r="H288" s="17" t="s">
         <v>909</v>
       </c>
-      <c r="I288" s="17"/>
-      <c r="J288" s="20"/>
-      <c r="K288" s="40"/>
-      <c r="L288" s="40"/>
+      <c r="I288" s="21"/>
+      <c r="J288" s="22">
+        <v>1892</v>
+      </c>
+      <c r="K288" s="41"/>
+      <c r="L288" s="41"/>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A289" s="37" t="s">
@@ -18832,21 +18823,19 @@
         <v>4</v>
       </c>
       <c r="F289" s="21">
-        <v>9332</v>
+        <v>9118</v>
       </c>
       <c r="G289" s="21">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>214</v>
       </c>
       <c r="H289" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I289" s="21" t="s">
-        <v>1033</v>
-      </c>
-      <c r="J289" s="22"/>
-      <c r="K289" s="41"/>
-      <c r="L289" s="41"/>
+      <c r="I289" s="17"/>
+      <c r="J289" s="20"/>
+      <c r="K289" s="40"/>
+      <c r="L289" s="40"/>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A290" s="37" t="s">
@@ -18865,19 +18854,21 @@
         <v>4</v>
       </c>
       <c r="F290" s="21">
-        <v>9334</v>
+        <v>9332</v>
       </c>
       <c r="G290" s="21">
-        <f>F291-F290</f>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="H290" s="17" t="s">
         <v>909</v>
       </c>
-      <c r="I290" s="17"/>
-      <c r="J290" s="20"/>
-      <c r="K290" s="40"/>
-      <c r="L290" s="40"/>
+      <c r="I290" s="21" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J290" s="22"/>
+      <c r="K290" s="41"/>
+      <c r="L290" s="41"/>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A291" s="37" t="s">
@@ -18896,23 +18887,19 @@
         <v>4</v>
       </c>
       <c r="F291" s="21">
-        <v>9346</v>
+        <v>9334</v>
       </c>
       <c r="G291" s="21">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H291" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I291" s="21" t="s">
-        <v>1034</v>
-      </c>
-      <c r="J291" s="22" t="s">
-        <v>1035</v>
-      </c>
-      <c r="K291" s="41"/>
-      <c r="L291" s="41"/>
+      <c r="I291" s="17"/>
+      <c r="J291" s="20"/>
+      <c r="K291" s="40"/>
+      <c r="L291" s="40"/>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A292" s="37" t="s">
@@ -18931,19 +18918,23 @@
         <v>4</v>
       </c>
       <c r="F292" s="21">
-        <v>9353</v>
+        <v>9346</v>
       </c>
       <c r="G292" s="21">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H292" s="21" t="s">
         <v>909</v>
       </c>
-      <c r="I292" s="21"/>
-      <c r="J292" s="22"/>
+      <c r="I292" s="21" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J292" s="22" t="s">
+        <v>1035</v>
+      </c>
       <c r="K292" s="41"/>
-      <c r="L292" s="40"/>
+      <c r="L292" s="41"/>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A293" s="37" t="s">
@@ -18962,28 +18953,19 @@
         <v>4</v>
       </c>
       <c r="F293" s="21">
-        <v>9367</v>
+        <v>9353</v>
       </c>
       <c r="G293" s="21">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H293" s="21" t="s">
         <v>908</v>
       </c>
       <c r="I293" s="21"/>
-      <c r="J293" s="22">
-        <v>1895</v>
-      </c>
-      <c r="K293" s="41" t="s">
-        <v>953</v>
-      </c>
-      <c r="L293" s="41" t="s">
-        <v>954</v>
-      </c>
-      <c r="M293" s="41" t="s">
-        <v>1073</v>
-      </c>
+      <c r="J293" s="22"/>
+      <c r="K293" s="41"/>
+      <c r="L293" s="40"/>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A294" s="37" t="s">
@@ -19002,19 +18984,28 @@
         <v>4</v>
       </c>
       <c r="F294" s="21">
-        <v>9369</v>
+        <v>9367</v>
       </c>
       <c r="G294" s="21">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="H294" s="21" t="s">
         <v>909</v>
       </c>
       <c r="I294" s="21"/>
-      <c r="J294" s="22"/>
-      <c r="K294" s="41"/>
-      <c r="L294" s="40"/>
+      <c r="J294" s="22">
+        <v>1895</v>
+      </c>
+      <c r="K294" s="41" t="s">
+        <v>953</v>
+      </c>
+      <c r="L294" s="41" t="s">
+        <v>954</v>
+      </c>
+      <c r="M294" s="41" t="s">
+        <v>1072</v>
+      </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A295" s="37" t="s">
@@ -19033,21 +19024,19 @@
         <v>4</v>
       </c>
       <c r="F295" s="21">
-        <v>9404</v>
+        <v>9369</v>
       </c>
       <c r="G295" s="21">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H295" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I295" s="21" t="s">
-        <v>1036</v>
-      </c>
+      <c r="I295" s="21"/>
       <c r="J295" s="22"/>
       <c r="K295" s="41"/>
-      <c r="L295" s="41"/>
+      <c r="L295" s="40"/>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A296" s="37" t="s">
@@ -19066,19 +19055,21 @@
         <v>4</v>
       </c>
       <c r="F296" s="21">
-        <v>9412</v>
+        <v>9404</v>
       </c>
       <c r="G296" s="21">
         <f t="shared" si="5"/>
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="H296" s="21" t="s">
         <v>909</v>
       </c>
-      <c r="I296" s="21"/>
+      <c r="I296" s="21" t="s">
+        <v>1036</v>
+      </c>
       <c r="J296" s="22"/>
       <c r="K296" s="41"/>
-      <c r="L296" s="40"/>
+      <c r="L296" s="41"/>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A297" s="37" t="s">
@@ -19096,21 +19087,24 @@
       <c r="E297" s="28">
         <v>4</v>
       </c>
-      <c r="F297" s="38">
-        <v>9500</v>
-      </c>
-      <c r="G297" s="21"/>
+      <c r="F297" s="21">
+        <v>9412</v>
+      </c>
+      <c r="G297" s="21">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
       <c r="H297" s="21" t="s">
         <v>909</v>
       </c>
       <c r="I297" s="21"/>
       <c r="J297" s="22"/>
       <c r="K297" s="41"/>
-      <c r="L297" s="41"/>
+      <c r="L297" s="40"/>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A298" s="37" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B298" s="21" t="s">
         <v>910</v>
@@ -19119,20 +19113,13 @@
         <v>907</v>
       </c>
       <c r="D298" s="21" t="s">
-        <v>1039</v>
+        <v>1021</v>
       </c>
       <c r="E298" s="28">
-        <v>5</v>
-      </c>
-      <c r="F298" s="21">
-        <v>10000</v>
-      </c>
-      <c r="G298" s="21">
-        <f>F299-F298</f>
-        <v>10</v>
-      </c>
-      <c r="H298" s="21" t="s">
-        <v>75</v>
+        <v>4</v>
+      </c>
+      <c r="F298" s="38">
+        <v>9500</v>
       </c>
       <c r="I298" s="21"/>
       <c r="J298" s="22"/>
@@ -19156,21 +19143,19 @@
         <v>5</v>
       </c>
       <c r="F299" s="21">
-        <v>10010</v>
+        <v>10000</v>
       </c>
       <c r="G299" s="21">
-        <f t="shared" ref="G299:G359" si="6">F300-F299</f>
-        <v>5</v>
+        <f>F300-F299</f>
+        <v>10</v>
       </c>
       <c r="H299" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="I299" s="21" t="s">
-        <v>1040</v>
-      </c>
-      <c r="J299" s="23"/>
-      <c r="K299" s="40"/>
-      <c r="L299" s="40"/>
+        <v>75</v>
+      </c>
+      <c r="I299" s="21"/>
+      <c r="J299" s="22"/>
+      <c r="K299" s="41"/>
+      <c r="L299" s="41"/>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A300" s="37" t="s">
@@ -19189,17 +19174,19 @@
         <v>5</v>
       </c>
       <c r="F300" s="21">
-        <v>10015</v>
+        <v>10010</v>
       </c>
       <c r="G300" s="21">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="H300" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I300" s="17"/>
-      <c r="J300" s="20"/>
+        <f t="shared" ref="G300:G360" si="6">F301-F300</f>
+        <v>5</v>
+      </c>
+      <c r="H300" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I300" s="21" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J300" s="23"/>
       <c r="K300" s="40"/>
       <c r="L300" s="40"/>
     </row>
@@ -19220,19 +19207,19 @@
         <v>5</v>
       </c>
       <c r="F301" s="21">
-        <v>10031</v>
+        <v>10015</v>
       </c>
       <c r="G301" s="21">
         <f t="shared" si="6"/>
-        <v>52</v>
-      </c>
-      <c r="H301" s="21" t="s">
-        <v>909</v>
-      </c>
-      <c r="I301" s="21"/>
-      <c r="J301" s="21"/>
-      <c r="K301" s="46"/>
-      <c r="L301" s="41"/>
+        <v>16</v>
+      </c>
+      <c r="H301" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I301" s="17"/>
+      <c r="J301" s="20"/>
+      <c r="K301" s="40"/>
+      <c r="L301" s="40"/>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A302" s="37" t="s">
@@ -19251,28 +19238,19 @@
         <v>5</v>
       </c>
       <c r="F302" s="21">
-        <v>10083</v>
+        <v>10031</v>
       </c>
       <c r="G302" s="21">
         <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="H302" s="17" t="s">
-        <v>908</v>
-      </c>
-      <c r="I302" s="17"/>
-      <c r="J302" s="23">
-        <v>571</v>
-      </c>
-      <c r="K302" s="40" t="s">
-        <v>943</v>
-      </c>
-      <c r="L302" s="40" t="s">
-        <v>945</v>
-      </c>
-      <c r="M302" s="34" t="s">
-        <v>945</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="H302" s="21" t="s">
+        <v>909</v>
+      </c>
+      <c r="I302" s="21"/>
+      <c r="J302" s="21"/>
+      <c r="K302" s="46"/>
+      <c r="L302" s="41"/>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A303" s="37" t="s">
@@ -19291,19 +19269,28 @@
         <v>5</v>
       </c>
       <c r="F303" s="21">
-        <v>10120</v>
+        <v>10083</v>
       </c>
       <c r="G303" s="21">
         <f t="shared" si="6"/>
-        <v>46</v>
-      </c>
-      <c r="H303" s="21" t="s">
-        <v>909</v>
-      </c>
-      <c r="I303" s="21"/>
-      <c r="J303" s="22"/>
-      <c r="K303" s="41"/>
-      <c r="L303" s="41"/>
+        <v>37</v>
+      </c>
+      <c r="H303" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="I303" s="17"/>
+      <c r="J303" s="23">
+        <v>571</v>
+      </c>
+      <c r="K303" s="40" t="s">
+        <v>943</v>
+      </c>
+      <c r="L303" s="40" t="s">
+        <v>945</v>
+      </c>
+      <c r="M303" s="34" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A304" s="37" t="s">
@@ -19322,18 +19309,16 @@
         <v>5</v>
       </c>
       <c r="F304" s="21">
-        <v>10166</v>
+        <v>10120</v>
       </c>
       <c r="G304" s="21">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="H304" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="I304" s="21" t="s">
-        <v>1036</v>
-      </c>
+        <v>909</v>
+      </c>
+      <c r="I304" s="21"/>
       <c r="J304" s="22"/>
       <c r="K304" s="41"/>
       <c r="L304" s="41"/>
@@ -19355,19 +19340,21 @@
         <v>5</v>
       </c>
       <c r="F305" s="21">
-        <v>10176</v>
+        <v>10166</v>
       </c>
       <c r="G305" s="21">
         <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="H305" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I305" s="17"/>
-      <c r="J305" s="20"/>
-      <c r="K305" s="40"/>
-      <c r="L305" s="40"/>
+        <v>10</v>
+      </c>
+      <c r="H305" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I305" s="21" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J305" s="22"/>
+      <c r="K305" s="41"/>
+      <c r="L305" s="41"/>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A306" s="37" t="s">
@@ -19386,23 +19373,19 @@
         <v>5</v>
       </c>
       <c r="F306" s="21">
-        <v>10226</v>
+        <v>10176</v>
       </c>
       <c r="G306" s="21">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="H306" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="I306" s="21" t="s">
-        <v>1041</v>
-      </c>
-      <c r="J306" s="22">
-        <v>573</v>
-      </c>
-      <c r="K306" s="41"/>
-      <c r="L306" s="41"/>
+        <v>50</v>
+      </c>
+      <c r="H306" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I306" s="17"/>
+      <c r="J306" s="20"/>
+      <c r="K306" s="40"/>
+      <c r="L306" s="40"/>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A307" s="37" t="s">
@@ -19421,17 +19404,21 @@
         <v>5</v>
       </c>
       <c r="F307" s="21">
-        <v>10233</v>
+        <v>10226</v>
       </c>
       <c r="G307" s="21">
         <f t="shared" si="6"/>
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="H307" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I307" s="21"/>
-      <c r="J307" s="22"/>
+        <v>53</v>
+      </c>
+      <c r="I307" s="21" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J307" s="22">
+        <v>573</v>
+      </c>
       <c r="K307" s="41"/>
       <c r="L307" s="41"/>
     </row>
@@ -19452,21 +19439,17 @@
         <v>5</v>
       </c>
       <c r="F308" s="21">
-        <v>10270</v>
+        <v>10233</v>
       </c>
       <c r="G308" s="21">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H308" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="I308" s="21" t="s">
-        <v>1042</v>
-      </c>
-      <c r="J308" s="22">
-        <v>574</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I308" s="21"/>
+      <c r="J308" s="22"/>
       <c r="K308" s="41"/>
       <c r="L308" s="41"/>
     </row>
@@ -19487,17 +19470,21 @@
         <v>5</v>
       </c>
       <c r="F309" s="21">
-        <v>10288</v>
+        <v>10270</v>
       </c>
       <c r="G309" s="21">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H309" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I309" s="21"/>
-      <c r="J309" s="22"/>
+        <v>55</v>
+      </c>
+      <c r="I309" s="21" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J309" s="22">
+        <v>574</v>
+      </c>
       <c r="K309" s="41"/>
       <c r="L309" s="41"/>
     </row>
@@ -19518,28 +19505,19 @@
         <v>5</v>
       </c>
       <c r="F310" s="21">
-        <v>10296</v>
+        <v>10288</v>
       </c>
       <c r="G310" s="21">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="H310" s="21" t="s">
-        <v>908</v>
+        <v>75</v>
       </c>
       <c r="I310" s="21"/>
-      <c r="J310" s="22">
-        <v>575</v>
-      </c>
-      <c r="K310" s="41" t="s">
-        <v>943</v>
-      </c>
-      <c r="L310" s="40" t="s">
-        <v>945</v>
-      </c>
-      <c r="M310" s="34" t="s">
-        <v>945</v>
-      </c>
+      <c r="J310" s="22"/>
+      <c r="K310" s="41"/>
+      <c r="L310" s="41"/>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A311" s="37" t="s">
@@ -19558,27 +19536,27 @@
         <v>5</v>
       </c>
       <c r="F311" s="21">
-        <v>10331</v>
+        <v>10296</v>
       </c>
       <c r="G311" s="21">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="H311" s="21" t="s">
         <v>908</v>
       </c>
       <c r="I311" s="21"/>
       <c r="J311" s="22">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K311" s="41" t="s">
-        <v>948</v>
-      </c>
-      <c r="L311" s="41" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M311" s="41" t="s">
-        <v>1065</v>
+        <v>943</v>
+      </c>
+      <c r="L311" s="40" t="s">
+        <v>945</v>
+      </c>
+      <c r="M311" s="34" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.35">
@@ -19598,19 +19576,28 @@
         <v>5</v>
       </c>
       <c r="F312" s="21">
-        <v>10340</v>
+        <v>10331</v>
       </c>
       <c r="G312" s="21">
         <f t="shared" si="6"/>
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="H312" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I312" s="17"/>
-      <c r="J312" s="20"/>
-      <c r="K312" s="40"/>
-      <c r="L312" s="40"/>
+        <v>908</v>
+      </c>
+      <c r="I312" s="21"/>
+      <c r="J312" s="22">
+        <v>577</v>
+      </c>
+      <c r="K312" s="41" t="s">
+        <v>948</v>
+      </c>
+      <c r="L312" s="41" t="s">
+        <v>1064</v>
+      </c>
+      <c r="M312" s="41" t="s">
+        <v>1064</v>
+      </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A313" s="37" t="s">
@@ -19629,18 +19616,16 @@
         <v>5</v>
       </c>
       <c r="F313" s="21">
-        <v>10379</v>
+        <v>10340</v>
       </c>
       <c r="G313" s="21">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="H313" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I313" s="17" t="s">
-        <v>1042</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H313" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I313" s="17"/>
       <c r="J313" s="20"/>
       <c r="K313" s="40"/>
       <c r="L313" s="40"/>
@@ -19662,16 +19647,18 @@
         <v>5</v>
       </c>
       <c r="F314" s="21">
-        <v>10388</v>
+        <v>10379</v>
       </c>
       <c r="G314" s="21">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H314" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I314" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="I314" s="17" t="s">
+        <v>1042</v>
+      </c>
       <c r="J314" s="20"/>
       <c r="K314" s="40"/>
       <c r="L314" s="40"/>
@@ -19693,23 +19680,19 @@
         <v>5</v>
       </c>
       <c r="F315" s="21">
-        <v>10392</v>
+        <v>10388</v>
       </c>
       <c r="G315" s="21">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="H315" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="I315" s="21" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J315" s="22">
-        <v>579</v>
-      </c>
-      <c r="K315" s="41"/>
-      <c r="L315" s="41"/>
+        <v>4</v>
+      </c>
+      <c r="H315" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I315" s="17"/>
+      <c r="J315" s="20"/>
+      <c r="K315" s="40"/>
+      <c r="L315" s="40"/>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A316" s="37" t="s">
@@ -19728,19 +19711,23 @@
         <v>5</v>
       </c>
       <c r="F316" s="21">
-        <v>10398</v>
+        <v>10392</v>
       </c>
       <c r="G316" s="21">
         <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="H316" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="I316" s="17"/>
-      <c r="J316" s="22"/>
-      <c r="K316" s="40"/>
-      <c r="L316" s="40"/>
+        <v>6</v>
+      </c>
+      <c r="H316" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I316" s="21" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J316" s="22">
+        <v>579</v>
+      </c>
+      <c r="K316" s="41"/>
+      <c r="L316" s="41"/>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A317" s="37" t="s">
@@ -19759,21 +19746,17 @@
         <v>5</v>
       </c>
       <c r="F317" s="21">
-        <v>10437</v>
+        <v>10398</v>
       </c>
       <c r="G317" s="21">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H317" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="I317" s="17" t="s">
-        <v>1044</v>
-      </c>
-      <c r="J317" s="22">
-        <v>580</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I317" s="17"/>
+      <c r="J317" s="22"/>
       <c r="K317" s="40"/>
       <c r="L317" s="40"/>
     </row>
@@ -19794,19 +19777,21 @@
         <v>5</v>
       </c>
       <c r="F318" s="21">
-        <v>10457</v>
+        <v>10437</v>
       </c>
       <c r="G318" s="21">
         <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="H318" s="17" t="s">
-        <v>55</v>
+        <v>20</v>
+      </c>
+      <c r="H318" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="I318" s="17" t="s">
-        <v>1042</v>
-      </c>
-      <c r="J318" s="20"/>
+        <v>1044</v>
+      </c>
+      <c r="J318" s="22">
+        <v>580</v>
+      </c>
       <c r="K318" s="40"/>
       <c r="L318" s="40"/>
     </row>
@@ -19827,28 +19812,21 @@
         <v>5</v>
       </c>
       <c r="F319" s="21">
-        <v>10476</v>
+        <v>10457</v>
       </c>
       <c r="G319" s="21">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H319" s="17" t="s">
-        <v>908</v>
-      </c>
-      <c r="I319" s="17"/>
-      <c r="J319" s="20">
-        <v>581</v>
-      </c>
-      <c r="K319" s="40" t="s">
-        <v>943</v>
-      </c>
-      <c r="L319" s="40" t="s">
-        <v>945</v>
-      </c>
-      <c r="M319" s="34" t="s">
-        <v>945</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I319" s="17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J319" s="20"/>
+      <c r="K319" s="40"/>
+      <c r="L319" s="40"/>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A320" s="37" t="s">
@@ -19867,19 +19845,28 @@
         <v>5</v>
       </c>
       <c r="F320" s="21">
-        <v>10501</v>
+        <v>10476</v>
       </c>
       <c r="G320" s="21">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H320" s="17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I320" s="17"/>
-      <c r="J320" s="20"/>
-      <c r="K320" s="40"/>
-      <c r="L320" s="40"/>
+      <c r="J320" s="20">
+        <v>581</v>
+      </c>
+      <c r="K320" s="40" t="s">
+        <v>943</v>
+      </c>
+      <c r="L320" s="40" t="s">
+        <v>945</v>
+      </c>
+      <c r="M320" s="34" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A321" s="37" t="s">
@@ -19898,18 +19885,16 @@
         <v>5</v>
       </c>
       <c r="F321" s="21">
-        <v>10508</v>
+        <v>10501</v>
       </c>
       <c r="G321" s="21">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H321" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I321" s="17" t="s">
-        <v>1042</v>
-      </c>
+        <v>909</v>
+      </c>
+      <c r="I321" s="17"/>
       <c r="J321" s="20"/>
       <c r="K321" s="40"/>
       <c r="L321" s="40"/>
@@ -19931,28 +19916,21 @@
         <v>5</v>
       </c>
       <c r="F322" s="21">
-        <v>10519</v>
+        <v>10508</v>
       </c>
       <c r="G322" s="21">
         <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="H322" s="21" t="s">
-        <v>908</v>
-      </c>
-      <c r="I322" s="21"/>
-      <c r="J322" s="22">
-        <v>582</v>
-      </c>
-      <c r="K322" s="41" t="s">
-        <v>924</v>
-      </c>
-      <c r="L322" s="41" t="s">
-        <v>957</v>
-      </c>
-      <c r="M322" s="48" t="s">
-        <v>1069</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H322" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I322" s="17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J322" s="20"/>
+      <c r="K322" s="40"/>
+      <c r="L322" s="40"/>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A323" s="37" t="s">
@@ -19971,19 +19949,28 @@
         <v>5</v>
       </c>
       <c r="F323" s="21">
-        <v>10536</v>
+        <v>10519</v>
       </c>
       <c r="G323" s="21">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H323" s="21" t="s">
-        <v>75</v>
+        <v>908</v>
       </c>
       <c r="I323" s="21"/>
-      <c r="J323" s="22"/>
-      <c r="K323" s="41"/>
-      <c r="L323" s="41"/>
+      <c r="J323" s="22">
+        <v>582</v>
+      </c>
+      <c r="K323" s="41" t="s">
+        <v>924</v>
+      </c>
+      <c r="L323" s="41" t="s">
+        <v>957</v>
+      </c>
+      <c r="M323" s="48" t="s">
+        <v>1068</v>
+      </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A324" s="37" t="s">
@@ -20002,18 +19989,16 @@
         <v>5</v>
       </c>
       <c r="F324" s="21">
-        <v>10556</v>
+        <v>10536</v>
       </c>
       <c r="G324" s="21">
         <f t="shared" si="6"/>
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="H324" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="I324" s="21" t="s">
-        <v>1042</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I324" s="21"/>
       <c r="J324" s="22"/>
       <c r="K324" s="41"/>
       <c r="L324" s="41"/>
@@ -20035,18 +20020,20 @@
         <v>5</v>
       </c>
       <c r="F325" s="21">
-        <v>10599</v>
+        <v>10556</v>
       </c>
       <c r="G325" s="21">
         <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="H325" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I325" s="17"/>
-      <c r="J325" s="20"/>
-      <c r="K325" s="40"/>
+        <v>43</v>
+      </c>
+      <c r="H325" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I325" s="21" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J325" s="22"/>
+      <c r="K325" s="41"/>
       <c r="L325" s="41"/>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.35">
@@ -20066,21 +20053,19 @@
         <v>5</v>
       </c>
       <c r="F326" s="21">
-        <v>10613</v>
+        <v>10599</v>
       </c>
       <c r="G326" s="21">
         <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="H326" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="I326" s="21" t="s">
-        <v>1042</v>
-      </c>
-      <c r="J326" s="22"/>
-      <c r="K326" s="41"/>
-      <c r="L326" s="40"/>
+        <v>14</v>
+      </c>
+      <c r="H326" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I326" s="17"/>
+      <c r="J326" s="20"/>
+      <c r="K326" s="40"/>
+      <c r="L326" s="41"/>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A327" s="37" t="s">
@@ -20099,19 +20084,21 @@
         <v>5</v>
       </c>
       <c r="F327" s="21">
-        <v>10635</v>
+        <v>10613</v>
       </c>
       <c r="G327" s="21">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H327" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I327" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="I327" s="21" t="s">
+        <v>1042</v>
+      </c>
       <c r="J327" s="22"/>
       <c r="K327" s="41"/>
-      <c r="L327" s="41"/>
+      <c r="L327" s="40"/>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A328" s="37" t="s">
@@ -20130,21 +20117,19 @@
         <v>5</v>
       </c>
       <c r="F328" s="21">
-        <v>10641</v>
+        <v>10635</v>
       </c>
       <c r="G328" s="21">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="H328" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I328" s="17"/>
-      <c r="J328" s="20">
-        <v>584</v>
-      </c>
-      <c r="K328" s="40"/>
-      <c r="L328" s="40"/>
+        <v>6</v>
+      </c>
+      <c r="H328" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I328" s="21"/>
+      <c r="J328" s="22"/>
+      <c r="K328" s="41"/>
+      <c r="L328" s="41"/>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A329" s="37" t="s">
@@ -20163,21 +20148,21 @@
         <v>5</v>
       </c>
       <c r="F329" s="21">
-        <v>10646</v>
+        <v>10641</v>
       </c>
       <c r="G329" s="21">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="H329" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="I329" s="21" t="s">
-        <v>1042</v>
-      </c>
-      <c r="J329" s="22"/>
-      <c r="K329" s="41"/>
-      <c r="L329" s="41"/>
+        <v>5</v>
+      </c>
+      <c r="H329" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I329" s="17"/>
+      <c r="J329" s="20">
+        <v>584</v>
+      </c>
+      <c r="K329" s="40"/>
+      <c r="L329" s="40"/>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A330" s="37" t="s">
@@ -20196,19 +20181,21 @@
         <v>5</v>
       </c>
       <c r="F330" s="21">
-        <v>10655</v>
+        <v>10646</v>
       </c>
       <c r="G330" s="21">
         <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="H330" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H330" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I330" s="17"/>
-      <c r="J330" s="20"/>
-      <c r="K330" s="40"/>
-      <c r="L330" s="40"/>
+      <c r="I330" s="21" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J330" s="22"/>
+      <c r="K330" s="41"/>
+      <c r="L330" s="41"/>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A331" s="37" t="s">
@@ -20227,28 +20214,19 @@
         <v>5</v>
       </c>
       <c r="F331" s="21">
-        <v>10710</v>
+        <v>10655</v>
       </c>
       <c r="G331" s="21">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="H331" s="21" t="s">
-        <v>908</v>
-      </c>
-      <c r="I331" s="21"/>
-      <c r="J331" s="22">
-        <v>585</v>
-      </c>
-      <c r="K331" s="41" t="s">
-        <v>943</v>
-      </c>
-      <c r="L331" s="41" t="s">
-        <v>945</v>
-      </c>
-      <c r="M331" s="34" t="s">
-        <v>945</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H331" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I331" s="17"/>
+      <c r="J331" s="20"/>
+      <c r="K331" s="40"/>
+      <c r="L331" s="40"/>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A332" s="37" t="s">
@@ -20267,19 +20245,28 @@
         <v>5</v>
       </c>
       <c r="F332" s="21">
-        <v>10726</v>
+        <v>10710</v>
       </c>
       <c r="G332" s="21">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="H332" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I332" s="17"/>
-      <c r="J332" s="20"/>
-      <c r="K332" s="40"/>
-      <c r="L332" s="40"/>
+        <v>16</v>
+      </c>
+      <c r="H332" s="21" t="s">
+        <v>908</v>
+      </c>
+      <c r="I332" s="21"/>
+      <c r="J332" s="22">
+        <v>585</v>
+      </c>
+      <c r="K332" s="41" t="s">
+        <v>943</v>
+      </c>
+      <c r="L332" s="41" t="s">
+        <v>945</v>
+      </c>
+      <c r="M332" s="34" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A333" s="37" t="s">
@@ -20298,21 +20285,19 @@
         <v>5</v>
       </c>
       <c r="F333" s="21">
-        <v>10741</v>
+        <v>10726</v>
       </c>
       <c r="G333" s="21">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="H333" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="I333" s="21" t="s">
-        <v>1042</v>
-      </c>
-      <c r="J333" s="22"/>
-      <c r="K333" s="41"/>
-      <c r="L333" s="41"/>
+        <v>15</v>
+      </c>
+      <c r="H333" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I333" s="17"/>
+      <c r="J333" s="20"/>
+      <c r="K333" s="40"/>
+      <c r="L333" s="40"/>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A334" s="37" t="s">
@@ -20331,19 +20316,21 @@
         <v>5</v>
       </c>
       <c r="F334" s="21">
-        <v>10750</v>
+        <v>10741</v>
       </c>
       <c r="G334" s="21">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H334" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I334" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="I334" s="21" t="s">
+        <v>1042</v>
+      </c>
       <c r="J334" s="22"/>
       <c r="K334" s="41"/>
-      <c r="L334" s="40"/>
+      <c r="L334" s="41"/>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A335" s="37" t="s">
@@ -20362,19 +20349,19 @@
         <v>5</v>
       </c>
       <c r="F335" s="21">
-        <v>10776</v>
+        <v>10750</v>
       </c>
       <c r="G335" s="21">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="H335" s="21" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I335" s="21"/>
       <c r="J335" s="22"/>
       <c r="K335" s="41"/>
-      <c r="L335" s="41"/>
+      <c r="L335" s="40"/>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A336" s="37" t="s">
@@ -20393,19 +20380,19 @@
         <v>5</v>
       </c>
       <c r="F336" s="21">
-        <v>10783</v>
+        <v>10776</v>
       </c>
       <c r="G336" s="21">
         <f t="shared" si="6"/>
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="H336" s="21" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I336" s="21"/>
       <c r="J336" s="22"/>
       <c r="K336" s="41"/>
-      <c r="L336" s="40"/>
+      <c r="L336" s="41"/>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A337" s="37" t="s">
@@ -20424,21 +20411,19 @@
         <v>5</v>
       </c>
       <c r="F337" s="21">
-        <v>10846</v>
+        <v>10783</v>
       </c>
       <c r="G337" s="21">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="H337" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="I337" s="21" t="s">
-        <v>1045</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I337" s="21"/>
       <c r="J337" s="22"/>
       <c r="K337" s="41"/>
-      <c r="L337" s="41"/>
+      <c r="L337" s="40"/>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A338" s="37" t="s">
@@ -20457,19 +20442,21 @@
         <v>5</v>
       </c>
       <c r="F338" s="21">
-        <v>10858</v>
+        <v>10846</v>
       </c>
       <c r="G338" s="21">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H338" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I338" s="21"/>
+        <v>65</v>
+      </c>
+      <c r="I338" s="21" t="s">
+        <v>1045</v>
+      </c>
       <c r="J338" s="22"/>
       <c r="K338" s="41"/>
-      <c r="L338" s="40"/>
+      <c r="L338" s="41"/>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A339" s="37" t="s">
@@ -20488,19 +20475,19 @@
         <v>5</v>
       </c>
       <c r="F339" s="21">
-        <v>10891</v>
+        <v>10858</v>
       </c>
       <c r="G339" s="21">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H339" s="21" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I339" s="21"/>
       <c r="J339" s="22"/>
       <c r="K339" s="41"/>
-      <c r="L339" s="41"/>
+      <c r="L339" s="40"/>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A340" s="37" t="s">
@@ -20519,21 +20506,19 @@
         <v>5</v>
       </c>
       <c r="F340" s="21">
-        <v>10942</v>
+        <v>10891</v>
       </c>
       <c r="G340" s="21">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="H340" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="I340" s="21" t="s">
-        <v>1043</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I340" s="21"/>
       <c r="J340" s="22"/>
       <c r="K340" s="41"/>
-      <c r="L340" s="40"/>
+      <c r="L340" s="41"/>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A341" s="37" t="s">
@@ -20552,19 +20537,21 @@
         <v>5</v>
       </c>
       <c r="F341" s="21">
-        <v>10959</v>
+        <v>10942</v>
       </c>
       <c r="G341" s="21">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H341" s="21" t="s">
-        <v>909</v>
-      </c>
-      <c r="I341" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="I341" s="21" t="s">
+        <v>1043</v>
+      </c>
       <c r="J341" s="22"/>
       <c r="K341" s="41"/>
-      <c r="L341" s="41"/>
+      <c r="L341" s="40"/>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A342" s="37" t="s">
@@ -20583,19 +20570,19 @@
         <v>5</v>
       </c>
       <c r="F342" s="21">
-        <v>10989</v>
+        <v>10959</v>
       </c>
       <c r="G342" s="21">
         <f t="shared" si="6"/>
-        <v>46</v>
-      </c>
-      <c r="H342" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I342" s="17"/>
-      <c r="J342" s="20"/>
-      <c r="K342" s="40"/>
-      <c r="L342" s="40"/>
+        <v>30</v>
+      </c>
+      <c r="H342" s="21" t="s">
+        <v>909</v>
+      </c>
+      <c r="I342" s="21"/>
+      <c r="J342" s="22"/>
+      <c r="K342" s="41"/>
+      <c r="L342" s="41"/>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A343" s="37" t="s">
@@ -20614,19 +20601,19 @@
         <v>5</v>
       </c>
       <c r="F343" s="21">
-        <v>11035</v>
+        <v>10989</v>
       </c>
       <c r="G343" s="21">
         <f t="shared" si="6"/>
-        <v>435</v>
-      </c>
-      <c r="H343" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I343" s="21"/>
-      <c r="J343" s="22"/>
-      <c r="K343" s="41"/>
-      <c r="L343" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="H343" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I343" s="17"/>
+      <c r="J343" s="20"/>
+      <c r="K343" s="40"/>
+      <c r="L343" s="40"/>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A344" s="37" t="s">
@@ -20645,28 +20632,19 @@
         <v>5</v>
       </c>
       <c r="F344" s="21">
-        <v>11470</v>
+        <v>11035</v>
       </c>
       <c r="G344" s="21">
         <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="H344" s="17" t="s">
-        <v>908</v>
-      </c>
-      <c r="I344" s="17"/>
-      <c r="J344" s="20">
-        <v>587</v>
-      </c>
-      <c r="K344" s="40" t="s">
-        <v>918</v>
-      </c>
-      <c r="L344" s="40" t="s">
-        <v>1066</v>
-      </c>
-      <c r="M344" s="40" t="s">
-        <v>1066</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="H344" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I344" s="21"/>
+      <c r="J344" s="22"/>
+      <c r="K344" s="41"/>
+      <c r="L344" s="41"/>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A345" s="37" t="s">
@@ -20685,19 +20663,28 @@
         <v>5</v>
       </c>
       <c r="F345" s="21">
-        <v>11484</v>
+        <v>11470</v>
       </c>
       <c r="G345" s="21">
         <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="H345" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I345" s="21"/>
-      <c r="J345" s="22"/>
-      <c r="K345" s="41"/>
-      <c r="L345" s="41"/>
+        <v>14</v>
+      </c>
+      <c r="H345" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="I345" s="17"/>
+      <c r="J345" s="20">
+        <v>587</v>
+      </c>
+      <c r="K345" s="40" t="s">
+        <v>918</v>
+      </c>
+      <c r="L345" s="40" t="s">
+        <v>1065</v>
+      </c>
+      <c r="M345" s="40" t="s">
+        <v>1065</v>
+      </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A346" s="37" t="s">
@@ -20716,18 +20703,16 @@
         <v>5</v>
       </c>
       <c r="F346" s="21">
-        <v>11511</v>
+        <v>11484</v>
       </c>
       <c r="G346" s="21">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H346" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="I346" s="21" t="s">
-        <v>1040</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I346" s="21"/>
       <c r="J346" s="22"/>
       <c r="K346" s="41"/>
       <c r="L346" s="41"/>
@@ -20749,19 +20734,21 @@
         <v>5</v>
       </c>
       <c r="F347" s="21">
-        <v>11524</v>
+        <v>11511</v>
       </c>
       <c r="G347" s="21">
         <f t="shared" si="6"/>
-        <v>93</v>
-      </c>
-      <c r="H347" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I347" s="17"/>
-      <c r="J347" s="20"/>
-      <c r="K347" s="42"/>
-      <c r="L347" s="42"/>
+        <v>13</v>
+      </c>
+      <c r="H347" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I347" s="21" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J347" s="22"/>
+      <c r="K347" s="41"/>
+      <c r="L347" s="41"/>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A348" s="37" t="s">
@@ -20780,19 +20767,19 @@
         <v>5</v>
       </c>
       <c r="F348" s="21">
-        <v>11617</v>
+        <v>11524</v>
       </c>
       <c r="G348" s="21">
         <f t="shared" si="6"/>
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="H348" s="17" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I348" s="17"/>
       <c r="J348" s="20"/>
-      <c r="K348" s="40"/>
-      <c r="L348" s="40"/>
+      <c r="K348" s="42"/>
+      <c r="L348" s="42"/>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A349" s="37" t="s">
@@ -20811,28 +20798,19 @@
         <v>5</v>
       </c>
       <c r="F349" s="21">
-        <v>11656</v>
+        <v>11617</v>
       </c>
       <c r="G349" s="21">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H349" s="17" t="s">
-        <v>908</v>
+        <v>61</v>
       </c>
       <c r="I349" s="17"/>
-      <c r="J349" s="20">
-        <v>589</v>
-      </c>
-      <c r="K349" s="40" t="s">
-        <v>911</v>
-      </c>
-      <c r="L349" s="40" t="s">
-        <v>965</v>
-      </c>
-      <c r="M349" s="33" t="s">
-        <v>965</v>
-      </c>
+      <c r="J349" s="20"/>
+      <c r="K349" s="40"/>
+      <c r="L349" s="40"/>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A350" s="37" t="s">
@@ -20851,19 +20829,28 @@
         <v>5</v>
       </c>
       <c r="F350" s="21">
-        <v>11670</v>
+        <v>11656</v>
       </c>
       <c r="G350" s="21">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H350" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="I350" s="21"/>
-      <c r="J350" s="22"/>
-      <c r="K350" s="41"/>
-      <c r="L350" s="41"/>
+        <v>14</v>
+      </c>
+      <c r="H350" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="I350" s="17"/>
+      <c r="J350" s="20">
+        <v>589</v>
+      </c>
+      <c r="K350" s="40" t="s">
+        <v>911</v>
+      </c>
+      <c r="L350" s="40" t="s">
+        <v>965</v>
+      </c>
+      <c r="M350" s="33" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A351" s="37" t="s">
@@ -20882,19 +20869,19 @@
         <v>5</v>
       </c>
       <c r="F351" s="21">
-        <v>11673</v>
+        <v>11670</v>
       </c>
       <c r="G351" s="21">
         <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="H351" s="17" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I351" s="17"/>
-      <c r="J351" s="20"/>
-      <c r="K351" s="40"/>
-      <c r="L351" s="40"/>
+        <v>3</v>
+      </c>
+      <c r="H351" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I351" s="21"/>
+      <c r="J351" s="22"/>
+      <c r="K351" s="41"/>
+      <c r="L351" s="41"/>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A352" s="37" t="s">
@@ -20913,30 +20900,21 @@
         <v>5</v>
       </c>
       <c r="F352" s="21">
-        <v>11690</v>
+        <v>11673</v>
       </c>
       <c r="G352" s="21">
         <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="H352" s="21" t="s">
-        <v>908</v>
-      </c>
-      <c r="I352" s="21"/>
-      <c r="J352" s="22">
-        <v>590</v>
-      </c>
-      <c r="K352" s="41" t="s">
-        <v>918</v>
-      </c>
-      <c r="L352" s="41" t="s">
-        <v>920</v>
-      </c>
-      <c r="M352" s="33" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="H352" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I352" s="17"/>
+      <c r="J352" s="20"/>
+      <c r="K352" s="40"/>
+      <c r="L352" s="40"/>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A353" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20953,21 +20931,30 @@
         <v>5</v>
       </c>
       <c r="F353" s="21">
-        <v>11723</v>
+        <v>11690</v>
       </c>
       <c r="G353" s="21">
         <f t="shared" si="6"/>
-        <v>65</v>
-      </c>
-      <c r="H353" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I353" s="17"/>
-      <c r="J353" s="20"/>
-      <c r="K353" s="40"/>
-      <c r="L353" s="40"/>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="H353" s="21" t="s">
+        <v>908</v>
+      </c>
+      <c r="I353" s="21"/>
+      <c r="J353" s="22">
+        <v>590</v>
+      </c>
+      <c r="K353" s="41" t="s">
+        <v>918</v>
+      </c>
+      <c r="L353" s="41" t="s">
+        <v>920</v>
+      </c>
+      <c r="M353" s="33" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A354" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20984,21 +20971,21 @@
         <v>5</v>
       </c>
       <c r="F354" s="21">
-        <v>11788</v>
+        <v>11723</v>
       </c>
       <c r="G354" s="21">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="H354" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I354" s="21"/>
-      <c r="J354" s="22"/>
-      <c r="K354" s="41"/>
-      <c r="L354" s="41"/>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="H354" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I354" s="17"/>
+      <c r="J354" s="20"/>
+      <c r="K354" s="40"/>
+      <c r="L354" s="40"/>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A355" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21015,23 +21002,21 @@
         <v>5</v>
       </c>
       <c r="F355" s="21">
-        <v>11795</v>
+        <v>11788</v>
       </c>
       <c r="G355" s="21">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H355" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I355" s="17"/>
-      <c r="J355" s="20">
-        <v>592</v>
-      </c>
-      <c r="K355" s="40"/>
-      <c r="L355" s="40"/>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="H355" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I355" s="21"/>
+      <c r="J355" s="22"/>
+      <c r="K355" s="41"/>
+      <c r="L355" s="41"/>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A356" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21048,21 +21033,23 @@
         <v>5</v>
       </c>
       <c r="F356" s="21">
-        <v>11798</v>
+        <v>11795</v>
       </c>
       <c r="G356" s="21">
         <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="H356" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I356" s="21"/>
-      <c r="J356" s="22"/>
-      <c r="K356" s="41"/>
-      <c r="L356" s="41"/>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="H356" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I356" s="17"/>
+      <c r="J356" s="20">
+        <v>592</v>
+      </c>
+      <c r="K356" s="40"/>
+      <c r="L356" s="40"/>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A357" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21079,21 +21066,21 @@
         <v>5</v>
       </c>
       <c r="F357" s="21">
-        <v>11826</v>
+        <v>11798</v>
       </c>
       <c r="G357" s="21">
         <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="H357" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="H357" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I357" s="17"/>
-      <c r="J357" s="20"/>
-      <c r="K357" s="40"/>
-      <c r="L357" s="40"/>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I357" s="21"/>
+      <c r="J357" s="22"/>
+      <c r="K357" s="41"/>
+      <c r="L357" s="41"/>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A358" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21110,21 +21097,21 @@
         <v>5</v>
       </c>
       <c r="F358" s="21">
-        <v>11901</v>
+        <v>11826</v>
       </c>
       <c r="G358" s="21">
         <f t="shared" si="6"/>
-        <v>57</v>
-      </c>
-      <c r="H358" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I358" s="21"/>
-      <c r="J358" s="22"/>
-      <c r="K358" s="41"/>
-      <c r="L358" s="41"/>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H358" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I358" s="17"/>
+      <c r="J358" s="20"/>
+      <c r="K358" s="40"/>
+      <c r="L358" s="40"/>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A359" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21141,21 +21128,21 @@
         <v>5</v>
       </c>
       <c r="F359" s="21">
-        <v>11958</v>
+        <v>11901</v>
       </c>
       <c r="G359" s="21">
         <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="H359" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I359" s="17"/>
-      <c r="J359" s="20"/>
-      <c r="K359" s="40"/>
-      <c r="L359" s="40"/>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="H359" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I359" s="21"/>
+      <c r="J359" s="22"/>
+      <c r="K359" s="41"/>
+      <c r="L359" s="41"/>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A360" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21172,9 +21159,12 @@
         <v>5</v>
       </c>
       <c r="F360" s="21">
-        <v>12000</v>
-      </c>
-      <c r="G360" s="21"/>
+        <v>11958</v>
+      </c>
+      <c r="G360" s="21">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
       <c r="H360" s="17" t="s">
         <v>61</v>
       </c>
@@ -21183,14 +21173,42 @@
       <c r="K360" s="40"/>
       <c r="L360" s="40"/>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G361" s="16">
-        <f>SUM(G2:G360)</f>
-        <v>9993</v>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A361" s="37" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B361" s="21" t="s">
+        <v>910</v>
+      </c>
+      <c r="C361" s="21" t="s">
+        <v>907</v>
+      </c>
+      <c r="D361" s="21" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E361" s="28">
+        <v>5</v>
+      </c>
+      <c r="F361" s="21">
+        <v>12000</v>
+      </c>
+      <c r="G361" s="21"/>
+      <c r="H361" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I361" s="17"/>
+      <c r="J361" s="20"/>
+      <c r="K361" s="40"/>
+      <c r="L361" s="40"/>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G362" s="16">
+        <f>SUM(G2:G361)</f>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T361" xr:uid="{7482A1D5-DADB-46C2-9285-BE270A6CD978}"/>
+  <autoFilter ref="A1:T362" xr:uid="{7482A1D5-DADB-46C2-9285-BE270A6CD978}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/R/2017_11_23_Completed_LN1_Deep (0m to 120m)_newcleaned.xlsx
+++ b/R/2017_11_23_Completed_LN1_Deep (0m to 120m)_newcleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ED725335-399C-454C-A660-65A9BA241809}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AA8C5FC8-DDE1-4659-8CAB-01DD444F1B98}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="454" windowWidth="16660" windowHeight="15220" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9091,12 +9091,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T362"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H256" sqref="H256"/>
+      <selection pane="bottomLeft" activeCell="A224" sqref="A224:XFD293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
@@ -9215,7 +9216,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
         <v>916</v>
       </c>
@@ -9284,7 +9285,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
         <v>916</v>
       </c>
@@ -9315,7 +9316,7 @@
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
         <v>916</v>
       </c>
@@ -9347,7 +9348,7 @@
       <c r="J6" s="32"/>
       <c r="L6" s="33"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>916</v>
       </c>
@@ -9378,7 +9379,7 @@
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>916</v>
       </c>
@@ -9487,7 +9488,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>916</v>
       </c>
@@ -9518,7 +9519,7 @@
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="31" t="s">
         <v>916</v>
       </c>
@@ -9550,7 +9551,7 @@
       <c r="J12" s="32"/>
       <c r="L12" s="33"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>916</v>
       </c>
@@ -9620,7 +9621,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
         <v>916</v>
       </c>
@@ -9689,7 +9690,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
         <v>916</v>
       </c>
@@ -9837,7 +9838,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
         <v>916</v>
       </c>
@@ -9868,7 +9869,7 @@
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="31" t="s">
         <v>916</v>
       </c>
@@ -9899,7 +9900,7 @@
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
         <v>916</v>
       </c>
@@ -9970,7 +9971,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="31" t="s">
         <v>916</v>
       </c>
@@ -10000,7 +10001,7 @@
       <c r="K25" s="43"/>
       <c r="L25" s="33"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>916</v>
       </c>
@@ -10069,7 +10070,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
         <v>916</v>
       </c>
@@ -10099,7 +10100,7 @@
       <c r="K28" s="43"/>
       <c r="L28" s="33"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
         <v>916</v>
       </c>
@@ -10130,7 +10131,7 @@
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>916</v>
       </c>
@@ -10201,7 +10202,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
         <v>916</v>
       </c>
@@ -10270,7 +10271,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
         <v>916</v>
       </c>
@@ -10301,7 +10302,7 @@
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
         <v>916</v>
       </c>
@@ -10333,7 +10334,7 @@
       <c r="J35" s="32"/>
       <c r="L35" s="33"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
         <v>916</v>
       </c>
@@ -10403,7 +10404,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31" t="s">
         <v>916</v>
       </c>
@@ -10434,7 +10435,7 @@
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="31" t="s">
         <v>916</v>
       </c>
@@ -10504,7 +10505,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="31" t="s">
         <v>916</v>
       </c>
@@ -10535,7 +10536,7 @@
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
         <v>916</v>
       </c>
@@ -10566,7 +10567,7 @@
       <c r="K42" s="33"/>
       <c r="L42" s="33"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
         <v>916</v>
       </c>
@@ -10636,7 +10637,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>916</v>
       </c>
@@ -10706,7 +10707,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
         <v>916</v>
       </c>
@@ -10776,7 +10777,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
         <v>916</v>
       </c>
@@ -10845,7 +10846,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
         <v>916</v>
       </c>
@@ -10875,7 +10876,7 @@
       <c r="K51" s="43"/>
       <c r="L51" s="33"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
         <v>916</v>
       </c>
@@ -10944,7 +10945,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
         <v>916</v>
       </c>
@@ -11013,7 +11014,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="31" t="s">
         <v>916</v>
       </c>
@@ -11121,7 +11122,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
         <v>916</v>
       </c>
@@ -11190,7 +11191,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="31" t="s">
         <v>916</v>
       </c>
@@ -11221,7 +11222,7 @@
       <c r="K61" s="45"/>
       <c r="L61" s="33"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
         <v>916</v>
       </c>
@@ -11252,7 +11253,7 @@
       <c r="K62" s="45"/>
       <c r="L62" s="33"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
         <v>916</v>
       </c>
@@ -11322,7 +11323,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="31" t="s">
         <v>916</v>
       </c>
@@ -11352,7 +11353,7 @@
       <c r="K65" s="44"/>
       <c r="L65" s="33"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="31" t="s">
         <v>916</v>
       </c>
@@ -11382,7 +11383,7 @@
       <c r="K66" s="44"/>
       <c r="L66" s="33"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="31" t="s">
         <v>916</v>
       </c>
@@ -11412,7 +11413,7 @@
       <c r="K67" s="44"/>
       <c r="L67" s="33"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="31" t="s">
         <v>916</v>
       </c>
@@ -11442,7 +11443,7 @@
       <c r="K68" s="44"/>
       <c r="L68" s="33"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="31" t="s">
         <v>916</v>
       </c>
@@ -11472,7 +11473,7 @@
       <c r="K69" s="44"/>
       <c r="L69" s="33"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="31" t="s">
         <v>916</v>
       </c>
@@ -11541,7 +11542,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="31" t="s">
         <v>916</v>
       </c>
@@ -11610,7 +11611,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="31" t="s">
         <v>916</v>
       </c>
@@ -11679,7 +11680,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="31" t="s">
         <v>916</v>
       </c>
@@ -11748,7 +11749,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="31" t="s">
         <v>916</v>
       </c>
@@ -11779,7 +11780,7 @@
       <c r="K78" s="45"/>
       <c r="L78" s="33"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="31" t="s">
         <v>916</v>
       </c>
@@ -11810,7 +11811,7 @@
       <c r="K79" s="45"/>
       <c r="L79" s="33"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="31" t="s">
         <v>916</v>
       </c>
@@ -11919,7 +11920,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="31" t="s">
         <v>916</v>
       </c>
@@ -11988,7 +11989,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="31" t="s">
         <v>916</v>
       </c>
@@ -12018,7 +12019,7 @@
       <c r="K85" s="44"/>
       <c r="L85" s="33"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="31" t="s">
         <v>916</v>
       </c>
@@ -12048,7 +12049,7 @@
       <c r="K86" s="44"/>
       <c r="L86" s="33"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="31" t="s">
         <v>916</v>
       </c>
@@ -12117,7 +12118,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="31" t="s">
         <v>916</v>
       </c>
@@ -12143,7 +12144,7 @@
       <c r="K89" s="40"/>
       <c r="L89" s="40"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="27">
         <v>43062</v>
       </c>
@@ -12214,7 +12215,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="27">
         <v>43062</v>
       </c>
@@ -12285,7 +12286,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="27">
         <v>43062</v>
       </c>
@@ -12316,7 +12317,7 @@
       <c r="K94" s="26"/>
       <c r="L94" s="26"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="27">
         <v>43062</v>
       </c>
@@ -12347,7 +12348,7 @@
       <c r="K95" s="26"/>
       <c r="L95" s="26"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="27">
         <v>43062</v>
       </c>
@@ -12415,7 +12416,7 @@
       </c>
       <c r="L97" s="26"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="27">
         <v>43062</v>
       </c>
@@ -12450,7 +12451,7 @@
       <c r="K98" s="26"/>
       <c r="L98" s="26"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="27">
         <v>43062</v>
       </c>
@@ -12485,7 +12486,7 @@
       <c r="K99" s="26"/>
       <c r="L99" s="26"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="27">
         <v>43062</v>
       </c>
@@ -12516,7 +12517,7 @@
       <c r="K100" s="26"/>
       <c r="L100" s="26"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="27">
         <v>43062</v>
       </c>
@@ -12549,7 +12550,7 @@
       <c r="K101" s="26"/>
       <c r="L101" s="26"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="27">
         <v>43062</v>
       </c>
@@ -12620,7 +12621,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="27">
         <v>43062</v>
       </c>
@@ -12653,7 +12654,7 @@
       <c r="K104" s="26"/>
       <c r="L104" s="26"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="27">
         <v>43062</v>
       </c>
@@ -12684,7 +12685,7 @@
       <c r="K105" s="26"/>
       <c r="L105" s="26"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="27">
         <v>43062</v>
       </c>
@@ -12717,7 +12718,7 @@
       <c r="K106" s="26"/>
       <c r="L106" s="26"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="27">
         <v>43062</v>
       </c>
@@ -12748,7 +12749,7 @@
       <c r="K107" s="26"/>
       <c r="L107" s="26"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="27">
         <v>43062</v>
       </c>
@@ -12781,7 +12782,7 @@
       <c r="K108" s="26"/>
       <c r="L108" s="26"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="27">
         <v>43062</v>
       </c>
@@ -12812,7 +12813,7 @@
       <c r="K109" s="26"/>
       <c r="L109" s="26"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="27">
         <v>43062</v>
       </c>
@@ -12845,7 +12846,7 @@
       <c r="K110" s="26"/>
       <c r="L110" s="26"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="27">
         <v>43062</v>
       </c>
@@ -12876,7 +12877,7 @@
       <c r="K111" s="26"/>
       <c r="L111" s="26"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="27">
         <v>43062</v>
       </c>
@@ -12909,7 +12910,7 @@
       <c r="K112" s="26"/>
       <c r="L112" s="26"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="27">
         <v>43062</v>
       </c>
@@ -12940,7 +12941,7 @@
       <c r="K113" s="26"/>
       <c r="L113" s="26"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="27">
         <v>43062</v>
       </c>
@@ -12973,7 +12974,7 @@
       <c r="K114" s="26"/>
       <c r="L114" s="26"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="27">
         <v>43062</v>
       </c>
@@ -13004,7 +13005,7 @@
       <c r="K115" s="26"/>
       <c r="L115" s="26"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="27">
         <v>43062</v>
       </c>
@@ -13037,7 +13038,7 @@
       <c r="K116" s="26"/>
       <c r="L116" s="26"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="27">
         <v>43062</v>
       </c>
@@ -13068,7 +13069,7 @@
       <c r="K117" s="26"/>
       <c r="L117" s="26"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="27">
         <v>43062</v>
       </c>
@@ -13101,7 +13102,7 @@
       <c r="K118" s="26"/>
       <c r="L118" s="26"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="27">
         <v>43062</v>
       </c>
@@ -13134,7 +13135,7 @@
       <c r="K119" s="26"/>
       <c r="L119" s="26"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="27">
         <v>43062</v>
       </c>
@@ -13167,7 +13168,7 @@
       <c r="K120" s="26"/>
       <c r="L120" s="26"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="27">
         <v>43062</v>
       </c>
@@ -13198,7 +13199,7 @@
       <c r="K121" s="26"/>
       <c r="L121" s="26"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="27">
         <v>43062</v>
       </c>
@@ -13231,7 +13232,7 @@
       <c r="K122" s="26"/>
       <c r="L122" s="26"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="27">
         <v>43062</v>
       </c>
@@ -13262,7 +13263,7 @@
       <c r="K123" s="26"/>
       <c r="L123" s="26"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="27">
         <v>43062</v>
       </c>
@@ -13295,7 +13296,7 @@
       <c r="K124" s="26"/>
       <c r="L124" s="26"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="27">
         <v>43062</v>
       </c>
@@ -13326,7 +13327,7 @@
       <c r="K125" s="26"/>
       <c r="L125" s="26"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="27">
         <v>43062</v>
       </c>
@@ -13359,7 +13360,7 @@
       <c r="K126" s="26"/>
       <c r="L126" s="26"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="27">
         <v>43062</v>
       </c>
@@ -13390,7 +13391,7 @@
       <c r="K127" s="26"/>
       <c r="L127" s="26"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="27">
         <v>43062</v>
       </c>
@@ -13423,7 +13424,7 @@
       <c r="K128" s="26"/>
       <c r="L128" s="26"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="27">
         <v>43062</v>
       </c>
@@ -13494,7 +13495,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="27">
         <v>43062</v>
       </c>
@@ -13565,7 +13566,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="27">
         <v>43062</v>
       </c>
@@ -13596,7 +13597,7 @@
       <c r="K133" s="26"/>
       <c r="L133" s="26"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="27">
         <v>43062</v>
       </c>
@@ -13629,7 +13630,7 @@
       <c r="K134" s="26"/>
       <c r="L134" s="26"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="27">
         <v>43062</v>
       </c>
@@ -13660,7 +13661,7 @@
       <c r="K135" s="26"/>
       <c r="L135" s="26"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="27">
         <v>43062</v>
       </c>
@@ -13691,7 +13692,7 @@
       <c r="K136" s="26"/>
       <c r="L136" s="26"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="27">
         <v>43062</v>
       </c>
@@ -13722,7 +13723,7 @@
       <c r="K137" s="26"/>
       <c r="L137" s="26"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="27">
         <v>43062</v>
       </c>
@@ -13755,7 +13756,7 @@
       <c r="K138" s="26"/>
       <c r="L138" s="26"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="27">
         <v>43062</v>
       </c>
@@ -13786,7 +13787,7 @@
       <c r="K139" s="26"/>
       <c r="L139" s="26"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="27">
         <v>43062</v>
       </c>
@@ -13819,7 +13820,7 @@
       <c r="K140" s="26"/>
       <c r="L140" s="26"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="27">
         <v>43062</v>
       </c>
@@ -13890,7 +13891,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="27">
         <v>43062</v>
       </c>
@@ -13961,7 +13962,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="27">
         <v>43062</v>
       </c>
@@ -14032,7 +14033,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="27">
         <v>43062</v>
       </c>
@@ -14103,7 +14104,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="27">
         <v>43062</v>
       </c>
@@ -14134,7 +14135,7 @@
       <c r="K149" s="26"/>
       <c r="L149" s="26"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="27">
         <v>43062</v>
       </c>
@@ -14167,7 +14168,7 @@
       <c r="K150" s="26"/>
       <c r="L150" s="26"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="27">
         <v>43062</v>
       </c>
@@ -14200,7 +14201,7 @@
       <c r="K151" s="26"/>
       <c r="L151" s="26"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="27">
         <v>43062</v>
       </c>
@@ -14231,7 +14232,7 @@
       <c r="K152" s="26"/>
       <c r="L152" s="26"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="27">
         <v>43062</v>
       </c>
@@ -14264,7 +14265,7 @@
       <c r="K153" s="26"/>
       <c r="L153" s="26"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="27">
         <v>43062</v>
       </c>
@@ -14295,7 +14296,7 @@
       <c r="K154" s="26"/>
       <c r="L154" s="26"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="27">
         <v>43062</v>
       </c>
@@ -14368,7 +14369,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="27">
         <v>43062</v>
       </c>
@@ -14441,7 +14442,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="27">
         <v>43062</v>
       </c>
@@ -14512,7 +14513,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="27">
         <v>43062</v>
       </c>
@@ -14583,7 +14584,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="27">
         <v>43062</v>
       </c>
@@ -14654,7 +14655,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="27">
         <v>43062</v>
       </c>
@@ -14687,7 +14688,7 @@
       <c r="K165" s="26"/>
       <c r="L165" s="26"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="27">
         <v>43062</v>
       </c>
@@ -14718,7 +14719,7 @@
       <c r="K166" s="26"/>
       <c r="L166" s="26"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="27">
         <v>43062</v>
       </c>
@@ -14751,7 +14752,7 @@
       <c r="K167" s="26"/>
       <c r="L167" s="26"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="27">
         <v>43062</v>
       </c>
@@ -14784,7 +14785,7 @@
       <c r="K168" s="26"/>
       <c r="L168" s="26"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="27">
         <v>43062</v>
       </c>
@@ -14859,7 +14860,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="27">
         <v>43062</v>
       </c>
@@ -14930,7 +14931,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="27">
         <v>43062</v>
       </c>
@@ -15001,7 +15002,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="27">
         <v>43062</v>
       </c>
@@ -15032,7 +15033,7 @@
       <c r="K175" s="26"/>
       <c r="L175" s="26"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="27">
         <v>43062</v>
       </c>
@@ -15105,7 +15106,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="27">
         <v>43062</v>
       </c>
@@ -15178,7 +15179,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="27">
         <v>43062</v>
       </c>
@@ -15251,7 +15252,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="27">
         <v>43062</v>
       </c>
@@ -15284,7 +15285,7 @@
       <c r="K182" s="26"/>
       <c r="L182" s="26"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="27">
         <v>43062</v>
       </c>
@@ -15317,7 +15318,7 @@
       <c r="K183" s="26"/>
       <c r="L183" s="26"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="27">
         <v>43062</v>
       </c>
@@ -15350,7 +15351,7 @@
       <c r="K184" s="26"/>
       <c r="L184" s="26"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="27">
         <v>43062</v>
       </c>
@@ -15421,7 +15422,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="27">
         <v>43062</v>
       </c>
@@ -15452,7 +15453,7 @@
       <c r="K187" s="26"/>
       <c r="L187" s="26"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="27">
         <v>43062</v>
       </c>
@@ -15485,7 +15486,7 @@
       <c r="K188" s="26"/>
       <c r="L188" s="26"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="27">
         <v>43062</v>
       </c>
@@ -15516,7 +15517,7 @@
       <c r="K189" s="26"/>
       <c r="L189" s="26"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="27">
         <v>43062</v>
       </c>
@@ -15549,7 +15550,7 @@
       <c r="K190" s="26"/>
       <c r="L190" s="26"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="27">
         <v>43062</v>
       </c>
@@ -15580,7 +15581,7 @@
       <c r="K191" s="26"/>
       <c r="L191" s="26"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="27">
         <v>43062</v>
       </c>
@@ -15614,7 +15615,7 @@
       </c>
       <c r="L192" s="26"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="27">
         <v>43062</v>
       </c>
@@ -15645,7 +15646,7 @@
       <c r="K193" s="26"/>
       <c r="L193" s="26"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="27">
         <v>43062</v>
       </c>
@@ -15713,7 +15714,7 @@
       </c>
       <c r="L195" s="26"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="27">
         <v>43062</v>
       </c>
@@ -15744,7 +15745,7 @@
       <c r="K196" s="26"/>
       <c r="L196" s="26"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="27">
         <v>43062</v>
       </c>
@@ -15777,7 +15778,7 @@
       <c r="K197" s="26"/>
       <c r="L197" s="26"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="27">
         <v>43062</v>
       </c>
@@ -15848,7 +15849,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="27">
         <v>43062</v>
       </c>
@@ -15919,7 +15920,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="27">
         <v>43062</v>
       </c>
@@ -15952,7 +15953,7 @@
       <c r="K202" s="26"/>
       <c r="L202" s="26"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="27">
         <v>43062</v>
       </c>
@@ -16023,7 +16024,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="27">
         <v>43062</v>
       </c>
@@ -16094,7 +16095,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="27">
         <v>43062</v>
       </c>
@@ -16125,7 +16126,7 @@
       <c r="K207" s="26"/>
       <c r="L207" s="26"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="27">
         <v>43062</v>
       </c>
@@ -16158,7 +16159,7 @@
       <c r="K208" s="26"/>
       <c r="L208" s="26"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="27">
         <v>43062</v>
       </c>
@@ -16189,7 +16190,7 @@
       <c r="K209" s="26"/>
       <c r="L209" s="26"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="27">
         <v>43062</v>
       </c>
@@ -16222,7 +16223,7 @@
       <c r="K210" s="26"/>
       <c r="L210" s="26"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="27">
         <v>43062</v>
       </c>
@@ -16293,7 +16294,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="27">
         <v>43062</v>
       </c>
@@ -16324,7 +16325,7 @@
       <c r="K213" s="26"/>
       <c r="L213" s="26"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="27">
         <v>43062</v>
       </c>
@@ -16357,7 +16358,7 @@
       <c r="K214" s="26"/>
       <c r="L214" s="26"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="27">
         <v>43062</v>
       </c>
@@ -16388,7 +16389,7 @@
       <c r="K215" s="26"/>
       <c r="L215" s="26"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="27">
         <v>43062</v>
       </c>
@@ -16419,7 +16420,7 @@
       <c r="K216" s="26"/>
       <c r="L216" s="26"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="27">
         <v>43062</v>
       </c>
@@ -16490,7 +16491,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="27">
         <v>43062</v>
       </c>
@@ -16521,7 +16522,7 @@
       <c r="K219" s="26"/>
       <c r="L219" s="26"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="27">
         <v>43062</v>
       </c>
@@ -16542,7 +16543,7 @@
       </c>
       <c r="G220" s="28"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="37" t="s">
         <v>912</v>
       </c>
@@ -16569,7 +16570,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="37" t="s">
         <v>912</v>
       </c>
@@ -16599,7 +16600,7 @@
       <c r="J222" s="22"/>
       <c r="K222" s="41"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="37" t="s">
         <v>912</v>
       </c>
@@ -16659,7 +16660,7 @@
       <c r="J224" s="20"/>
       <c r="K224" s="40"/>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="37" t="s">
         <v>912</v>
       </c>
@@ -16729,7 +16730,7 @@
       <c r="J226" s="23"/>
       <c r="K226" s="40"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="37" t="s">
         <v>912</v>
       </c>
@@ -16769,7 +16770,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="37" t="s">
         <v>912</v>
       </c>
@@ -16799,7 +16800,7 @@
       <c r="J228" s="22"/>
       <c r="K228" s="41"/>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="37" t="s">
         <v>912</v>
       </c>
@@ -16859,7 +16860,7 @@
       <c r="J230" s="22"/>
       <c r="K230" s="41"/>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="37" t="s">
         <v>912</v>
       </c>
@@ -16899,7 +16900,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="37" t="s">
         <v>912</v>
       </c>
@@ -16929,7 +16930,7 @@
       <c r="J232" s="22"/>
       <c r="K232" s="41"/>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="37" t="s">
         <v>912</v>
       </c>
@@ -16989,7 +16990,7 @@
       <c r="J234" s="22"/>
       <c r="K234" s="41"/>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="37" t="s">
         <v>912</v>
       </c>
@@ -17029,7 +17030,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="37" t="s">
         <v>912</v>
       </c>
@@ -17088,7 +17089,7 @@
       <c r="J237" s="20"/>
       <c r="K237" s="40"/>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="37" t="s">
         <v>912</v>
       </c>
@@ -17158,7 +17159,7 @@
       <c r="J239" s="22"/>
       <c r="K239" s="41"/>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="37" t="s">
         <v>912</v>
       </c>
@@ -17228,7 +17229,7 @@
       <c r="J241" s="22"/>
       <c r="K241" s="40"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="37" t="s">
         <v>912</v>
       </c>
@@ -17268,7 +17269,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="37" t="s">
         <v>912</v>
       </c>
@@ -17298,7 +17299,7 @@
       <c r="J243" s="20"/>
       <c r="K243" s="40"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="37" t="s">
         <v>912</v>
       </c>
@@ -17358,7 +17359,7 @@
       <c r="J245" s="20"/>
       <c r="K245" s="40"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="37" t="s">
         <v>912</v>
       </c>
@@ -17428,7 +17429,7 @@
       <c r="J247" s="22"/>
       <c r="K247" s="41"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="37" t="s">
         <v>912</v>
       </c>
@@ -17468,7 +17469,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="37" t="s">
         <v>912</v>
       </c>
@@ -17498,7 +17499,7 @@
       <c r="J249" s="20"/>
       <c r="K249" s="40"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="37" t="s">
         <v>912</v>
       </c>
@@ -17558,7 +17559,7 @@
       <c r="J251" s="22"/>
       <c r="K251" s="41"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="37" t="s">
         <v>912</v>
       </c>
@@ -17598,7 +17599,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="37" t="s">
         <v>912</v>
       </c>
@@ -17658,7 +17659,7 @@
       <c r="J254" s="20"/>
       <c r="K254" s="40"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="37" t="s">
         <v>912</v>
       </c>
@@ -17698,7 +17699,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="37" t="s">
         <v>912</v>
       </c>
@@ -17723,7 +17724,7 @@
       <c r="J256" s="20"/>
       <c r="K256" s="40"/>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17754,7 +17755,7 @@
       <c r="K257" s="41"/>
       <c r="L257" s="41"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17818,7 +17819,7 @@
       <c r="K259" s="40"/>
       <c r="L259" s="40"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17857,7 +17858,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17888,7 +17889,7 @@
       <c r="K261" s="40"/>
       <c r="L261" s="40"/>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17950,7 +17951,7 @@
       <c r="K263" s="41"/>
       <c r="L263" s="41"/>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="37" t="s">
         <v>1037</v>
       </c>
@@ -17990,7 +17991,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18021,7 +18022,7 @@
       <c r="K265" s="41"/>
       <c r="L265" s="41"/>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18054,7 +18055,7 @@
       <c r="K266" s="41"/>
       <c r="L266" s="41"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18085,7 +18086,7 @@
       <c r="K267" s="41"/>
       <c r="L267" s="41"/>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18120,7 +18121,7 @@
       <c r="K268" s="41"/>
       <c r="L268" s="41"/>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18151,7 +18152,7 @@
       <c r="K269" s="41"/>
       <c r="L269" s="41"/>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18213,7 +18214,7 @@
       <c r="K271" s="40"/>
       <c r="L271" s="40"/>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18253,7 +18254,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18284,7 +18285,7 @@
       <c r="K273" s="40"/>
       <c r="L273" s="40"/>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18347,7 +18348,7 @@
       <c r="K275" s="40"/>
       <c r="L275" s="40"/>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18418,7 +18419,7 @@
       <c r="K277" s="40"/>
       <c r="L277" s="40"/>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18489,7 +18490,7 @@
       <c r="K279" s="40"/>
       <c r="L279" s="40"/>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18529,7 +18530,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18591,7 +18592,7 @@
       <c r="K282" s="41"/>
       <c r="L282" s="41"/>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18662,7 +18663,7 @@
       <c r="K284" s="40"/>
       <c r="L284" s="41"/>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18733,7 +18734,7 @@
       <c r="K286" s="41"/>
       <c r="L286" s="41"/>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18773,7 +18774,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18806,7 +18807,7 @@
       <c r="K288" s="41"/>
       <c r="L288" s="41"/>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18837,7 +18838,7 @@
       <c r="K289" s="40"/>
       <c r="L289" s="40"/>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18870,7 +18871,7 @@
       <c r="K290" s="41"/>
       <c r="L290" s="41"/>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18901,7 +18902,7 @@
       <c r="K291" s="40"/>
       <c r="L291" s="40"/>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="37" t="s">
         <v>1037</v>
       </c>
@@ -18967,7 +18968,7 @@
       <c r="K293" s="41"/>
       <c r="L293" s="40"/>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="37" t="s">
         <v>1037</v>
       </c>
@@ -19007,7 +19008,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="37" t="s">
         <v>1037</v>
       </c>
@@ -19038,7 +19039,7 @@
       <c r="K295" s="41"/>
       <c r="L295" s="40"/>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="37" t="s">
         <v>1037</v>
       </c>
@@ -19071,7 +19072,7 @@
       <c r="K296" s="41"/>
       <c r="L296" s="41"/>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="37" t="s">
         <v>1037</v>
       </c>
@@ -19102,7 +19103,7 @@
       <c r="K297" s="41"/>
       <c r="L297" s="40"/>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="37" t="s">
         <v>1037</v>
       </c>
@@ -19126,7 +19127,7 @@
       <c r="K298" s="41"/>
       <c r="L298" s="41"/>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19157,7 +19158,7 @@
       <c r="K299" s="41"/>
       <c r="L299" s="41"/>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19190,7 +19191,7 @@
       <c r="K300" s="40"/>
       <c r="L300" s="40"/>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19221,7 +19222,7 @@
       <c r="K301" s="40"/>
       <c r="L301" s="40"/>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19292,7 +19293,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19323,7 +19324,7 @@
       <c r="K304" s="41"/>
       <c r="L304" s="41"/>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19356,7 +19357,7 @@
       <c r="K305" s="41"/>
       <c r="L305" s="41"/>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19387,7 +19388,7 @@
       <c r="K306" s="40"/>
       <c r="L306" s="40"/>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19422,7 +19423,7 @@
       <c r="K307" s="41"/>
       <c r="L307" s="41"/>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19453,7 +19454,7 @@
       <c r="K308" s="41"/>
       <c r="L308" s="41"/>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19488,7 +19489,7 @@
       <c r="K309" s="41"/>
       <c r="L309" s="41"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19599,7 +19600,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19630,7 +19631,7 @@
       <c r="K313" s="40"/>
       <c r="L313" s="40"/>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19663,7 +19664,7 @@
       <c r="K314" s="40"/>
       <c r="L314" s="40"/>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19694,7 +19695,7 @@
       <c r="K315" s="40"/>
       <c r="L315" s="40"/>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19729,7 +19730,7 @@
       <c r="K316" s="41"/>
       <c r="L316" s="41"/>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19760,7 +19761,7 @@
       <c r="K317" s="40"/>
       <c r="L317" s="40"/>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19795,7 +19796,7 @@
       <c r="K318" s="40"/>
       <c r="L318" s="40"/>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19868,7 +19869,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19899,7 +19900,7 @@
       <c r="K321" s="40"/>
       <c r="L321" s="40"/>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" s="37" t="s">
         <v>1038</v>
       </c>
@@ -19972,7 +19973,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20003,7 +20004,7 @@
       <c r="K324" s="41"/>
       <c r="L324" s="41"/>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20036,7 +20037,7 @@
       <c r="K325" s="41"/>
       <c r="L325" s="41"/>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20067,7 +20068,7 @@
       <c r="K326" s="40"/>
       <c r="L326" s="41"/>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20100,7 +20101,7 @@
       <c r="K327" s="41"/>
       <c r="L327" s="40"/>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20131,7 +20132,7 @@
       <c r="K328" s="41"/>
       <c r="L328" s="41"/>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20164,7 +20165,7 @@
       <c r="K329" s="40"/>
       <c r="L329" s="40"/>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20197,7 +20198,7 @@
       <c r="K330" s="41"/>
       <c r="L330" s="41"/>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20268,7 +20269,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20299,7 +20300,7 @@
       <c r="K333" s="40"/>
       <c r="L333" s="40"/>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20332,7 +20333,7 @@
       <c r="K334" s="41"/>
       <c r="L334" s="41"/>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20363,7 +20364,7 @@
       <c r="K335" s="41"/>
       <c r="L335" s="40"/>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20394,7 +20395,7 @@
       <c r="K336" s="41"/>
       <c r="L336" s="41"/>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20425,7 +20426,7 @@
       <c r="K337" s="41"/>
       <c r="L337" s="40"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20458,7 +20459,7 @@
       <c r="K338" s="41"/>
       <c r="L338" s="41"/>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20489,7 +20490,7 @@
       <c r="K339" s="41"/>
       <c r="L339" s="40"/>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20520,7 +20521,7 @@
       <c r="K340" s="41"/>
       <c r="L340" s="41"/>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20553,7 +20554,7 @@
       <c r="K341" s="41"/>
       <c r="L341" s="40"/>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20584,7 +20585,7 @@
       <c r="K342" s="41"/>
       <c r="L342" s="41"/>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20615,7 +20616,7 @@
       <c r="K343" s="40"/>
       <c r="L343" s="40"/>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20686,7 +20687,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20717,7 +20718,7 @@
       <c r="K346" s="41"/>
       <c r="L346" s="41"/>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20750,7 +20751,7 @@
       <c r="K347" s="41"/>
       <c r="L347" s="41"/>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20781,7 +20782,7 @@
       <c r="K348" s="42"/>
       <c r="L348" s="42"/>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20852,7 +20853,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20883,7 +20884,7 @@
       <c r="K351" s="41"/>
       <c r="L351" s="41"/>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20954,7 +20955,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="37" t="s">
         <v>1038</v>
       </c>
@@ -20985,7 +20986,7 @@
       <c r="K354" s="40"/>
       <c r="L354" s="40"/>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21016,7 +21017,7 @@
       <c r="K355" s="41"/>
       <c r="L355" s="41"/>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21049,7 +21050,7 @@
       <c r="K356" s="40"/>
       <c r="L356" s="40"/>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21080,7 +21081,7 @@
       <c r="K357" s="41"/>
       <c r="L357" s="41"/>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21111,7 +21112,7 @@
       <c r="K358" s="40"/>
       <c r="L358" s="40"/>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21142,7 +21143,7 @@
       <c r="K359" s="41"/>
       <c r="L359" s="41"/>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21173,7 +21174,7 @@
       <c r="K360" s="40"/>
       <c r="L360" s="40"/>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" s="37" t="s">
         <v>1038</v>
       </c>
@@ -21201,14 +21202,20 @@
       <c r="K361" s="40"/>
       <c r="L361" s="40"/>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="G362" s="16">
         <f>SUM(G2:G361)</f>
         <v>10000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T362" xr:uid="{7482A1D5-DADB-46C2-9285-BE270A6CD978}"/>
+  <autoFilter ref="A1:T362" xr:uid="{7482A1D5-DADB-46C2-9285-BE270A6CD978}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="HC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/R/2017_11_23_Completed_LN1_Deep (0m to 120m)_newcleaned.xlsx
+++ b/R/2017_11_23_Completed_LN1_Deep (0m to 120m)_newcleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AA8C5FC8-DDE1-4659-8CAB-01DD444F1B98}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{76C2820D-4110-48A3-B980-830ED6D5817C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="454" windowWidth="16660" windowHeight="15220" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="1074">
   <si>
     <t>Date/Time</t>
   </si>
@@ -3273,6 +3273,9 @@
   </si>
   <si>
     <t>Tubastraea sp.</t>
+  </si>
+  <si>
+    <t>Tubastraea micranthus</t>
   </si>
 </sst>
 </file>
@@ -3308,6 +3311,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3325,6 +3329,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3441,7 +3446,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3588,6 +3593,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -9095,9 +9109,9 @@
   <dimension ref="A1:T362"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A224" sqref="A224:XFD293"/>
+      <selection pane="bottomLeft" activeCell="J195" activeCellId="1" sqref="B195:F195 J195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
@@ -12415,6 +12429,9 @@
         <v>1049</v>
       </c>
       <c r="L97" s="26"/>
+      <c r="M97" s="16" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="27">
@@ -16659,6 +16676,9 @@
       <c r="I224" s="17"/>
       <c r="J224" s="20"/>
       <c r="K224" s="40"/>
+      <c r="M224" s="49" t="s">
+        <v>1059</v>
+      </c>
     </row>
     <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="37" t="s">
@@ -16729,6 +16749,9 @@
       <c r="I226" s="17"/>
       <c r="J226" s="23"/>
       <c r="K226" s="40"/>
+      <c r="M226" s="49" t="s">
+        <v>967</v>
+      </c>
     </row>
     <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="37" t="s">
@@ -16859,6 +16882,9 @@
       <c r="I230" s="21"/>
       <c r="J230" s="22"/>
       <c r="K230" s="41"/>
+      <c r="M230" s="49" t="s">
+        <v>972</v>
+      </c>
     </row>
     <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="37" t="s">
@@ -16989,6 +17015,9 @@
       <c r="I234" s="21"/>
       <c r="J234" s="22"/>
       <c r="K234" s="41"/>
+      <c r="M234" s="49" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="37" t="s">
@@ -17088,6 +17117,9 @@
       <c r="I237" s="17"/>
       <c r="J237" s="20"/>
       <c r="K237" s="40"/>
+      <c r="M237" s="49" t="s">
+        <v>1015</v>
+      </c>
     </row>
     <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="37" t="s">
@@ -17158,6 +17190,9 @@
       <c r="I239" s="21"/>
       <c r="J239" s="22"/>
       <c r="K239" s="41"/>
+      <c r="M239" s="49" t="s">
+        <v>967</v>
+      </c>
     </row>
     <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="37" t="s">
@@ -17228,6 +17263,9 @@
       <c r="I241" s="17"/>
       <c r="J241" s="22"/>
       <c r="K241" s="40"/>
+      <c r="M241" s="49" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="37" t="s">
@@ -17358,6 +17396,9 @@
       <c r="I245" s="17"/>
       <c r="J245" s="20"/>
       <c r="K245" s="40"/>
+      <c r="M245" s="49" t="s">
+        <v>1015</v>
+      </c>
     </row>
     <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="37" t="s">
@@ -17428,6 +17469,9 @@
       <c r="I247" s="21"/>
       <c r="J247" s="22"/>
       <c r="K247" s="41"/>
+      <c r="M247" s="49" t="s">
+        <v>1015</v>
+      </c>
     </row>
     <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="37" t="s">
@@ -17558,6 +17602,9 @@
       <c r="I251" s="21"/>
       <c r="J251" s="22"/>
       <c r="K251" s="41"/>
+      <c r="M251" s="49" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="37" t="s">
@@ -17658,6 +17705,9 @@
       <c r="I254" s="17"/>
       <c r="J254" s="20"/>
       <c r="K254" s="40"/>
+      <c r="M254" s="49" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="37" t="s">
@@ -17818,6 +17868,9 @@
       <c r="J259" s="20"/>
       <c r="K259" s="40"/>
       <c r="L259" s="40"/>
+      <c r="M259" s="50" t="s">
+        <v>1061</v>
+      </c>
     </row>
     <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="37" t="s">
@@ -17950,6 +18003,9 @@
       <c r="J263" s="22"/>
       <c r="K263" s="41"/>
       <c r="L263" s="41"/>
+      <c r="M263" s="51" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="37" t="s">
@@ -18213,6 +18269,9 @@
       <c r="J271" s="20"/>
       <c r="K271" s="40"/>
       <c r="L271" s="40"/>
+      <c r="M271" s="50" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="37" t="s">
@@ -18347,6 +18406,9 @@
       <c r="I275" s="17"/>
       <c r="K275" s="40"/>
       <c r="L275" s="40"/>
+      <c r="M275" s="50" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="37" t="s">
@@ -18418,6 +18480,9 @@
       <c r="J277" s="20"/>
       <c r="K277" s="40"/>
       <c r="L277" s="40"/>
+      <c r="M277" s="50" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="37" t="s">
@@ -18489,6 +18554,9 @@
       <c r="J279" s="20"/>
       <c r="K279" s="40"/>
       <c r="L279" s="40"/>
+      <c r="M279" s="50" t="s">
+        <v>1062</v>
+      </c>
     </row>
     <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="37" t="s">
@@ -18591,6 +18659,9 @@
       <c r="J282" s="22"/>
       <c r="K282" s="41"/>
       <c r="L282" s="41"/>
+      <c r="M282" s="47" t="s">
+        <v>1070</v>
+      </c>
     </row>
     <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="37" t="s">
@@ -18662,6 +18733,9 @@
       <c r="J284" s="20"/>
       <c r="K284" s="40"/>
       <c r="L284" s="41"/>
+      <c r="M284" s="51" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="37" t="s">
@@ -18733,6 +18807,9 @@
       <c r="J286" s="22"/>
       <c r="K286" s="41"/>
       <c r="L286" s="41"/>
+      <c r="M286" s="51" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="37" t="s">
@@ -18967,6 +19044,9 @@
       <c r="J293" s="22"/>
       <c r="K293" s="41"/>
       <c r="L293" s="40"/>
+      <c r="M293" s="48" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="37" t="s">

--- a/R/2017_11_23_Completed_LN1_Deep (0m to 120m)_newcleaned.xlsx
+++ b/R/2017_11_23_Completed_LN1_Deep (0m to 120m)_newcleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{76C2820D-4110-48A3-B980-830ED6D5817C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D7089982-6D0C-4270-894C-A17CD0DA3AF0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="454" windowWidth="16660" windowHeight="15220" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="1074">
   <si>
     <t>Date/Time</t>
   </si>
@@ -9111,7 +9111,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="J195" activeCellId="1" sqref="B195:F195 J195"/>
+      <selection pane="bottomLeft" activeCell="O195" sqref="O195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
@@ -15729,7 +15729,12 @@
       <c r="K195" s="26" t="s">
         <v>953</v>
       </c>
-      <c r="L195" s="26"/>
+      <c r="L195" s="26" t="s">
+        <v>1073</v>
+      </c>
+      <c r="M195" s="26" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="27">
